--- a/dev/Items.xlsx
+++ b/dev/Items.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\Warcraft III\Maps\Zulaman-WE\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="词缀" sheetId="1" r:id="rId1"/>
@@ -2496,12 +2496,12 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4691,6 +4691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4929,6 +4930,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4944,57 +4946,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="str">
@@ -5196,19 +5198,19 @@
       <c r="B25" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="63">
         <v>15</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <v>10</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="63">
         <v>11</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64">
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63">
         <v>7</v>
       </c>
       <c r="J25" s="34">
@@ -5224,17 +5226,17 @@
       <c r="B26" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="63">
         <v>25</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64">
+      <c r="D26" s="63"/>
+      <c r="E26" s="63">
         <v>11</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64">
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63">
         <v>7</v>
       </c>
       <c r="J26" s="34">
@@ -5250,19 +5252,19 @@
       <c r="B27" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64">
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63">
         <v>11</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="63">
         <v>13</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="63">
         <v>12</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="63">
         <v>7</v>
       </c>
       <c r="J27" s="34">
@@ -5278,19 +5280,19 @@
       <c r="B28" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64">
+      <c r="C28" s="63"/>
+      <c r="D28" s="63">
         <v>9</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64">
+      <c r="E28" s="63"/>
+      <c r="F28" s="63">
         <v>17</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="63">
         <v>12</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64">
+      <c r="H28" s="63"/>
+      <c r="I28" s="63">
         <v>6</v>
       </c>
       <c r="J28" s="34">
@@ -5306,19 +5308,19 @@
       <c r="B29" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64">
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63">
         <v>10</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="63">
         <v>12</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="63">
         <v>15</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="63">
         <v>7</v>
       </c>
       <c r="J29" s="34">
@@ -5334,19 +5336,19 @@
       <c r="B30" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="63">
         <v>7</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63">
         <v>14</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="63">
         <v>17</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="63">
         <v>6</v>
       </c>
       <c r="J30" s="34">
@@ -5362,19 +5364,19 @@
       <c r="B31" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="63">
         <v>11</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64">
+      <c r="D31" s="63"/>
+      <c r="E31" s="63">
         <v>12</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="63">
         <v>14</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64">
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63">
         <v>7</v>
       </c>
       <c r="J31" s="34">
@@ -5390,19 +5392,19 @@
       <c r="B32" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64">
+      <c r="C32" s="63"/>
+      <c r="D32" s="63">
         <v>20</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64">
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63">
         <v>10</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="63">
         <v>7</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="63">
         <v>7</v>
       </c>
       <c r="J32" s="34">
@@ -5418,19 +5420,19 @@
       <c r="B33" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="63">
         <v>10</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64">
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63">
         <v>15</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="63">
         <v>12</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="63">
         <v>7</v>
       </c>
       <c r="J33" s="34">
@@ -5446,19 +5448,19 @@
       <c r="B34" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="63">
         <v>11</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64">
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63">
         <v>15</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="63">
         <v>12</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="63">
         <v>6</v>
       </c>
       <c r="J34" s="34">
@@ -5474,19 +5476,19 @@
       <c r="B35" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64">
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63">
         <v>15</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="63">
         <v>14</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="63">
         <v>9</v>
       </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64">
+      <c r="H35" s="63"/>
+      <c r="I35" s="63">
         <v>6</v>
       </c>
       <c r="J35" s="34">
@@ -5502,19 +5504,19 @@
       <c r="B36" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64">
+      <c r="C36" s="63"/>
+      <c r="D36" s="63">
         <v>9</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="63">
         <v>13</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64">
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63">
         <v>15</v>
       </c>
-      <c r="I36" s="64">
+      <c r="I36" s="63">
         <v>7</v>
       </c>
       <c r="J36" s="34">
@@ -5530,19 +5532,19 @@
       <c r="B37" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <v>11</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="63">
         <v>13</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="63">
         <v>13</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64">
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63">
         <v>7</v>
       </c>
       <c r="J37" s="34">
@@ -5558,21 +5560,21 @@
       <c r="B38" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64">
+      <c r="C38" s="63"/>
+      <c r="D38" s="63">
         <v>10</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="63">
         <v>9</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="63">
         <v>14</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64">
+      <c r="G38" s="63"/>
+      <c r="H38" s="63">
         <v>10</v>
       </c>
-      <c r="I38" s="64"/>
+      <c r="I38" s="63"/>
       <c r="J38" s="34">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5586,19 +5588,19 @@
       <c r="B39" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="63">
         <v>10</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="63">
         <v>13</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64">
+      <c r="E39" s="63"/>
+      <c r="F39" s="63">
         <v>14</v>
       </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64">
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63">
         <v>7</v>
       </c>
       <c r="J39" s="34">
@@ -5614,19 +5616,19 @@
       <c r="B40" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64">
+      <c r="C40" s="63"/>
+      <c r="D40" s="63">
         <v>16</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="63">
         <v>16</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="63">
         <v>6</v>
       </c>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64">
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63">
         <v>6</v>
       </c>
       <c r="J40" s="34">
@@ -6124,9 +6126,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
@@ -6149,7 +6152,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="61" t="s">
@@ -6161,19 +6164,19 @@
       <c r="E1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="64" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="61" t="s">
@@ -6181,3161 +6184,3161 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="66">
         <v>1</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="65">
         <v>30</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="65">
         <v>1000</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="65">
         <v>15001</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="66">
         <f t="shared" ref="F2:F97" si="0">D2/E2</f>
         <v>6.6662222518498765E-2</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="66">
         <f t="shared" ref="G2:G97" si="1">F2*B2</f>
         <v>6.6662222518498765E-2</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="66">
         <f>G2</f>
         <v>6.6662222518498765E-2</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="66">
         <f t="array" ref="I2">IF(IF(H2&lt;C2,G2,C2-"")&lt;0,0,IF(H2&lt;C2,G2,C2-""))</f>
         <v>6.6662222518498765E-2</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67">
+      <c r="J2" s="65"/>
+      <c r="K2" s="66">
         <f t="shared" ref="K2:K97" ca="1" si="2">RAND() * 100</f>
-        <v>50.687399628015775</v>
-      </c>
-      <c r="L2" s="66" t="str">
+        <v>83.105659982113167</v>
+      </c>
+      <c r="L2" s="65" t="str">
         <f ca="1">IF(K2&lt;=C2, IF(K2&lt;H2,$A$2,IF(K2&lt;H3,$A$3, IF(K2&lt;H4,$A$4, IF(K2&lt;H5,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="66">
         <v>5</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="65">
         <f t="shared" ref="C3:C97" si="3">C2</f>
         <v>30</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="65">
         <v>1000</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="65">
         <f t="shared" ref="E3:E97" si="4">E2</f>
         <v>15001</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="66">
         <f t="shared" si="0"/>
         <v>6.6662222518498765E-2</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="66">
         <f t="shared" si="1"/>
         <v>0.3333111125924938</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="66">
         <f t="shared" ref="H3:H5" si="5">H2+G3</f>
         <v>0.39997333511099253</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="66">
         <f t="shared" ref="I3:I5" si="6">IF(IF(H3&lt;C3,G3,C3-H2)&lt;0,0,IF(H3&lt;C3,G3,C3-H2))</f>
         <v>0.3333111125924938</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67">
+      <c r="J3" s="65"/>
+      <c r="K3" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>17.721219506328424</v>
-      </c>
-      <c r="L3" s="66" t="str">
+        <v>52.868715114427587</v>
+      </c>
+      <c r="L3" s="65" t="str">
         <f ca="1">IF(K3&lt;=C3, IF(K3&lt;H2,$A$2,IF(K3&lt;H3,$A$3, IF(K3&lt;H4,$A$4, IF(K3&lt;H5,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <v>15</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="65">
         <v>1000</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="66">
         <f t="shared" si="0"/>
         <v>6.6662222518498765E-2</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="66">
         <f t="shared" si="1"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="66">
         <f t="shared" si="5"/>
         <v>1.3999066728884739</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="66">
         <f t="shared" si="6"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67">
+      <c r="J4" s="65"/>
+      <c r="K4" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>33.990814228260128</v>
-      </c>
-      <c r="L4" s="66" t="str">
+        <v>57.009159545743096</v>
+      </c>
+      <c r="L4" s="65" t="str">
         <f ca="1">IF(K4&lt;=C4, IF(K4&lt;H2,$A$2,IF(K4&lt;H3,$A$3, IF(K4&lt;H4,$A$4, IF(K4&lt;H5,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>425</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="66">
         <v>7</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="65">
         <v>1000</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="66">
         <f t="shared" si="0"/>
         <v>6.6662222518498765E-2</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="66">
         <f t="shared" si="1"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="66">
         <f t="shared" si="5"/>
         <v>1.8665422305179653</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="66">
         <f t="shared" si="6"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67">
+      <c r="J5" s="65"/>
+      <c r="K5" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>15.11065184001894</v>
-      </c>
-      <c r="L5" s="66" t="str">
+        <v>97.784781660540816</v>
+      </c>
+      <c r="L5" s="65" t="str">
         <f ca="1">IF(K5&lt;=C5, IF(K5&lt;H2,$A$2,IF(K5&lt;H3,$A$3, IF(K5&lt;H4,$A$4, IF(K5&lt;H5,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <f t="shared" ref="B6:B97" si="7">B2</f>
         <v>1</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D6" s="61">
         <v>2000</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="64">
         <f t="shared" si="0"/>
         <v>0.13332444503699753</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="64">
         <f t="shared" si="1"/>
         <v>0.13332444503699753</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="64">
         <f>G6</f>
         <v>0.13332444503699753</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="64">
         <f t="array" ref="I6">IF(IF(H6&lt;C6,G6,C6-"")&lt;0,0,IF(H6&lt;C6,G6,C6-""))</f>
         <v>0.13332444503699753</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>92.093694806095343</v>
-      </c>
-      <c r="L6" s="66" t="str">
+        <v>17.932268675283801</v>
+      </c>
+      <c r="L6" s="65" t="str">
         <f ca="1">IF(K6&lt;=C6, IF(K6&lt;H6,$A$2,IF(K6&lt;H7,$A$3, IF(K6&lt;H8,$A$4, IF(K6&lt;H9,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D7" s="61">
         <v>2000</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="64">
         <f t="shared" si="0"/>
         <v>0.13332444503699753</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="64">
         <f t="shared" si="1"/>
         <v>0.66662222518498759</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="64">
         <f t="shared" ref="H7:H9" si="8">H6+G7</f>
         <v>0.79994667022198507</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="64">
         <f t="shared" ref="I7:I9" si="9">IF(IF(H7&lt;C7,G7,C7-H6)&lt;0,0,IF(H7&lt;C7,G7,C7-H6))</f>
         <v>0.66662222518498759</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>57.269274520463618</v>
-      </c>
-      <c r="L7" s="66" t="str">
+        <v>49.17520043790531</v>
+      </c>
+      <c r="L7" s="65" t="str">
         <f ca="1">IF(K7&lt;=C7, IF(K7&lt;H6,$A$2,IF(K7&lt;H7,$A$3, IF(K7&lt;H8,$A$4, IF(K7&lt;H9,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D8" s="61">
         <v>2000</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="64">
         <f t="shared" si="0"/>
         <v>0.13332444503699753</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="64">
         <f t="shared" si="1"/>
         <v>1.999866675554963</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="64">
         <f t="shared" si="8"/>
         <v>2.7998133457769478</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="64">
         <f t="shared" si="9"/>
         <v>1.999866675554963</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1238931291303516</v>
-      </c>
-      <c r="L8" s="66" t="str">
+        <v>4.5628042885039077</v>
+      </c>
+      <c r="L8" s="65" t="str">
         <f ca="1">IF(K8&lt;=C8, IF(K8&lt;H6,$A$2,IF(K8&lt;H7,$A$3, IF(K8&lt;H8,$A$4, IF(K8&lt;H9,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D9" s="61">
         <v>2000</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <f t="shared" si="0"/>
         <v>0.13332444503699753</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="64">
         <f t="shared" si="1"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="64">
         <f t="shared" si="8"/>
         <v>3.7330844610359306</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="64">
         <f t="shared" si="9"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>54.066584755068448</v>
-      </c>
-      <c r="L9" s="66" t="str">
+        <v>41.818049108607156</v>
+      </c>
+      <c r="L9" s="65" t="str">
         <f ca="1">IF(K9&lt;=C9, IF(K9&lt;H6,$A$2,IF(K9&lt;H7,$A$3, IF(K9&lt;H8,$A$4, IF(K9&lt;H9,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="65">
         <v>3000</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="66">
         <f t="shared" si="0"/>
         <v>0.19998666755549629</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="66">
         <f t="shared" si="1"/>
         <v>0.19998666755549629</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="66">
         <f>G10</f>
         <v>0.19998666755549629</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="66">
         <f t="array" ref="I10">IF(IF(H10&lt;C10,G10,C10-"")&lt;0,0,IF(H10&lt;C10,G10,C10-""))</f>
         <v>0.19998666755549629</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67">
+      <c r="J10" s="65"/>
+      <c r="K10" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>83.382088790799614</v>
-      </c>
-      <c r="L10" s="66" t="str">
+        <v>47.319224355482682</v>
+      </c>
+      <c r="L10" s="65" t="str">
         <f ca="1">IF(K10&lt;=C10, IF(K10&lt;H10,$A$2,IF(K10&lt;H11,$A$3, IF(K10&lt;H12,$A$4, IF(K10&lt;H13,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="65">
         <v>3000</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <f t="shared" si="0"/>
         <v>0.19998666755549629</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="66">
         <f t="shared" si="1"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="66">
         <f t="shared" ref="H11:H13" si="10">H10+G11</f>
         <v>1.1999200053329777</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="66">
         <f t="shared" ref="I11:I13" si="11">IF(IF(H11&lt;C11,G11,C11-H10)&lt;0,0,IF(H11&lt;C11,G11,C11-H10))</f>
         <v>0.9999333377774815</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67">
+      <c r="J11" s="65"/>
+      <c r="K11" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>42.692321502260697</v>
-      </c>
-      <c r="L11" s="66" t="str">
+        <v>18.276190341085542</v>
+      </c>
+      <c r="L11" s="65" t="str">
         <f ca="1">IF(K11&lt;=C11, IF(K11&lt;H10,$A$2,IF(K11&lt;H11,$A$3, IF(K11&lt;H12,$A$4, IF(K11&lt;H13,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="65">
         <v>3000</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="66">
         <f t="shared" si="0"/>
         <v>0.19998666755549629</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="66">
         <f t="shared" si="1"/>
         <v>2.9998000133324445</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="66">
         <f t="shared" si="10"/>
         <v>4.1997200186654222</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="66">
         <f t="shared" si="11"/>
         <v>2.9998000133324445</v>
       </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67">
+      <c r="J12" s="65"/>
+      <c r="K12" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44.384623676885163</v>
-      </c>
-      <c r="L12" s="66" t="str">
+        <v>53.191264906048239</v>
+      </c>
+      <c r="L12" s="65" t="str">
         <f ca="1">IF(K12&lt;=C12, IF(K12&lt;H10,$A$2,IF(K12&lt;H11,$A$3, IF(K12&lt;H12,$A$4, IF(K12&lt;H13,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="65">
         <v>3000</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="66">
         <f t="shared" si="0"/>
         <v>0.19998666755549629</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="66">
         <f t="shared" si="1"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="66">
         <f t="shared" si="10"/>
         <v>5.5996266915538966</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="66">
         <f t="shared" si="11"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67">
+      <c r="J13" s="65"/>
+      <c r="K13" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>77.345443397120079</v>
-      </c>
-      <c r="L13" s="66" t="str">
+        <v>45.060675292821237</v>
+      </c>
+      <c r="L13" s="65" t="str">
         <f ca="1">IF(K13&lt;=C13, IF(K13&lt;H10,$A$2,IF(K13&lt;H11,$A$3, IF(K13&lt;H12,$A$4, IF(K13&lt;H13,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="65">
+      <c r="B14" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D14" s="61">
         <v>4000</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="64">
         <f t="shared" si="0"/>
         <v>0.26664889007399506</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="64">
         <f t="shared" si="1"/>
         <v>0.26664889007399506</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="64">
         <f>G14</f>
         <v>0.26664889007399506</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="64">
         <f t="array" ref="I14">IF(IF(H14&lt;C14,G14,C14-"")&lt;0,0,IF(H14&lt;C14,G14,C14-""))</f>
         <v>0.26664889007399506</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>15.118510133087037</v>
-      </c>
-      <c r="L14" s="66" t="str">
+        <v>88.468482681263055</v>
+      </c>
+      <c r="L14" s="65" t="str">
         <f ca="1">IF(K14&lt;=C14, IF(K14&lt;H14,$A$2,IF(K14&lt;H15,$A$3, IF(K14&lt;H16,$A$4, IF(K14&lt;H17,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="65">
+      <c r="B15" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D15" s="61">
         <v>4000</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="64">
         <f t="shared" si="0"/>
         <v>0.26664889007399506</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="64">
         <f t="shared" si="1"/>
         <v>1.3332444503699752</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="64">
         <f t="shared" ref="H15:H17" si="12">H14+G15</f>
         <v>1.5998933404439701</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="64">
         <f t="shared" ref="I15:I17" si="13">IF(IF(H15&lt;C15,G15,C15-H14)&lt;0,0,IF(H15&lt;C15,G15,C15-H14))</f>
         <v>1.3332444503699752</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>31.955098208049094</v>
-      </c>
-      <c r="L15" s="66" t="str">
+        <v>83.447406113956518</v>
+      </c>
+      <c r="L15" s="65" t="str">
         <f ca="1">IF(K15&lt;=C15, IF(K15&lt;H14,$A$2,IF(K15&lt;H15,$A$3, IF(K15&lt;H16,$A$4, IF(K15&lt;H17,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D16" s="61">
         <v>4000</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="64">
         <f t="shared" si="0"/>
         <v>0.26664889007399506</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="64">
         <f t="shared" si="1"/>
         <v>3.999733351109926</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="64">
         <f t="shared" si="12"/>
         <v>5.5996266915538957</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="64">
         <f t="shared" si="13"/>
         <v>3.999733351109926</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>68.881804572494715</v>
-      </c>
-      <c r="L16" s="66" t="str">
+        <v>2.814003021182987</v>
+      </c>
+      <c r="L16" s="65" t="str">
         <f ca="1">IF(K16&lt;=C16, IF(K16&lt;H14,$A$2,IF(K16&lt;H15,$A$3, IF(K16&lt;H16,$A$4, IF(K16&lt;H17,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="65">
+      <c r="B17" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D17" s="61">
         <v>4000</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="64">
         <f t="shared" si="0"/>
         <v>0.26664889007399506</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="64">
         <f t="shared" si="1"/>
         <v>1.8665422305179655</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="64">
         <f t="shared" si="12"/>
         <v>7.4661689220718612</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="64">
         <f t="shared" si="13"/>
         <v>1.8665422305179655</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>16.929256962834714</v>
-      </c>
-      <c r="L17" s="66" t="str">
+        <v>74.197753939305429</v>
+      </c>
+      <c r="L17" s="65" t="str">
         <f ca="1">IF(K17&lt;=C17, IF(K17&lt;H14,$A$2,IF(K17&lt;H15,$A$3, IF(K17&lt;H16,$A$4, IF(K17&lt;H17,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="65">
         <v>5000</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="66">
         <f t="shared" si="0"/>
         <v>0.33331111259249385</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="66">
         <f t="shared" si="1"/>
         <v>0.33331111259249385</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="66">
         <f>G18</f>
         <v>0.33331111259249385</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="66">
         <f t="array" ref="I18">IF(IF(H18&lt;C18,G18,C18-"")&lt;0,0,IF(H18&lt;C18,G18,C18-""))</f>
         <v>0.33331111259249385</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67">
+      <c r="J18" s="65"/>
+      <c r="K18" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>57.318553332373199</v>
-      </c>
-      <c r="L18" s="66" t="str">
+        <v>16.903500669172356</v>
+      </c>
+      <c r="L18" s="65" t="str">
         <f ca="1">IF(K18&lt;=C18, IF(K18&lt;H18,$A$2,IF(K18&lt;H19,$A$3, IF(K18&lt;H20,$A$4, IF(K18&lt;H21,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="65">
         <v>5000</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="66">
         <f t="shared" si="0"/>
         <v>0.33331111259249385</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="66">
         <f t="shared" si="1"/>
         <v>1.6665555629624693</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="66">
         <f t="shared" ref="H19:H21" si="14">H18+G19</f>
         <v>1.9998666755549632</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="66">
         <f t="shared" ref="I19:I21" si="15">IF(IF(H19&lt;C19,G19,C19-H18)&lt;0,0,IF(H19&lt;C19,G19,C19-H18))</f>
         <v>1.6665555629624693</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67">
+      <c r="J19" s="65"/>
+      <c r="K19" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>33.154709601165408</v>
-      </c>
-      <c r="L19" s="66" t="str">
+        <v>31.741546830288215</v>
+      </c>
+      <c r="L19" s="65" t="str">
         <f ca="1">IF(K19&lt;=C19, IF(K19&lt;H18,$A$2,IF(K19&lt;H19,$A$3, IF(K19&lt;H20,$A$4, IF(K19&lt;H21,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="65">
         <v>5000</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="66">
         <f t="shared" si="0"/>
         <v>0.33331111259249385</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="66">
         <f t="shared" si="1"/>
         <v>4.999666688887408</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="66">
         <f t="shared" si="14"/>
         <v>6.999533364442371</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="66">
         <f t="shared" si="15"/>
         <v>4.999666688887408</v>
       </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67">
+      <c r="J20" s="65"/>
+      <c r="K20" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>90.476645238360604</v>
-      </c>
-      <c r="L20" s="66" t="str">
+        <v>84.786370113032959</v>
+      </c>
+      <c r="L20" s="65" t="str">
         <f ca="1">IF(K20&lt;=C20, IF(K20&lt;H18,$A$2,IF(K20&lt;H19,$A$3, IF(K20&lt;H20,$A$4, IF(K20&lt;H21,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="65">
         <v>5000</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="66">
         <f t="shared" si="0"/>
         <v>0.33331111259249385</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="66">
         <f t="shared" si="1"/>
         <v>2.3331777881474571</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="66">
         <f t="shared" si="14"/>
         <v>9.3327111525898285</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="66">
         <f t="shared" si="15"/>
         <v>2.3331777881474571</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67">
+      <c r="J21" s="65"/>
+      <c r="K21" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>94.493598670616606</v>
-      </c>
-      <c r="L21" s="66" t="str">
+        <v>54.526586936002928</v>
+      </c>
+      <c r="L21" s="65" t="str">
         <f ca="1">IF(K21&lt;=C21, IF(K21&lt;H18,$A$2,IF(K21&lt;H19,$A$3, IF(K21&lt;H20,$A$4, IF(K21&lt;H21,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="65">
+      <c r="B22" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D22" s="61">
         <v>6000</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <f t="shared" si="0"/>
         <v>0.39997333511099259</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="64">
         <f t="shared" si="1"/>
         <v>0.39997333511099259</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="64">
         <f>G22</f>
         <v>0.39997333511099259</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="64">
         <f>IF(IF(H22&lt;C22,G22,C22-H1)&lt;0,0,IF(H22&lt;C22,G22,C22-H1))</f>
         <v>0.39997333511099259</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>97.012724543806726</v>
-      </c>
-      <c r="L22" s="66" t="str">
+        <v>12.802588085283729</v>
+      </c>
+      <c r="L22" s="65" t="str">
         <f ca="1">IF(K22&lt;=C22, IF(K22&lt;H22,$A$2,IF(K22&lt;H23,$A$3, IF(K22&lt;H24,$A$4, IF(K22&lt;H25,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="65">
+      <c r="B23" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D23" s="61">
         <v>6000</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <f t="shared" si="0"/>
         <v>0.39997333511099259</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="64">
         <f t="shared" si="1"/>
         <v>1.999866675554963</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="64">
         <f t="shared" ref="H23:H25" si="16">H22+G23</f>
         <v>2.3998400106659554</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="64">
         <f t="shared" ref="I23:I97" si="17">IF(IF(H23&lt;C23,G23,C23-H22)&lt;0,0,IF(H23&lt;C23,G23,C23-H22))</f>
         <v>1.999866675554963</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>97.868212572673073</v>
-      </c>
-      <c r="L23" s="66" t="str">
+        <v>16.955270816284308</v>
+      </c>
+      <c r="L23" s="65" t="str">
         <f ca="1">IF(K23&lt;=C23, IF(K23&lt;H22,$A$2,IF(K23&lt;H23,$A$3, IF(K23&lt;H24,$A$4, IF(K23&lt;H25,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="65">
+      <c r="B24" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D24" s="61">
         <v>6000</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="64">
         <f t="shared" si="0"/>
         <v>0.39997333511099259</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="64">
         <f t="shared" si="1"/>
         <v>5.999600026664889</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="64">
         <f t="shared" si="16"/>
         <v>8.3994400373308444</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="64">
         <f t="shared" si="17"/>
         <v>5.999600026664889</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>90.563350128565716</v>
-      </c>
-      <c r="L24" s="66" t="str">
+        <v>3.7437726593620657</v>
+      </c>
+      <c r="L24" s="65" t="str">
         <f ca="1">IF(K24&lt;=C24, IF(K24&lt;H22,$A$2,IF(K24&lt;H23,$A$3, IF(K24&lt;H24,$A$4, IF(K24&lt;H25,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="65">
+      <c r="B25" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D25" s="61">
         <v>6000</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="64">
         <f t="shared" si="0"/>
         <v>0.39997333511099259</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="64">
         <f t="shared" si="1"/>
         <v>2.7998133457769483</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="64">
         <f t="shared" si="16"/>
         <v>11.199253383107793</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="64">
         <f t="shared" si="17"/>
         <v>2.7998133457769483</v>
       </c>
-      <c r="K25" s="67">
+      <c r="K25" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>36.685187904901227</v>
-      </c>
-      <c r="L25" s="66" t="str">
+        <v>50.723547833950143</v>
+      </c>
+      <c r="L25" s="65" t="str">
         <f ca="1">IF(K25&lt;=C25, IF(K25&lt;H22,$A$2,IF(K25&lt;H23,$A$3, IF(K25&lt;H24,$A$4, IF(K25&lt;H25,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67">
+      <c r="A26" s="65"/>
+      <c r="B26" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="65">
         <v>7000</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="66">
         <f t="shared" si="0"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="66">
         <f t="shared" si="1"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="66">
         <f>G26</f>
         <v>0.46663555762949138</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="66">
         <f t="shared" si="17"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67">
+      <c r="J26" s="65"/>
+      <c r="K26" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4511003677219065</v>
-      </c>
-      <c r="L26" s="66" t="str">
+        <v>7.8835256894360111</v>
+      </c>
+      <c r="L26" s="65" t="str">
         <f ca="1">IF(K26&lt;=C26, IF(K26&lt;H26,$A$2,IF(K26&lt;H27,$A$3, IF(K26&lt;H28,$A$4, IF(K26&lt;H29,$A$5, "NONE")))), "NONE")</f>
         <v>RP_UNCOMMON</v>
       </c>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="65">
         <v>7000</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="66">
         <f t="shared" si="0"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="66">
         <f t="shared" si="1"/>
         <v>2.3331777881474567</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="66">
         <f t="shared" ref="H27:H29" si="18">H26+G27</f>
         <v>2.7998133457769478</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="66">
         <f t="shared" si="17"/>
         <v>2.3331777881474567</v>
       </c>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67">
+      <c r="J27" s="65"/>
+      <c r="K27" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>31.644425268253983</v>
-      </c>
-      <c r="L27" s="66" t="str">
+        <v>61.485389870440763</v>
+      </c>
+      <c r="L27" s="65" t="str">
         <f ca="1">IF(K27&lt;=C27, IF(K27&lt;H26,$A$2,IF(K27&lt;H27,$A$3, IF(K27&lt;H28,$A$4, IF(K27&lt;H29,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67">
+      <c r="A28" s="65"/>
+      <c r="B28" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="65">
         <v>7000</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="66">
         <f t="shared" si="0"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="66">
         <f t="shared" si="1"/>
         <v>6.999533364442371</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="66">
         <f t="shared" si="18"/>
         <v>9.7993467102193179</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="66">
         <f t="shared" si="17"/>
         <v>6.999533364442371</v>
       </c>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67">
+      <c r="J28" s="65"/>
+      <c r="K28" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>60.721165305666581</v>
-      </c>
-      <c r="L28" s="66" t="str">
+        <v>37.685986267412908</v>
+      </c>
+      <c r="L28" s="65" t="str">
         <f ca="1">IF(K28&lt;=C28, IF(K28&lt;H26,$A$2,IF(K28&lt;H27,$A$3, IF(K28&lt;H28,$A$4, IF(K28&lt;H29,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67">
+      <c r="A29" s="65"/>
+      <c r="B29" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="65">
         <v>7000</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="66">
         <f t="shared" si="0"/>
         <v>0.46663555762949138</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="66">
         <f t="shared" si="1"/>
         <v>3.2664489034064399</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="66">
         <f t="shared" si="18"/>
         <v>13.065795613625758</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="66">
         <f t="shared" si="17"/>
         <v>3.2664489034064399</v>
       </c>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67">
+      <c r="J29" s="65"/>
+      <c r="K29" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>77.421367376791835</v>
-      </c>
-      <c r="L29" s="66" t="str">
+        <v>1.8795018743507752</v>
+      </c>
+      <c r="L29" s="65" t="str">
         <f ca="1">IF(K29&lt;=C29, IF(K29&lt;H26,$A$2,IF(K29&lt;H27,$A$3, IF(K29&lt;H28,$A$4, IF(K29&lt;H29,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
-      </c>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
+        <v>RP_RARE</v>
+      </c>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="65">
+      <c r="B30" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D30" s="61">
         <v>8000</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="64">
         <f t="shared" si="0"/>
         <v>0.53329778014799012</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="64">
         <f t="shared" si="1"/>
         <v>0.53329778014799012</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="64">
         <f>G30</f>
         <v>0.53329778014799012</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="64">
         <f t="shared" si="17"/>
         <v>0.53329778014799012</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>98.438845873556545</v>
-      </c>
-      <c r="L30" s="66" t="str">
+        <v>68.552117183563638</v>
+      </c>
+      <c r="L30" s="65" t="str">
         <f ca="1">IF(K30&lt;=C30, IF(K30&lt;H30,$A$2,IF(K30&lt;H31,$A$3, IF(K30&lt;H32,$A$4, IF(K30&lt;H33,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="65">
+      <c r="B31" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D31" s="61">
         <v>8000</v>
       </c>
-      <c r="E31" s="66">
+      <c r="E31" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="64">
         <f t="shared" si="0"/>
         <v>0.53329778014799012</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="64">
         <f t="shared" si="1"/>
         <v>2.6664889007399504</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="64">
         <f t="shared" ref="H31:H33" si="19">H30+G31</f>
         <v>3.1997866808879403</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="64">
         <f t="shared" si="17"/>
         <v>2.6664889007399504</v>
       </c>
-      <c r="K31" s="67">
+      <c r="K31" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>98.926681419274331</v>
-      </c>
-      <c r="L31" s="66" t="str">
+        <v>84.204741920940279</v>
+      </c>
+      <c r="L31" s="65" t="str">
         <f ca="1">IF(K31&lt;=C31, IF(K31&lt;H30,$A$2,IF(K31&lt;H31,$A$3, IF(K31&lt;H32,$A$4, IF(K31&lt;H33,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="65">
+      <c r="B32" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D32" s="61">
         <v>8000</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="64">
         <f t="shared" si="0"/>
         <v>0.53329778014799012</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="64">
         <f t="shared" si="1"/>
         <v>7.999466702219852</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="64">
         <f t="shared" si="19"/>
         <v>11.199253383107791</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="64">
         <f t="shared" si="17"/>
         <v>7.999466702219852</v>
       </c>
-      <c r="K32" s="67">
+      <c r="K32" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>83.711760240384947</v>
-      </c>
-      <c r="L32" s="66" t="str">
+        <v>25.470661137351559</v>
+      </c>
+      <c r="L32" s="65" t="str">
         <f ca="1">IF(K32&lt;=C32, IF(K32&lt;H30,$A$2,IF(K32&lt;H31,$A$3, IF(K32&lt;H32,$A$4, IF(K32&lt;H33,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="65">
+      <c r="B33" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D33" s="61">
         <v>8000</v>
       </c>
-      <c r="E33" s="66">
+      <c r="E33" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="64">
         <f t="shared" si="0"/>
         <v>0.53329778014799012</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="64">
         <f t="shared" si="1"/>
         <v>3.7330844610359311</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="64">
         <f t="shared" si="19"/>
         <v>14.932337844143722</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="64">
         <f t="shared" si="17"/>
         <v>3.7330844610359311</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>84.687353419713602</v>
-      </c>
-      <c r="L33" s="66" t="str">
+        <v>86.269586269715532</v>
+      </c>
+      <c r="L33" s="65" t="str">
         <f ca="1">IF(K33&lt;=C33, IF(K33&lt;H30,$A$2,IF(K33&lt;H31,$A$3, IF(K33&lt;H32,$A$4, IF(K33&lt;H33,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67">
+      <c r="A34" s="65"/>
+      <c r="B34" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="65">
         <v>9000</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="66">
         <f t="shared" si="0"/>
         <v>0.59996000266648886</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="66">
         <f t="shared" si="1"/>
         <v>0.59996000266648886</v>
       </c>
-      <c r="H34" s="67">
+      <c r="H34" s="66">
         <f>G34</f>
         <v>0.59996000266648886</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="66">
         <f t="shared" si="17"/>
         <v>0.59996000266648886</v>
       </c>
-      <c r="J34" s="66"/>
-      <c r="K34" s="67">
+      <c r="J34" s="65"/>
+      <c r="K34" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>26.51322032534037</v>
-      </c>
-      <c r="L34" s="66" t="str">
+        <v>39.519889054027438</v>
+      </c>
+      <c r="L34" s="65" t="str">
         <f ca="1">IF(K34&lt;=C34, IF(K34&lt;H34,$A$2,IF(K34&lt;H35,$A$3, IF(K34&lt;H36,$A$4, IF(K34&lt;H37,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67">
+      <c r="A35" s="65"/>
+      <c r="B35" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="65">
         <v>9000</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="66">
         <f t="shared" si="0"/>
         <v>0.59996000266648886</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="66">
         <f t="shared" si="1"/>
         <v>2.9998000133324441</v>
       </c>
-      <c r="H35" s="67">
+      <c r="H35" s="66">
         <f t="shared" ref="H35:H37" si="20">H34+G35</f>
         <v>3.5997600159989327</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="66">
         <f t="shared" si="17"/>
         <v>2.9998000133324441</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="67">
+      <c r="J35" s="65"/>
+      <c r="K35" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>45.339206497725741</v>
-      </c>
-      <c r="L35" s="66" t="str">
+        <v>58.512515248042483</v>
+      </c>
+      <c r="L35" s="65" t="str">
         <f ca="1">IF(K35&lt;=C35, IF(K35&lt;H34,$A$2,IF(K35&lt;H35,$A$3, IF(K35&lt;H36,$A$4, IF(K35&lt;H37,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67">
+      <c r="A36" s="65"/>
+      <c r="B36" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="65">
         <v>9000</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="66">
         <f t="shared" si="0"/>
         <v>0.59996000266648886</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="66">
         <f t="shared" si="1"/>
         <v>8.9994000399973331</v>
       </c>
-      <c r="H36" s="67">
+      <c r="H36" s="66">
         <f t="shared" si="20"/>
         <v>12.599160055996265</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="66">
         <f t="shared" si="17"/>
         <v>8.9994000399973331</v>
       </c>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67">
+      <c r="J36" s="65"/>
+      <c r="K36" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>73.846758852047657</v>
-      </c>
-      <c r="L36" s="66" t="str">
+        <v>64.717247320829713</v>
+      </c>
+      <c r="L36" s="65" t="str">
         <f ca="1">IF(K36&lt;=C36, IF(K36&lt;H34,$A$2,IF(K36&lt;H35,$A$3, IF(K36&lt;H36,$A$4, IF(K36&lt;H37,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67">
+      <c r="A37" s="65"/>
+      <c r="B37" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="65">
         <v>9000</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="66">
         <f t="shared" si="0"/>
         <v>0.59996000266648886</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="66">
         <f t="shared" si="1"/>
         <v>4.1997200186654222</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="66">
         <f t="shared" si="20"/>
         <v>16.798880074661689</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="66">
         <f t="shared" si="17"/>
         <v>4.1997200186654222</v>
       </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="67">
+      <c r="J37" s="65"/>
+      <c r="K37" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>47.975235935489145</v>
-      </c>
-      <c r="L37" s="66" t="str">
+        <v>47.353855176428979</v>
+      </c>
+      <c r="L37" s="65" t="str">
         <f ca="1">IF(K37&lt;=C37, IF(K37&lt;H34,$A$2,IF(K37&lt;H35,$A$3, IF(K37&lt;H36,$A$4, IF(K37&lt;H37,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="65">
+      <c r="B38" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D38" s="61">
         <v>10000</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="64">
         <f t="shared" si="0"/>
         <v>0.6666222251849877</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="64">
         <f t="shared" si="1"/>
         <v>0.6666222251849877</v>
       </c>
-      <c r="H38" s="65">
+      <c r="H38" s="64">
         <f>G38</f>
         <v>0.6666222251849877</v>
       </c>
-      <c r="I38" s="65">
+      <c r="I38" s="64">
         <f t="shared" si="17"/>
         <v>0.6666222251849877</v>
       </c>
-      <c r="K38" s="67">
+      <c r="K38" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>21.724414732050167</v>
-      </c>
-      <c r="L38" s="66" t="str">
+        <v>34.254573219884662</v>
+      </c>
+      <c r="L38" s="65" t="str">
         <f ca="1">IF(K38&lt;=C38, IF(K38&lt;H38,$A$2,IF(K38&lt;H39,$A$3, IF(K38&lt;H40,$A$4, IF(K38&lt;H41,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="65">
+      <c r="B39" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D39" s="61">
         <v>10000</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="64">
         <f t="shared" si="0"/>
         <v>0.6666222251849877</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="64">
         <f t="shared" si="1"/>
         <v>3.3331111259249386</v>
       </c>
-      <c r="H39" s="65">
+      <c r="H39" s="64">
         <f t="shared" ref="H39:H41" si="21">H38+G39</f>
         <v>3.9997333511099264</v>
       </c>
-      <c r="I39" s="65">
+      <c r="I39" s="64">
         <f t="shared" si="17"/>
         <v>3.3331111259249386</v>
       </c>
-      <c r="K39" s="67">
+      <c r="K39" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>40.03517699551611</v>
-      </c>
-      <c r="L39" s="66" t="str">
+        <v>26.540377635784651</v>
+      </c>
+      <c r="L39" s="65" t="str">
         <f ca="1">IF(K39&lt;=C39, IF(K39&lt;H38,$A$2,IF(K39&lt;H39,$A$3, IF(K39&lt;H40,$A$4, IF(K39&lt;H41,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="65">
+      <c r="B40" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D40" s="61">
         <v>10000</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F40" s="65">
+      <c r="F40" s="64">
         <f t="shared" si="0"/>
         <v>0.6666222251849877</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="64">
         <f t="shared" si="1"/>
         <v>9.9993333777748159</v>
       </c>
-      <c r="H40" s="65">
+      <c r="H40" s="64">
         <f t="shared" si="21"/>
         <v>13.999066728884742</v>
       </c>
-      <c r="I40" s="65">
+      <c r="I40" s="64">
         <f t="shared" si="17"/>
         <v>9.9993333777748159</v>
       </c>
-      <c r="K40" s="67">
+      <c r="K40" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44.605870789551552</v>
-      </c>
-      <c r="L40" s="66" t="str">
+        <v>78.723520916809264</v>
+      </c>
+      <c r="L40" s="65" t="str">
         <f ca="1">IF(K40&lt;=C40, IF(K40&lt;H38,$A$2,IF(K40&lt;H39,$A$3, IF(K40&lt;H40,$A$4, IF(K40&lt;H41,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="65">
+      <c r="B41" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D41" s="61">
         <v>10000</v>
       </c>
-      <c r="E41" s="66">
+      <c r="E41" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="64">
         <f t="shared" si="0"/>
         <v>0.6666222251849877</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="64">
         <f t="shared" si="1"/>
         <v>4.6663555762949143</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="64">
         <f t="shared" si="21"/>
         <v>18.665422305179657</v>
       </c>
-      <c r="I41" s="65">
+      <c r="I41" s="64">
         <f t="shared" si="17"/>
         <v>4.6663555762949143</v>
       </c>
-      <c r="K41" s="67">
+      <c r="K41" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>10.183014303640203</v>
-      </c>
-      <c r="L41" s="66" t="str">
+        <v>31.46206923992213</v>
+      </c>
+      <c r="L41" s="65" t="str">
         <f ca="1">IF(K41&lt;=C41, IF(K41&lt;H38,$A$2,IF(K41&lt;H39,$A$3, IF(K41&lt;H40,$A$4, IF(K41&lt;H41,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67">
+      <c r="A42" s="65"/>
+      <c r="B42" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C42" s="66">
+      <c r="C42" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="65">
         <v>11000</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="66">
         <f t="shared" si="0"/>
         <v>0.73328444770348644</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="66">
         <f t="shared" si="1"/>
         <v>0.73328444770348644</v>
       </c>
-      <c r="H42" s="67">
+      <c r="H42" s="66">
         <f>G42</f>
         <v>0.73328444770348644</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="66">
         <f t="shared" si="17"/>
         <v>0.73328444770348644</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67">
+      <c r="J42" s="65"/>
+      <c r="K42" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>28.923681407804104</v>
-      </c>
-      <c r="L42" s="66" t="str">
+        <v>2.5337972320833235</v>
+      </c>
+      <c r="L42" s="65" t="str">
         <f ca="1">IF(K42&lt;=C42, IF(K42&lt;H42,$A$2,IF(K42&lt;H43,$A$3, IF(K42&lt;H44,$A$4, IF(K42&lt;H45,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
-      </c>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
+        <v>RP_RARE</v>
+      </c>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C43" s="66">
+      <c r="C43" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="65">
         <v>11000</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F43" s="66">
         <f t="shared" si="0"/>
         <v>0.73328444770348644</v>
       </c>
-      <c r="G43" s="67">
+      <c r="G43" s="66">
         <f t="shared" si="1"/>
         <v>3.6664222385174323</v>
       </c>
-      <c r="H43" s="67">
+      <c r="H43" s="66">
         <f t="shared" ref="H43:H45" si="22">H42+G43</f>
         <v>4.3997066862209184</v>
       </c>
-      <c r="I43" s="67">
+      <c r="I43" s="66">
         <f t="shared" si="17"/>
         <v>3.6664222385174323</v>
       </c>
-      <c r="J43" s="66"/>
-      <c r="K43" s="67">
+      <c r="J43" s="65"/>
+      <c r="K43" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2323611782311459</v>
-      </c>
-      <c r="L43" s="66" t="str">
+        <v>33.636158611836962</v>
+      </c>
+      <c r="L43" s="65" t="str">
         <f ca="1">IF(K43&lt;=C43, IF(K43&lt;H42,$A$2,IF(K43&lt;H43,$A$3, IF(K43&lt;H44,$A$4, IF(K43&lt;H45,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
-      </c>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="66"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="66"/>
+        <v>NONE</v>
+      </c>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67">
+      <c r="A44" s="65"/>
+      <c r="B44" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="65">
         <v>11000</v>
       </c>
-      <c r="E44" s="66">
+      <c r="E44" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="66">
         <f t="shared" si="0"/>
         <v>0.73328444770348644</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="66">
         <f t="shared" si="1"/>
         <v>10.999266715552297</v>
       </c>
-      <c r="H44" s="67">
+      <c r="H44" s="66">
         <f t="shared" si="22"/>
         <v>15.398973401773215</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="66">
         <f t="shared" si="17"/>
         <v>10.999266715552297</v>
       </c>
-      <c r="J44" s="66"/>
-      <c r="K44" s="67">
+      <c r="J44" s="65"/>
+      <c r="K44" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>21.88274463043086</v>
-      </c>
-      <c r="L44" s="66" t="str">
+        <v>35.923283782314073</v>
+      </c>
+      <c r="L44" s="65" t="str">
         <f ca="1">IF(K44&lt;=C44, IF(K44&lt;H42,$A$2,IF(K44&lt;H43,$A$3, IF(K44&lt;H44,$A$4, IF(K44&lt;H45,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="65">
         <v>11000</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="66">
         <f t="shared" si="0"/>
         <v>0.73328444770348644</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="66">
         <f t="shared" si="1"/>
         <v>5.1329911339244054</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="66">
         <f t="shared" si="22"/>
         <v>20.531964535697622</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="66">
         <f t="shared" si="17"/>
         <v>5.1329911339244054</v>
       </c>
-      <c r="J45" s="66"/>
-      <c r="K45" s="67">
+      <c r="J45" s="65"/>
+      <c r="K45" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>29.411738999817562</v>
-      </c>
-      <c r="L45" s="66" t="str">
+        <v>88.907891027795898</v>
+      </c>
+      <c r="L45" s="65" t="str">
         <f ca="1">IF(K45&lt;=C45, IF(K45&lt;H42,$A$2,IF(K45&lt;H43,$A$3, IF(K45&lt;H44,$A$4, IF(K45&lt;H45,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="65">
+      <c r="B46" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C46" s="66">
+      <c r="C46" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D46" s="61">
         <v>12000</v>
       </c>
-      <c r="E46" s="66">
+      <c r="E46" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="64">
         <f t="shared" si="0"/>
         <v>0.79994667022198518</v>
       </c>
-      <c r="G46" s="65">
+      <c r="G46" s="64">
         <f t="shared" si="1"/>
         <v>0.79994667022198518</v>
       </c>
-      <c r="H46" s="65">
+      <c r="H46" s="64">
         <f>G46</f>
         <v>0.79994667022198518</v>
       </c>
-      <c r="I46" s="65">
+      <c r="I46" s="64">
         <f t="shared" si="17"/>
         <v>0.79994667022198518</v>
       </c>
-      <c r="K46" s="67">
+      <c r="K46" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>94.973687759474217</v>
-      </c>
-      <c r="L46" s="66" t="str">
+        <v>80.968276686126714</v>
+      </c>
+      <c r="L46" s="65" t="str">
         <f ca="1">IF(K46&lt;=C46, IF(K46&lt;H46,$A$2,IF(K46&lt;H47,$A$3, IF(K46&lt;H48,$A$4, IF(K46&lt;H49,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="65">
+      <c r="B47" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C47" s="66">
+      <c r="C47" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D47" s="61">
         <v>12000</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="64">
         <f t="shared" si="0"/>
         <v>0.79994667022198518</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G47" s="64">
         <f t="shared" si="1"/>
         <v>3.999733351109926</v>
       </c>
-      <c r="H47" s="65">
+      <c r="H47" s="64">
         <f t="shared" ref="H47:H49" si="23">H46+G47</f>
         <v>4.7996800213319109</v>
       </c>
-      <c r="I47" s="65">
+      <c r="I47" s="64">
         <f t="shared" si="17"/>
         <v>3.999733351109926</v>
       </c>
-      <c r="K47" s="67">
+      <c r="K47" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5971332516108774</v>
-      </c>
-      <c r="L47" s="66" t="str">
+        <v>81.758184734725674</v>
+      </c>
+      <c r="L47" s="65" t="str">
         <f ca="1">IF(K47&lt;=C47, IF(K47&lt;H46,$A$2,IF(K47&lt;H47,$A$3, IF(K47&lt;H48,$A$4, IF(K47&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="65">
+      <c r="B48" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C48" s="66">
+      <c r="C48" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D48" s="61">
         <v>12000</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F48" s="65">
+      <c r="F48" s="64">
         <f t="shared" si="0"/>
         <v>0.79994667022198518</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="64">
         <f t="shared" si="1"/>
         <v>11.999200053329778</v>
       </c>
-      <c r="H48" s="65">
+      <c r="H48" s="64">
         <f t="shared" si="23"/>
         <v>16.798880074661689</v>
       </c>
-      <c r="I48" s="65">
+      <c r="I48" s="64">
         <f t="shared" si="17"/>
         <v>11.999200053329778</v>
       </c>
-      <c r="K48" s="67">
+      <c r="K48" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>67.081546679164461</v>
-      </c>
-      <c r="L48" s="66" t="str">
+        <v>15.59709796011669</v>
+      </c>
+      <c r="L48" s="65" t="str">
         <f ca="1">IF(K48&lt;=C48, IF(K48&lt;H46,$A$2,IF(K48&lt;H47,$A$3, IF(K48&lt;H48,$A$4, IF(K48&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="65">
+      <c r="B49" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C49" s="66">
+      <c r="C49" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D49" s="61">
         <v>12000</v>
       </c>
-      <c r="E49" s="66">
+      <c r="E49" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="64">
         <f t="shared" si="0"/>
         <v>0.79994667022198518</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="64">
         <f t="shared" si="1"/>
         <v>5.5996266915538966</v>
       </c>
-      <c r="H49" s="65">
+      <c r="H49" s="64">
         <f t="shared" si="23"/>
         <v>22.398506766215586</v>
       </c>
-      <c r="I49" s="65">
+      <c r="I49" s="64">
         <f t="shared" si="17"/>
         <v>5.5996266915538966</v>
       </c>
-      <c r="K49" s="67">
+      <c r="K49" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>28.300734213979396</v>
-      </c>
-      <c r="L49" s="66" t="str">
+        <v>63.981902386716008</v>
+      </c>
+      <c r="L49" s="65" t="str">
         <f ca="1">IF(K49&lt;=C49, IF(K49&lt;H46,$A$2,IF(K49&lt;H47,$A$3, IF(K49&lt;H48,$A$4, IF(K49&lt;H49,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67">
+      <c r="A50" s="65"/>
+      <c r="B50" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C50" s="66">
+      <c r="C50" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D50" s="66">
+      <c r="D50" s="65">
         <v>13000</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="66">
         <f t="shared" si="0"/>
         <v>0.86660889274048392</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="66">
         <f t="shared" si="1"/>
         <v>0.86660889274048392</v>
       </c>
-      <c r="H50" s="67">
+      <c r="H50" s="66">
         <f>G50</f>
         <v>0.86660889274048392</v>
       </c>
-      <c r="I50" s="67">
+      <c r="I50" s="66">
         <f t="shared" si="17"/>
         <v>0.86660889274048392</v>
       </c>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67">
+      <c r="J50" s="65"/>
+      <c r="K50" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2625779155620807</v>
-      </c>
-      <c r="L50" s="66" t="str">
+        <v>99.26861457506989</v>
+      </c>
+      <c r="L50" s="65" t="str">
         <f ca="1">IF(K50&lt;=C50, IF(K50&lt;H50,$A$2,IF(K50&lt;H51,$A$3, IF(K50&lt;H52,$A$4, IF(K50&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
-      </c>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="66"/>
-      <c r="R50" s="66"/>
-      <c r="S50" s="66"/>
-      <c r="T50" s="66"/>
+        <v>NONE</v>
+      </c>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="65"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67">
+      <c r="A51" s="65"/>
+      <c r="B51" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C51" s="66">
+      <c r="C51" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="65">
         <v>13000</v>
       </c>
-      <c r="E51" s="66">
+      <c r="E51" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="66">
         <f t="shared" si="0"/>
         <v>0.86660889274048392</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="66">
         <f t="shared" si="1"/>
         <v>4.3330444637024197</v>
       </c>
-      <c r="H51" s="67">
+      <c r="H51" s="66">
         <f t="shared" ref="H51:H53" si="24">H50+G51</f>
         <v>5.1996533564429033</v>
       </c>
-      <c r="I51" s="67">
+      <c r="I51" s="66">
         <f t="shared" si="17"/>
         <v>4.3330444637024197</v>
       </c>
-      <c r="J51" s="66"/>
-      <c r="K51" s="67">
+      <c r="J51" s="65"/>
+      <c r="K51" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>49.118962885754478</v>
-      </c>
-      <c r="L51" s="66" t="str">
+        <v>39.8993869206694</v>
+      </c>
+      <c r="L51" s="65" t="str">
         <f ca="1">IF(K51&lt;=C51, IF(K51&lt;H50,$A$2,IF(K51&lt;H51,$A$3, IF(K51&lt;H52,$A$4, IF(K51&lt;H53,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
-      <c r="T51" s="66"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="66"/>
-      <c r="B52" s="67">
+      <c r="A52" s="65"/>
+      <c r="B52" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C52" s="66">
+      <c r="C52" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="65">
         <v>13000</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E52" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F52" s="67">
+      <c r="F52" s="66">
         <f t="shared" si="0"/>
         <v>0.86660889274048392</v>
       </c>
-      <c r="G52" s="67">
+      <c r="G52" s="66">
         <f t="shared" si="1"/>
         <v>12.999133391107259</v>
       </c>
-      <c r="H52" s="67">
+      <c r="H52" s="66">
         <f t="shared" si="24"/>
         <v>18.198786747550162</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="66">
         <f t="shared" si="17"/>
         <v>12.999133391107259</v>
       </c>
-      <c r="J52" s="66"/>
-      <c r="K52" s="67">
+      <c r="J52" s="65"/>
+      <c r="K52" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13624079544489742</v>
-      </c>
-      <c r="L52" s="66" t="str">
+        <v>86.313617034091379</v>
+      </c>
+      <c r="L52" s="65" t="str">
         <f ca="1">IF(K52&lt;=C52, IF(K52&lt;H50,$A$2,IF(K52&lt;H51,$A$3, IF(K52&lt;H52,$A$4, IF(K52&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RELIC</v>
-      </c>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="66"/>
+        <v>NONE</v>
+      </c>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67">
+      <c r="A53" s="65"/>
+      <c r="B53" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C53" s="66">
+      <c r="C53" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D53" s="66">
+      <c r="D53" s="65">
         <v>13000</v>
       </c>
-      <c r="E53" s="66">
+      <c r="E53" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F53" s="67">
+      <c r="F53" s="66">
         <f t="shared" si="0"/>
         <v>0.86660889274048392</v>
       </c>
-      <c r="G53" s="67">
+      <c r="G53" s="66">
         <f t="shared" si="1"/>
         <v>6.0662622491833877</v>
       </c>
-      <c r="H53" s="67">
+      <c r="H53" s="66">
         <f t="shared" si="24"/>
         <v>24.265048996733551</v>
       </c>
-      <c r="I53" s="67">
+      <c r="I53" s="66">
         <f t="shared" si="17"/>
         <v>6.0662622491833877</v>
       </c>
-      <c r="J53" s="66"/>
-      <c r="K53" s="67">
+      <c r="J53" s="65"/>
+      <c r="K53" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>91.717811905503964</v>
-      </c>
-      <c r="L53" s="66" t="str">
+        <v>1.3277397593576379</v>
+      </c>
+      <c r="L53" s="65" t="str">
         <f ca="1">IF(K53&lt;=C53, IF(K53&lt;H50,$A$2,IF(K53&lt;H51,$A$3, IF(K53&lt;H52,$A$4, IF(K53&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
-      </c>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
-      <c r="T53" s="66"/>
+        <v>RP_RARE</v>
+      </c>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="65">
+      <c r="B54" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C54" s="66">
+      <c r="C54" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D54" s="61">
         <v>14000</v>
       </c>
-      <c r="E54" s="66">
+      <c r="E54" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F54" s="65">
+      <c r="F54" s="64">
         <f t="shared" si="0"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="64">
         <f t="shared" si="1"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="H54" s="65">
+      <c r="H54" s="64">
         <f>G54</f>
         <v>0.93327111525898276</v>
       </c>
-      <c r="I54" s="65">
+      <c r="I54" s="64">
         <f t="shared" si="17"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="K54" s="67">
+      <c r="K54" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>91.235079984493822</v>
-      </c>
-      <c r="L54" s="66" t="str">
+        <v>7.7955712243718995</v>
+      </c>
+      <c r="L54" s="65" t="str">
         <f ca="1">IF(K54&lt;=C54, IF(K54&lt;H54,$A$2,IF(K54&lt;H55,$A$3, IF(K54&lt;H56,$A$4, IF(K54&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="65">
+      <c r="B55" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C55" s="66">
+      <c r="C55" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D55" s="61">
         <v>14000</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F55" s="65">
+      <c r="F55" s="64">
         <f t="shared" si="0"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="64">
         <f t="shared" si="1"/>
         <v>4.6663555762949134</v>
       </c>
-      <c r="H55" s="65">
+      <c r="H55" s="64">
         <f t="shared" ref="H55:H57" si="25">H54+G55</f>
         <v>5.5996266915538957</v>
       </c>
-      <c r="I55" s="65">
+      <c r="I55" s="64">
         <f t="shared" si="17"/>
         <v>4.6663555762949134</v>
       </c>
-      <c r="K55" s="67">
+      <c r="K55" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>81.389217945364408</v>
-      </c>
-      <c r="L55" s="66" t="str">
+        <v>18.812391811309727</v>
+      </c>
+      <c r="L55" s="65" t="str">
         <f ca="1">IF(K55&lt;=C55, IF(K55&lt;H54,$A$2,IF(K55&lt;H55,$A$3, IF(K55&lt;H56,$A$4, IF(K55&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="65">
+      <c r="B56" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C56" s="66">
+      <c r="C56" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D56" s="61">
         <v>14000</v>
       </c>
-      <c r="E56" s="66">
+      <c r="E56" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="64">
         <f t="shared" si="0"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="64">
         <f t="shared" si="1"/>
         <v>13.999066728884742</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="64">
         <f t="shared" si="25"/>
         <v>19.598693420438636</v>
       </c>
-      <c r="I56" s="65">
+      <c r="I56" s="64">
         <f t="shared" si="17"/>
         <v>13.999066728884742</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>51.406869597164075</v>
-      </c>
-      <c r="L56" s="66" t="str">
+        <v>0.55730836881456858</v>
+      </c>
+      <c r="L56" s="65" t="str">
         <f ca="1">IF(K56&lt;=C56, IF(K56&lt;H54,$A$2,IF(K56&lt;H55,$A$3, IF(K56&lt;H56,$A$4, IF(K56&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RELIC</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="65">
+      <c r="B57" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C57" s="66">
+      <c r="C57" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D57" s="61">
         <v>14000</v>
       </c>
-      <c r="E57" s="66">
+      <c r="E57" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F57" s="65">
+      <c r="F57" s="64">
         <f t="shared" si="0"/>
         <v>0.93327111525898276</v>
       </c>
-      <c r="G57" s="65">
+      <c r="G57" s="64">
         <f t="shared" si="1"/>
         <v>6.5328978068128798</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="64">
         <f t="shared" si="25"/>
         <v>26.131591227251516</v>
       </c>
-      <c r="I57" s="65">
+      <c r="I57" s="64">
         <f t="shared" si="17"/>
         <v>6.5328978068128798</v>
       </c>
-      <c r="K57" s="67">
+      <c r="K57" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>88.598740761568692</v>
-      </c>
-      <c r="L57" s="66" t="str">
+        <v>7.3957762904026447</v>
+      </c>
+      <c r="L57" s="65" t="str">
         <f ca="1">IF(K57&lt;=C57, IF(K57&lt;H54,$A$2,IF(K57&lt;H55,$A$3, IF(K57&lt;H56,$A$4, IF(K57&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="66"/>
-      <c r="B58" s="67">
+      <c r="A58" s="65"/>
+      <c r="B58" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C58" s="66">
+      <c r="C58" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D58" s="65">
         <v>15000</v>
       </c>
-      <c r="E58" s="66">
+      <c r="E58" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F58" s="67">
+      <c r="F58" s="66">
         <f t="shared" si="0"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="G58" s="67">
+      <c r="G58" s="66">
         <f t="shared" si="1"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="66">
         <f>G58</f>
         <v>0.9999333377774815</v>
       </c>
-      <c r="I58" s="67">
+      <c r="I58" s="66">
         <f t="shared" si="17"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="J58" s="66"/>
-      <c r="K58" s="67">
+      <c r="J58" s="65"/>
+      <c r="K58" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>62.808573037829341</v>
-      </c>
-      <c r="L58" s="66" t="str">
+        <v>99.464959047874729</v>
+      </c>
+      <c r="L58" s="65" t="str">
         <f ca="1">IF(K58&lt;=C58, IF(K58&lt;H58,$A$2,IF(K58&lt;H59,$A$3, IF(K58&lt;H60,$A$4, IF(K58&lt;H61,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M58" s="66"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66"/>
-      <c r="S58" s="66"/>
-      <c r="T58" s="66"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67">
+      <c r="A59" s="65"/>
+      <c r="B59" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C59" s="66">
+      <c r="C59" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D59" s="66">
+      <c r="D59" s="65">
         <v>15000</v>
       </c>
-      <c r="E59" s="66">
+      <c r="E59" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F59" s="67">
+      <c r="F59" s="66">
         <f t="shared" si="0"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="G59" s="67">
+      <c r="G59" s="66">
         <f t="shared" si="1"/>
         <v>4.9996666888874071</v>
       </c>
-      <c r="H59" s="67">
+      <c r="H59" s="66">
         <f t="shared" ref="H59:H61" si="26">H58+G59</f>
         <v>5.9996000266648881</v>
       </c>
-      <c r="I59" s="67">
+      <c r="I59" s="66">
         <f t="shared" si="17"/>
         <v>4.9996666888874071</v>
       </c>
-      <c r="J59" s="66"/>
-      <c r="K59" s="67">
+      <c r="J59" s="65"/>
+      <c r="K59" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>66.758239851046568</v>
-      </c>
-      <c r="L59" s="66" t="str">
+        <v>96.557521034553645</v>
+      </c>
+      <c r="L59" s="65" t="str">
         <f ca="1">IF(K59&lt;=C59, IF(K59&lt;H58,$A$2,IF(K59&lt;H59,$A$3, IF(K59&lt;H60,$A$4, IF(K59&lt;H61,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="66"/>
-      <c r="B60" s="67">
+      <c r="A60" s="65"/>
+      <c r="B60" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C60" s="66">
+      <c r="C60" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D60" s="66">
+      <c r="D60" s="65">
         <v>15000</v>
       </c>
-      <c r="E60" s="66">
+      <c r="E60" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F60" s="67">
+      <c r="F60" s="66">
         <f t="shared" si="0"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="G60" s="67">
+      <c r="G60" s="66">
         <f t="shared" si="1"/>
         <v>14.999000066662223</v>
       </c>
-      <c r="H60" s="67">
+      <c r="H60" s="66">
         <f t="shared" si="26"/>
         <v>20.998600093327113</v>
       </c>
-      <c r="I60" s="67">
+      <c r="I60" s="66">
         <f t="shared" si="17"/>
         <v>14.999000066662223</v>
       </c>
-      <c r="J60" s="66"/>
-      <c r="K60" s="67">
+      <c r="J60" s="65"/>
+      <c r="K60" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>79.267454513500667</v>
-      </c>
-      <c r="L60" s="66" t="str">
+        <v>32.144506675924909</v>
+      </c>
+      <c r="L60" s="65" t="str">
         <f ca="1">IF(K60&lt;=C60, IF(K60&lt;H58,$A$2,IF(K60&lt;H59,$A$3, IF(K60&lt;H60,$A$4, IF(K60&lt;H61,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="66"/>
-      <c r="B61" s="67">
+      <c r="A61" s="65"/>
+      <c r="B61" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C61" s="66">
+      <c r="C61" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D61" s="66">
+      <c r="D61" s="65">
         <v>15000</v>
       </c>
-      <c r="E61" s="66">
+      <c r="E61" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F61" s="67">
+      <c r="F61" s="66">
         <f t="shared" si="0"/>
         <v>0.9999333377774815</v>
       </c>
-      <c r="G61" s="67">
+      <c r="G61" s="66">
         <f t="shared" si="1"/>
         <v>6.999533364442371</v>
       </c>
-      <c r="H61" s="67">
+      <c r="H61" s="66">
         <f t="shared" si="26"/>
         <v>27.998133457769484</v>
       </c>
-      <c r="I61" s="67">
+      <c r="I61" s="66">
         <f t="shared" si="17"/>
         <v>6.999533364442371</v>
       </c>
-      <c r="J61" s="66"/>
-      <c r="K61" s="67">
+      <c r="J61" s="65"/>
+      <c r="K61" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>53.646084939162883</v>
-      </c>
-      <c r="L61" s="66" t="str">
+        <v>53.691611609707557</v>
+      </c>
+      <c r="L61" s="65" t="str">
         <f ca="1">IF(K61&lt;=C61, IF(K61&lt;H58,$A$2,IF(K61&lt;H59,$A$3, IF(K61&lt;H60,$A$4, IF(K61&lt;H61,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="65">
+      <c r="B62" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C62" s="66">
+      <c r="C62" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D62" s="61">
         <v>16000</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F62" s="65">
+      <c r="F62" s="64">
         <f t="shared" si="0"/>
         <v>1.0665955602959802</v>
       </c>
-      <c r="G62" s="65">
+      <c r="G62" s="64">
         <f t="shared" si="1"/>
         <v>1.0665955602959802</v>
       </c>
-      <c r="H62" s="65">
+      <c r="H62" s="64">
         <f>G62</f>
         <v>1.0665955602959802</v>
       </c>
-      <c r="I62" s="65">
+      <c r="I62" s="64">
         <f t="shared" si="17"/>
         <v>1.0665955602959802</v>
       </c>
-      <c r="K62" s="67">
+      <c r="K62" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>54.341231526674619</v>
-      </c>
-      <c r="L62" s="66" t="str">
+        <v>89.187765269648338</v>
+      </c>
+      <c r="L62" s="65" t="str">
         <f ca="1">IF(K62&lt;=C62, IF(K62&lt;H62,$A$2,IF(K62&lt;H63,$A$3, IF(K62&lt;H64,$A$4, IF(K62&lt;H65,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="65">
+      <c r="B63" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C63" s="66">
+      <c r="C63" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D63" s="61">
         <v>16000</v>
       </c>
-      <c r="E63" s="66">
+      <c r="E63" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="64">
         <f t="shared" si="0"/>
         <v>1.0665955602959802</v>
       </c>
-      <c r="G63" s="65">
+      <c r="G63" s="64">
         <f t="shared" si="1"/>
         <v>5.3329778014799007</v>
       </c>
-      <c r="H63" s="65">
+      <c r="H63" s="64">
         <f t="shared" ref="H63:H65" si="27">H62+G63</f>
         <v>6.3995733617758805</v>
       </c>
-      <c r="I63" s="65">
+      <c r="I63" s="64">
         <f t="shared" si="17"/>
         <v>5.3329778014799007</v>
       </c>
-      <c r="K63" s="67">
+      <c r="K63" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>50.258768580095733</v>
-      </c>
-      <c r="L63" s="66" t="str">
+        <v>59.165493696018288</v>
+      </c>
+      <c r="L63" s="65" t="str">
         <f ca="1">IF(K63&lt;=C63, IF(K63&lt;H62,$A$2,IF(K63&lt;H63,$A$3, IF(K63&lt;H64,$A$4, IF(K63&lt;H65,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="65">
+      <c r="B64" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C64" s="66">
+      <c r="C64" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D64" s="61">
         <v>16000</v>
       </c>
-      <c r="E64" s="66">
+      <c r="E64" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F64" s="65">
+      <c r="F64" s="64">
         <f t="shared" si="0"/>
         <v>1.0665955602959802</v>
       </c>
-      <c r="G64" s="65">
+      <c r="G64" s="64">
         <f t="shared" si="1"/>
         <v>15.998933404439704</v>
       </c>
-      <c r="H64" s="65">
+      <c r="H64" s="64">
         <f t="shared" si="27"/>
         <v>22.398506766215583</v>
       </c>
-      <c r="I64" s="65">
+      <c r="I64" s="64">
         <f t="shared" si="17"/>
         <v>15.998933404439704</v>
       </c>
-      <c r="K64" s="67">
+      <c r="K64" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>18.13109064571924</v>
-      </c>
-      <c r="L64" s="66" t="str">
+        <v>29.500036399832176</v>
+      </c>
+      <c r="L64" s="65" t="str">
         <f ca="1">IF(K64&lt;=C64, IF(K64&lt;H62,$A$2,IF(K64&lt;H63,$A$3, IF(K64&lt;H64,$A$4, IF(K64&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>RP_COMMON</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="65">
+      <c r="B65" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C65" s="66">
+      <c r="C65" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D65" s="61">
         <v>16000</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F65" s="65">
+      <c r="F65" s="64">
         <f t="shared" si="0"/>
         <v>1.0665955602959802</v>
       </c>
-      <c r="G65" s="65">
+      <c r="G65" s="64">
         <f t="shared" si="1"/>
         <v>7.4661689220718621</v>
       </c>
-      <c r="H65" s="65">
+      <c r="H65" s="64">
         <f t="shared" si="27"/>
         <v>29.864675688287445</v>
       </c>
-      <c r="I65" s="65">
+      <c r="I65" s="64">
         <f t="shared" si="17"/>
         <v>7.4661689220718621</v>
       </c>
-      <c r="K65" s="67">
+      <c r="K65" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>42.840489314935091</v>
-      </c>
-      <c r="L65" s="66" t="str">
+        <v>80.528238065949878</v>
+      </c>
+      <c r="L65" s="65" t="str">
         <f ca="1">IF(K65&lt;=C65, IF(K65&lt;H62,$A$2,IF(K65&lt;H63,$A$3, IF(K65&lt;H64,$A$4, IF(K65&lt;H65,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="66"/>
-      <c r="B66" s="67">
+      <c r="A66" s="65"/>
+      <c r="B66" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C66" s="66">
+      <c r="C66" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D66" s="66">
+      <c r="D66" s="65">
         <v>17000</v>
       </c>
-      <c r="E66" s="66">
+      <c r="E66" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F66" s="67">
+      <c r="F66" s="66">
         <f t="shared" si="0"/>
         <v>1.133257782814479</v>
       </c>
-      <c r="G66" s="67">
+      <c r="G66" s="66">
         <f t="shared" si="1"/>
         <v>1.133257782814479</v>
       </c>
-      <c r="H66" s="67">
+      <c r="H66" s="66">
         <f>G66</f>
         <v>1.133257782814479</v>
       </c>
-      <c r="I66" s="67">
+      <c r="I66" s="66">
         <f t="shared" si="17"/>
         <v>1.133257782814479</v>
       </c>
-      <c r="J66" s="66"/>
-      <c r="K66" s="67">
+      <c r="J66" s="65"/>
+      <c r="K66" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>63.102549631666449</v>
-      </c>
-      <c r="L66" s="66" t="str">
+        <v>42.713831660014257</v>
+      </c>
+      <c r="L66" s="65" t="str">
         <f ca="1">IF(K66&lt;=C66, IF(K66&lt;H66,$A$2,IF(K66&lt;H67,$A$3, IF(K66&lt;H68,$A$4, IF(K66&lt;H69,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="66"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="65"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="66"/>
-      <c r="B67" s="67">
+      <c r="A67" s="65"/>
+      <c r="B67" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C67" s="66">
+      <c r="C67" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="65">
         <v>17000</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F67" s="67">
+      <c r="F67" s="66">
         <f t="shared" si="0"/>
         <v>1.133257782814479</v>
       </c>
-      <c r="G67" s="67">
+      <c r="G67" s="66">
         <f t="shared" si="1"/>
         <v>5.6662889140723944</v>
       </c>
-      <c r="H67" s="67">
+      <c r="H67" s="66">
         <f t="shared" ref="H67:H69" si="28">H66+G67</f>
         <v>6.799546696886873</v>
       </c>
-      <c r="I67" s="67">
+      <c r="I67" s="66">
         <f t="shared" si="17"/>
         <v>5.6662889140723944</v>
       </c>
-      <c r="J67" s="66"/>
-      <c r="K67" s="67">
+      <c r="J67" s="65"/>
+      <c r="K67" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>67.260618724387214</v>
-      </c>
-      <c r="L67" s="66" t="str">
+        <v>89.69667756266729</v>
+      </c>
+      <c r="L67" s="65" t="str">
         <f ca="1">IF(K67&lt;=C67, IF(K67&lt;H66,$A$2,IF(K67&lt;H67,$A$3, IF(K67&lt;H68,$A$4, IF(K67&lt;H69,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="65"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="65"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" s="66"/>
-      <c r="B68" s="67">
+      <c r="A68" s="65"/>
+      <c r="B68" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C68" s="66">
+      <c r="C68" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="65">
         <v>17000</v>
       </c>
-      <c r="E68" s="66">
+      <c r="E68" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F68" s="67">
+      <c r="F68" s="66">
         <f t="shared" si="0"/>
         <v>1.133257782814479</v>
       </c>
-      <c r="G68" s="67">
+      <c r="G68" s="66">
         <f t="shared" si="1"/>
         <v>16.998866742217185</v>
       </c>
-      <c r="H68" s="67">
+      <c r="H68" s="66">
         <f t="shared" si="28"/>
         <v>23.79841343910406</v>
       </c>
-      <c r="I68" s="67">
+      <c r="I68" s="66">
         <f t="shared" si="17"/>
         <v>16.998866742217185</v>
       </c>
-      <c r="J68" s="66"/>
-      <c r="K68" s="67">
+      <c r="J68" s="65"/>
+      <c r="K68" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>46.94986125681352</v>
-      </c>
-      <c r="L68" s="66" t="str">
+        <v>32.62427700405761</v>
+      </c>
+      <c r="L68" s="65" t="str">
         <f ca="1">IF(K68&lt;=C68, IF(K68&lt;H66,$A$2,IF(K68&lt;H67,$A$3, IF(K68&lt;H68,$A$4, IF(K68&lt;H69,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="65"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="65"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="66"/>
-      <c r="B69" s="67">
+      <c r="A69" s="65"/>
+      <c r="B69" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C69" s="66">
+      <c r="C69" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D69" s="66">
+      <c r="D69" s="65">
         <v>17000</v>
       </c>
-      <c r="E69" s="66">
+      <c r="E69" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F69" s="67">
+      <c r="F69" s="66">
         <f t="shared" si="0"/>
         <v>1.133257782814479</v>
       </c>
-      <c r="G69" s="67">
+      <c r="G69" s="66">
         <f t="shared" si="1"/>
         <v>7.9328044797013533</v>
       </c>
-      <c r="H69" s="67">
+      <c r="H69" s="66">
         <f t="shared" si="28"/>
         <v>31.731217918805413</v>
       </c>
-      <c r="I69" s="67">
+      <c r="I69" s="66">
         <f t="shared" si="17"/>
         <v>6.2015865608959402</v>
       </c>
-      <c r="J69" s="66"/>
-      <c r="K69" s="67">
+      <c r="J69" s="65"/>
+      <c r="K69" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>37.619827384936556</v>
-      </c>
-      <c r="L69" s="66" t="str">
+        <v>19.316897112091137</v>
+      </c>
+      <c r="L69" s="65" t="str">
         <f ca="1">IF(K69&lt;=C69, IF(K69&lt;H66,$A$2,IF(K69&lt;H67,$A$3, IF(K69&lt;H68,$A$4, IF(K69&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
-      </c>
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="66"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
+        <v>RP_UNCOMMON</v>
+      </c>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="65"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="65">
+      <c r="B70" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C70" s="66">
+      <c r="C70" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9343,41 +9346,41 @@
         <f t="shared" ref="D70:D97" si="29">D66+1000</f>
         <v>18000</v>
       </c>
-      <c r="E70" s="66">
+      <c r="E70" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F70" s="65">
+      <c r="F70" s="64">
         <f t="shared" si="0"/>
         <v>1.1999200053329777</v>
       </c>
-      <c r="G70" s="65">
+      <c r="G70" s="64">
         <f t="shared" si="1"/>
         <v>1.1999200053329777</v>
       </c>
-      <c r="H70" s="65">
+      <c r="H70" s="64">
         <f>G70</f>
         <v>1.1999200053329777</v>
       </c>
-      <c r="I70" s="65">
+      <c r="I70" s="64">
         <f t="shared" si="17"/>
         <v>1.1999200053329777</v>
       </c>
-      <c r="K70" s="67">
+      <c r="K70" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>35.875244542545971</v>
-      </c>
-      <c r="L70" s="66" t="str">
+        <v>48.873938903567819</v>
+      </c>
+      <c r="L70" s="65" t="str">
         <f ca="1">IF(K70&lt;=C70, IF(K70&lt;H70,$A$2,IF(K70&lt;H71,$A$3, IF(K70&lt;H72,$A$4, IF(K70&lt;H73,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="65">
+      <c r="B71" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C71" s="66">
+      <c r="C71" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9385,41 +9388,41 @@
         <f t="shared" si="29"/>
         <v>18000</v>
       </c>
-      <c r="E71" s="66">
+      <c r="E71" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F71" s="65">
+      <c r="F71" s="64">
         <f t="shared" si="0"/>
         <v>1.1999200053329777</v>
       </c>
-      <c r="G71" s="65">
+      <c r="G71" s="64">
         <f t="shared" si="1"/>
         <v>5.9996000266648881</v>
       </c>
-      <c r="H71" s="65">
+      <c r="H71" s="64">
         <f t="shared" ref="H71:H73" si="30">H70+G71</f>
         <v>7.1995200319978654</v>
       </c>
-      <c r="I71" s="65">
+      <c r="I71" s="64">
         <f t="shared" si="17"/>
         <v>5.9996000266648881</v>
       </c>
-      <c r="K71" s="67">
+      <c r="K71" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>43.345532737841729</v>
-      </c>
-      <c r="L71" s="66" t="str">
+        <v>30.144703481917755</v>
+      </c>
+      <c r="L71" s="65" t="str">
         <f ca="1">IF(K71&lt;=C71, IF(K71&lt;H70,$A$2,IF(K71&lt;H71,$A$3, IF(K71&lt;H72,$A$4, IF(K71&lt;H73,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="65">
+      <c r="B72" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C72" s="66">
+      <c r="C72" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9427,41 +9430,41 @@
         <f t="shared" si="29"/>
         <v>18000</v>
       </c>
-      <c r="E72" s="66">
+      <c r="E72" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F72" s="65">
+      <c r="F72" s="64">
         <f t="shared" si="0"/>
         <v>1.1999200053329777</v>
       </c>
-      <c r="G72" s="65">
+      <c r="G72" s="64">
         <f t="shared" si="1"/>
         <v>17.998800079994666</v>
       </c>
-      <c r="H72" s="65">
+      <c r="H72" s="64">
         <f t="shared" si="30"/>
         <v>25.19832011199253</v>
       </c>
-      <c r="I72" s="65">
+      <c r="I72" s="64">
         <f t="shared" si="17"/>
         <v>17.998800079994666</v>
       </c>
-      <c r="K72" s="67">
+      <c r="K72" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>35.256657440689509</v>
-      </c>
-      <c r="L72" s="66" t="str">
+        <v>26.852022979818557</v>
+      </c>
+      <c r="L72" s="65" t="str">
         <f ca="1">IF(K72&lt;=C72, IF(K72&lt;H70,$A$2,IF(K72&lt;H71,$A$3, IF(K72&lt;H72,$A$4, IF(K72&lt;H73,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="65">
+      <c r="B73" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C73" s="66">
+      <c r="C73" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9469,249 +9472,249 @@
         <f t="shared" si="29"/>
         <v>18000</v>
       </c>
-      <c r="E73" s="66">
+      <c r="E73" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F73" s="65">
+      <c r="F73" s="64">
         <f t="shared" si="0"/>
         <v>1.1999200053329777</v>
       </c>
-      <c r="G73" s="65">
+      <c r="G73" s="64">
         <f t="shared" si="1"/>
         <v>8.3994400373308444</v>
       </c>
-      <c r="H73" s="65">
+      <c r="H73" s="64">
         <f t="shared" si="30"/>
         <v>33.597760149323378</v>
       </c>
-      <c r="I73" s="65">
+      <c r="I73" s="64">
         <f t="shared" si="17"/>
         <v>4.8016798880074703</v>
       </c>
-      <c r="K73" s="67">
+      <c r="K73" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>52.652807242530045</v>
-      </c>
-      <c r="L73" s="66" t="str">
+        <v>4.3316984230157178</v>
+      </c>
+      <c r="L73" s="65" t="str">
         <f ca="1">IF(K73&lt;=C73, IF(K73&lt;H70,$A$2,IF(K73&lt;H71,$A$3, IF(K73&lt;H72,$A$4, IF(K73&lt;H73,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67">
+      <c r="A74" s="65"/>
+      <c r="B74" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C74" s="66">
+      <c r="C74" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D74" s="66">
+      <c r="D74" s="65">
         <f t="shared" si="29"/>
         <v>19000</v>
       </c>
-      <c r="E74" s="66">
+      <c r="E74" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F74" s="67">
+      <c r="F74" s="66">
         <f t="shared" si="0"/>
         <v>1.2665822278514767</v>
       </c>
-      <c r="G74" s="67">
+      <c r="G74" s="66">
         <f t="shared" si="1"/>
         <v>1.2665822278514767</v>
       </c>
-      <c r="H74" s="67">
+      <c r="H74" s="66">
         <f>G74</f>
         <v>1.2665822278514767</v>
       </c>
-      <c r="I74" s="67">
+      <c r="I74" s="66">
         <f t="shared" si="17"/>
         <v>1.2665822278514767</v>
       </c>
-      <c r="J74" s="66"/>
-      <c r="K74" s="67">
+      <c r="J74" s="65"/>
+      <c r="K74" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>32.33419224923901</v>
-      </c>
-      <c r="L74" s="66" t="str">
+        <v>34.361161604477928</v>
+      </c>
+      <c r="L74" s="65" t="str">
         <f ca="1">IF(K74&lt;=C74, IF(K74&lt;H74,$A$2,IF(K74&lt;H75,$A$3, IF(K74&lt;H76,$A$4, IF(K74&lt;H77,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="66"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="65"/>
+      <c r="R74" s="65"/>
+      <c r="S74" s="65"/>
+      <c r="T74" s="65"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" s="66"/>
-      <c r="B75" s="67">
+      <c r="A75" s="65"/>
+      <c r="B75" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C75" s="66">
+      <c r="C75" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D75" s="66">
+      <c r="D75" s="65">
         <f t="shared" si="29"/>
         <v>19000</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F75" s="67">
+      <c r="F75" s="66">
         <f t="shared" si="0"/>
         <v>1.2665822278514767</v>
       </c>
-      <c r="G75" s="67">
+      <c r="G75" s="66">
         <f t="shared" si="1"/>
         <v>6.3329111392573836</v>
       </c>
-      <c r="H75" s="67">
+      <c r="H75" s="66">
         <f t="shared" ref="H75:H77" si="31">H74+G75</f>
         <v>7.5994933671088605</v>
       </c>
-      <c r="I75" s="67">
+      <c r="I75" s="66">
         <f t="shared" si="17"/>
         <v>6.3329111392573836</v>
       </c>
-      <c r="J75" s="66"/>
-      <c r="K75" s="67">
+      <c r="J75" s="65"/>
+      <c r="K75" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>41.464873628641655</v>
-      </c>
-      <c r="L75" s="66" t="str">
+        <v>86.417403273073162</v>
+      </c>
+      <c r="L75" s="65" t="str">
         <f ca="1">IF(K75&lt;=C75, IF(K75&lt;H74,$A$2,IF(K75&lt;H75,$A$3, IF(K75&lt;H76,$A$4, IF(K75&lt;H77,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M75" s="66"/>
-      <c r="N75" s="66"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="66"/>
-      <c r="R75" s="66"/>
-      <c r="S75" s="66"/>
-      <c r="T75" s="66"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="65"/>
+      <c r="R75" s="65"/>
+      <c r="S75" s="65"/>
+      <c r="T75" s="65"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" s="66"/>
-      <c r="B76" s="67">
+      <c r="A76" s="65"/>
+      <c r="B76" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C76" s="66">
+      <c r="C76" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D76" s="66">
+      <c r="D76" s="65">
         <f t="shared" si="29"/>
         <v>19000</v>
       </c>
-      <c r="E76" s="66">
+      <c r="E76" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F76" s="67">
+      <c r="F76" s="66">
         <f t="shared" si="0"/>
         <v>1.2665822278514767</v>
       </c>
-      <c r="G76" s="67">
+      <c r="G76" s="66">
         <f t="shared" si="1"/>
         <v>18.998733417772151</v>
       </c>
-      <c r="H76" s="67">
+      <c r="H76" s="66">
         <f t="shared" si="31"/>
         <v>26.59822678488101</v>
       </c>
-      <c r="I76" s="67">
+      <c r="I76" s="66">
         <f t="shared" si="17"/>
         <v>18.998733417772151</v>
       </c>
-      <c r="J76" s="66"/>
-      <c r="K76" s="67">
+      <c r="J76" s="65"/>
+      <c r="K76" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>63.068882884127433</v>
-      </c>
-      <c r="L76" s="66" t="str">
+        <v>70.760637732663668</v>
+      </c>
+      <c r="L76" s="65" t="str">
         <f ca="1">IF(K76&lt;=C76, IF(K76&lt;H74,$A$2,IF(K76&lt;H75,$A$3, IF(K76&lt;H76,$A$4, IF(K76&lt;H77,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-      <c r="S76" s="66"/>
-      <c r="T76" s="66"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65"/>
+      <c r="R76" s="65"/>
+      <c r="S76" s="65"/>
+      <c r="T76" s="65"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77" s="66"/>
-      <c r="B77" s="67">
+      <c r="A77" s="65"/>
+      <c r="B77" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C77" s="66">
+      <c r="C77" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D77" s="66">
+      <c r="D77" s="65">
         <f t="shared" si="29"/>
         <v>19000</v>
       </c>
-      <c r="E77" s="66">
+      <c r="E77" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F77" s="67">
+      <c r="F77" s="66">
         <f t="shared" si="0"/>
         <v>1.2665822278514767</v>
       </c>
-      <c r="G77" s="67">
+      <c r="G77" s="66">
         <f t="shared" si="1"/>
         <v>8.8660755949603374</v>
       </c>
-      <c r="H77" s="67">
+      <c r="H77" s="66">
         <f t="shared" si="31"/>
         <v>35.464302379841349</v>
       </c>
-      <c r="I77" s="67">
+      <c r="I77" s="66">
         <f t="shared" si="17"/>
         <v>3.4017732151189897</v>
       </c>
-      <c r="J77" s="66"/>
-      <c r="K77" s="67">
+      <c r="J77" s="65"/>
+      <c r="K77" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>31.549354859870892</v>
-      </c>
-      <c r="L77" s="66" t="str">
+        <v>55.885877541180577</v>
+      </c>
+      <c r="L77" s="65" t="str">
         <f ca="1">IF(K77&lt;=C77, IF(K77&lt;H74,$A$2,IF(K77&lt;H75,$A$3, IF(K77&lt;H76,$A$4, IF(K77&lt;H77,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
-      <c r="R77" s="66"/>
-      <c r="S77" s="66"/>
-      <c r="T77" s="66"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="65"/>
+      <c r="O77" s="65"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="65"/>
+      <c r="R77" s="65"/>
+      <c r="S77" s="65"/>
+      <c r="T77" s="65"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="65">
+      <c r="B78" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C78" s="66">
+      <c r="C78" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9719,41 +9722,41 @@
         <f t="shared" si="29"/>
         <v>20000</v>
       </c>
-      <c r="E78" s="66">
+      <c r="E78" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F78" s="65">
+      <c r="F78" s="64">
         <f t="shared" si="0"/>
         <v>1.3332444503699754</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="64">
         <f t="shared" si="1"/>
         <v>1.3332444503699754</v>
       </c>
-      <c r="H78" s="65">
+      <c r="H78" s="64">
         <f>G78</f>
         <v>1.3332444503699754</v>
       </c>
-      <c r="I78" s="65">
+      <c r="I78" s="64">
         <f t="shared" si="17"/>
         <v>1.3332444503699754</v>
       </c>
-      <c r="K78" s="67">
+      <c r="K78" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>84.449621465515861</v>
-      </c>
-      <c r="L78" s="66" t="str">
+        <v>31.397445597753158</v>
+      </c>
+      <c r="L78" s="65" t="str">
         <f ca="1">IF(K78&lt;=C78, IF(K78&lt;H78,$A$2,IF(K78&lt;H79,$A$3, IF(K78&lt;H80,$A$4, IF(K78&lt;H81,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="65">
+      <c r="B79" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C79" s="66">
+      <c r="C79" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9761,41 +9764,41 @@
         <f t="shared" si="29"/>
         <v>20000</v>
       </c>
-      <c r="E79" s="66">
+      <c r="E79" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F79" s="65">
+      <c r="F79" s="64">
         <f t="shared" si="0"/>
         <v>1.3332444503699754</v>
       </c>
-      <c r="G79" s="65">
+      <c r="G79" s="64">
         <f t="shared" si="1"/>
         <v>6.6662222518498773</v>
       </c>
-      <c r="H79" s="65">
+      <c r="H79" s="64">
         <f t="shared" ref="H79:H81" si="32">H78+G79</f>
         <v>7.9994667022198529</v>
       </c>
-      <c r="I79" s="65">
+      <c r="I79" s="64">
         <f t="shared" si="17"/>
         <v>6.6662222518498773</v>
       </c>
-      <c r="K79" s="67">
+      <c r="K79" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8081758141260349</v>
-      </c>
-      <c r="L79" s="66" t="str">
+        <v>11.806354983435075</v>
+      </c>
+      <c r="L79" s="65" t="str">
         <f ca="1">IF(K79&lt;=C79, IF(K79&lt;H78,$A$2,IF(K79&lt;H79,$A$3, IF(K79&lt;H80,$A$4, IF(K79&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="65">
+      <c r="B80" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C80" s="66">
+      <c r="C80" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9803,41 +9806,41 @@
         <f t="shared" si="29"/>
         <v>20000</v>
       </c>
-      <c r="E80" s="66">
+      <c r="E80" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F80" s="65">
+      <c r="F80" s="64">
         <f t="shared" si="0"/>
         <v>1.3332444503699754</v>
       </c>
-      <c r="G80" s="65">
+      <c r="G80" s="64">
         <f t="shared" si="1"/>
         <v>19.998666755549632</v>
       </c>
-      <c r="H80" s="65">
+      <c r="H80" s="64">
         <f t="shared" si="32"/>
         <v>27.998133457769484</v>
       </c>
-      <c r="I80" s="65">
+      <c r="I80" s="64">
         <f t="shared" si="17"/>
         <v>19.998666755549632</v>
       </c>
-      <c r="K80" s="67">
+      <c r="K80" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44.948607604266613</v>
-      </c>
-      <c r="L80" s="66" t="str">
+        <v>0.42846987940854397</v>
+      </c>
+      <c r="L80" s="65" t="str">
         <f ca="1">IF(K80&lt;=C80, IF(K80&lt;H78,$A$2,IF(K80&lt;H79,$A$3, IF(K80&lt;H80,$A$4, IF(K80&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RELIC</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B81" s="65">
+      <c r="B81" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C81" s="66">
+      <c r="C81" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -9845,249 +9848,249 @@
         <f t="shared" si="29"/>
         <v>20000</v>
       </c>
-      <c r="E81" s="66">
+      <c r="E81" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F81" s="65">
+      <c r="F81" s="64">
         <f t="shared" si="0"/>
         <v>1.3332444503699754</v>
       </c>
-      <c r="G81" s="65">
+      <c r="G81" s="64">
         <f t="shared" si="1"/>
         <v>9.3327111525898285</v>
       </c>
-      <c r="H81" s="65">
+      <c r="H81" s="64">
         <f t="shared" si="32"/>
         <v>37.330844610359314</v>
       </c>
-      <c r="I81" s="65">
+      <c r="I81" s="64">
         <f t="shared" si="17"/>
         <v>2.0018665422305162</v>
       </c>
-      <c r="K81" s="67">
+      <c r="K81" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>33.876211744064953</v>
-      </c>
-      <c r="L81" s="66" t="str">
+        <v>25.559618312644272</v>
+      </c>
+      <c r="L81" s="65" t="str">
         <f ca="1">IF(K81&lt;=C81, IF(K81&lt;H78,$A$2,IF(K81&lt;H79,$A$3, IF(K81&lt;H80,$A$4, IF(K81&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" s="66"/>
-      <c r="B82" s="67">
+      <c r="A82" s="65"/>
+      <c r="B82" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C82" s="66">
+      <c r="C82" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D82" s="66">
+      <c r="D82" s="65">
         <f t="shared" si="29"/>
         <v>21000</v>
       </c>
-      <c r="E82" s="66">
+      <c r="E82" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F82" s="67">
+      <c r="F82" s="66">
         <f t="shared" si="0"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="G82" s="67">
+      <c r="G82" s="66">
         <f t="shared" si="1"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="H82" s="67">
+      <c r="H82" s="66">
         <f>G82</f>
         <v>1.3999066728884741</v>
       </c>
-      <c r="I82" s="67">
+      <c r="I82" s="66">
         <f t="shared" si="17"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="J82" s="66"/>
-      <c r="K82" s="67">
+      <c r="J82" s="65"/>
+      <c r="K82" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>81.273415088071616</v>
-      </c>
-      <c r="L82" s="66" t="str">
+        <v>52.181691379772346</v>
+      </c>
+      <c r="L82" s="65" t="str">
         <f ca="1">IF(K82&lt;=C82, IF(K82&lt;H82,$A$2,IF(K82&lt;H83,$A$3, IF(K82&lt;H84,$A$4, IF(K82&lt;H85,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M82" s="66"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="66"/>
-      <c r="Q82" s="66"/>
-      <c r="R82" s="66"/>
-      <c r="S82" s="66"/>
-      <c r="T82" s="66"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="65"/>
+      <c r="Q82" s="65"/>
+      <c r="R82" s="65"/>
+      <c r="S82" s="65"/>
+      <c r="T82" s="65"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A83" s="66"/>
-      <c r="B83" s="67">
+      <c r="A83" s="65"/>
+      <c r="B83" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C83" s="66">
+      <c r="C83" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D83" s="66">
+      <c r="D83" s="65">
         <f t="shared" si="29"/>
         <v>21000</v>
       </c>
-      <c r="E83" s="66">
+      <c r="E83" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F83" s="67">
+      <c r="F83" s="66">
         <f t="shared" si="0"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="G83" s="67">
+      <c r="G83" s="66">
         <f t="shared" si="1"/>
         <v>6.999533364442371</v>
       </c>
-      <c r="H83" s="67">
+      <c r="H83" s="66">
         <f t="shared" ref="H83:H85" si="33">H82+G83</f>
         <v>8.3994400373308444</v>
       </c>
-      <c r="I83" s="67">
+      <c r="I83" s="66">
         <f t="shared" si="17"/>
         <v>6.999533364442371</v>
       </c>
-      <c r="J83" s="66"/>
-      <c r="K83" s="67">
+      <c r="J83" s="65"/>
+      <c r="K83" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>35.606904608897509</v>
-      </c>
-      <c r="L83" s="66" t="str">
+        <v>19.0431605100163</v>
+      </c>
+      <c r="L83" s="65" t="str">
         <f ca="1">IF(K83&lt;=C83, IF(K83&lt;H82,$A$2,IF(K83&lt;H83,$A$3, IF(K83&lt;H84,$A$4, IF(K83&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
-      </c>
-      <c r="M83" s="66"/>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="66"/>
-      <c r="Q83" s="66"/>
-      <c r="R83" s="66"/>
-      <c r="S83" s="66"/>
-      <c r="T83" s="66"/>
+        <v>RP_UNCOMMON</v>
+      </c>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="65"/>
+      <c r="S83" s="65"/>
+      <c r="T83" s="65"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" s="66"/>
-      <c r="B84" s="67">
+      <c r="A84" s="65"/>
+      <c r="B84" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C84" s="66">
+      <c r="C84" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D84" s="66">
+      <c r="D84" s="65">
         <f t="shared" si="29"/>
         <v>21000</v>
       </c>
-      <c r="E84" s="66">
+      <c r="E84" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F84" s="67">
+      <c r="F84" s="66">
         <f t="shared" si="0"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="G84" s="67">
+      <c r="G84" s="66">
         <f t="shared" si="1"/>
         <v>20.998600093327113</v>
       </c>
-      <c r="H84" s="67">
+      <c r="H84" s="66">
         <f t="shared" si="33"/>
         <v>29.398040130657957</v>
       </c>
-      <c r="I84" s="67">
+      <c r="I84" s="66">
         <f t="shared" si="17"/>
         <v>20.998600093327113</v>
       </c>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67">
+      <c r="J84" s="65"/>
+      <c r="K84" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3813307081812831</v>
-      </c>
-      <c r="L84" s="66" t="str">
+        <v>28.373539782187919</v>
+      </c>
+      <c r="L84" s="65" t="str">
         <f ca="1">IF(K84&lt;=C84, IF(K84&lt;H82,$A$2,IF(K84&lt;H83,$A$3, IF(K84&lt;H84,$A$4, IF(K84&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RELIC</v>
-      </c>
-      <c r="M84" s="66"/>
-      <c r="N84" s="66"/>
-      <c r="O84" s="66"/>
-      <c r="P84" s="66"/>
-      <c r="Q84" s="66"/>
-      <c r="R84" s="66"/>
-      <c r="S84" s="66"/>
-      <c r="T84" s="66"/>
+        <v>RP_UNCOMMON</v>
+      </c>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="65"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="65"/>
+      <c r="S84" s="65"/>
+      <c r="T84" s="65"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A85" s="66"/>
-      <c r="B85" s="67">
+      <c r="A85" s="65"/>
+      <c r="B85" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C85" s="66">
+      <c r="C85" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D85" s="66">
+      <c r="D85" s="65">
         <f t="shared" si="29"/>
         <v>21000</v>
       </c>
-      <c r="E85" s="66">
+      <c r="E85" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F85" s="67">
+      <c r="F85" s="66">
         <f t="shared" si="0"/>
         <v>1.3999066728884741</v>
       </c>
-      <c r="G85" s="67">
+      <c r="G85" s="66">
         <f t="shared" si="1"/>
         <v>9.7993467102193197</v>
       </c>
-      <c r="H85" s="67">
+      <c r="H85" s="66">
         <f t="shared" si="33"/>
         <v>39.197386840877279</v>
       </c>
-      <c r="I85" s="67">
+      <c r="I85" s="66">
         <f t="shared" si="17"/>
         <v>0.60195986934204271</v>
       </c>
-      <c r="J85" s="66"/>
-      <c r="K85" s="67">
+      <c r="J85" s="65"/>
+      <c r="K85" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>51.10226150053866</v>
-      </c>
-      <c r="L85" s="66" t="str">
+        <v>62.821092055191251</v>
+      </c>
+      <c r="L85" s="65" t="str">
         <f ca="1">IF(K85&lt;=C85, IF(K85&lt;H82,$A$2,IF(K85&lt;H83,$A$3, IF(K85&lt;H84,$A$4, IF(K85&lt;H85,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M85" s="66"/>
-      <c r="N85" s="66"/>
-      <c r="O85" s="66"/>
-      <c r="P85" s="66"/>
-      <c r="Q85" s="66"/>
-      <c r="R85" s="66"/>
-      <c r="S85" s="66"/>
-      <c r="T85" s="66"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="65"/>
+      <c r="S85" s="65"/>
+      <c r="T85" s="65"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B86" s="65">
+      <c r="B86" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C86" s="66">
+      <c r="C86" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10095,41 +10098,41 @@
         <f t="shared" si="29"/>
         <v>22000</v>
       </c>
-      <c r="E86" s="66">
+      <c r="E86" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F86" s="65">
+      <c r="F86" s="64">
         <f t="shared" si="0"/>
         <v>1.4665688954069729</v>
       </c>
-      <c r="G86" s="65">
+      <c r="G86" s="64">
         <f t="shared" si="1"/>
         <v>1.4665688954069729</v>
       </c>
-      <c r="H86" s="65">
+      <c r="H86" s="64">
         <f>G86</f>
         <v>1.4665688954069729</v>
       </c>
-      <c r="I86" s="65">
+      <c r="I86" s="64">
         <f t="shared" si="17"/>
         <v>1.4665688954069729</v>
       </c>
-      <c r="K86" s="67">
+      <c r="K86" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>15.482764658473148</v>
-      </c>
-      <c r="L86" s="66" t="str">
+        <v>48.81577733588729</v>
+      </c>
+      <c r="L86" s="65" t="str">
         <f ca="1">IF(K86&lt;=C86, IF(K86&lt;H86,$A$2,IF(K86&lt;H87,$A$3, IF(K86&lt;H88,$A$4, IF(K86&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="65">
+      <c r="B87" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C87" s="66">
+      <c r="C87" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10137,41 +10140,41 @@
         <f t="shared" si="29"/>
         <v>22000</v>
       </c>
-      <c r="E87" s="66">
+      <c r="E87" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F87" s="65">
+      <c r="F87" s="64">
         <f t="shared" si="0"/>
         <v>1.4665688954069729</v>
       </c>
-      <c r="G87" s="65">
+      <c r="G87" s="64">
         <f t="shared" si="1"/>
         <v>7.3328444770348646</v>
       </c>
-      <c r="H87" s="65">
+      <c r="H87" s="64">
         <f t="shared" ref="H87:H89" si="34">H86+G87</f>
         <v>8.7994133724418369</v>
       </c>
-      <c r="I87" s="65">
+      <c r="I87" s="64">
         <f t="shared" si="17"/>
         <v>7.3328444770348646</v>
       </c>
-      <c r="K87" s="67">
+      <c r="K87" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>60.931726949013651</v>
-      </c>
-      <c r="L87" s="66" t="str">
+        <v>51.464013972386333</v>
+      </c>
+      <c r="L87" s="65" t="str">
         <f ca="1">IF(K87&lt;=C87, IF(K87&lt;H86,$A$2,IF(K87&lt;H87,$A$3, IF(K87&lt;H88,$A$4, IF(K87&lt;H89,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B88" s="65">
+      <c r="B88" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C88" s="66">
+      <c r="C88" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10179,41 +10182,41 @@
         <f t="shared" si="29"/>
         <v>22000</v>
       </c>
-      <c r="E88" s="66">
+      <c r="E88" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F88" s="65">
+      <c r="F88" s="64">
         <f t="shared" si="0"/>
         <v>1.4665688954069729</v>
       </c>
-      <c r="G88" s="65">
+      <c r="G88" s="64">
         <f t="shared" si="1"/>
         <v>21.998533431104594</v>
       </c>
-      <c r="H88" s="65">
+      <c r="H88" s="64">
         <f t="shared" si="34"/>
         <v>30.797946803546431</v>
       </c>
-      <c r="I88" s="65">
+      <c r="I88" s="64">
         <f t="shared" si="17"/>
         <v>21.200586627558163</v>
       </c>
-      <c r="K88" s="67">
+      <c r="K88" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>99.374859529215655</v>
-      </c>
-      <c r="L88" s="66" t="str">
+        <v>2.3471757920397684</v>
+      </c>
+      <c r="L88" s="65" t="str">
         <f ca="1">IF(K88&lt;=C88, IF(K88&lt;H86,$A$2,IF(K88&lt;H87,$A$3, IF(K88&lt;H88,$A$4, IF(K88&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B89" s="65">
+      <c r="B89" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C89" s="66">
+      <c r="C89" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10221,249 +10224,249 @@
         <f t="shared" si="29"/>
         <v>22000</v>
       </c>
-      <c r="E89" s="66">
+      <c r="E89" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F89" s="65">
+      <c r="F89" s="64">
         <f t="shared" si="0"/>
         <v>1.4665688954069729</v>
       </c>
-      <c r="G89" s="65">
+      <c r="G89" s="64">
         <f t="shared" si="1"/>
         <v>10.265982267848811</v>
       </c>
-      <c r="H89" s="65">
+      <c r="H89" s="64">
         <f t="shared" si="34"/>
         <v>41.063929071395243</v>
       </c>
-      <c r="I89" s="65">
+      <c r="I89" s="64">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K89" s="67">
+      <c r="K89" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>84.876177661377341</v>
-      </c>
-      <c r="L89" s="66" t="str">
+        <v>45.445752951389515</v>
+      </c>
+      <c r="L89" s="65" t="str">
         <f ca="1">IF(K89&lt;=C89, IF(K89&lt;H86,$A$2,IF(K89&lt;H87,$A$3, IF(K89&lt;H88,$A$4, IF(K89&lt;H89,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A90" s="66"/>
-      <c r="B90" s="67">
+      <c r="A90" s="65"/>
+      <c r="B90" s="66">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C90" s="66">
+      <c r="C90" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D90" s="66">
+      <c r="D90" s="65">
         <f t="shared" si="29"/>
         <v>23000</v>
       </c>
-      <c r="E90" s="66">
+      <c r="E90" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F90" s="67">
+      <c r="F90" s="66">
         <f t="shared" si="0"/>
         <v>1.5332311179254716</v>
       </c>
-      <c r="G90" s="67">
+      <c r="G90" s="66">
         <f t="shared" si="1"/>
         <v>1.5332311179254716</v>
       </c>
-      <c r="H90" s="67">
+      <c r="H90" s="66">
         <f>G90</f>
         <v>1.5332311179254716</v>
       </c>
-      <c r="I90" s="67">
+      <c r="I90" s="66">
         <f t="shared" si="17"/>
         <v>1.5332311179254716</v>
       </c>
-      <c r="J90" s="66"/>
-      <c r="K90" s="67">
+      <c r="J90" s="65"/>
+      <c r="K90" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>66.160086615863179</v>
-      </c>
-      <c r="L90" s="66" t="str">
+        <v>93.141056604913516</v>
+      </c>
+      <c r="L90" s="65" t="str">
         <f ca="1">IF(K90&lt;=C90, IF(K90&lt;H90,$A$2,IF(K90&lt;H91,$A$3, IF(K90&lt;H92,$A$4, IF(K90&lt;H93,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M90" s="66"/>
-      <c r="N90" s="66"/>
-      <c r="O90" s="66"/>
-      <c r="P90" s="66"/>
-      <c r="Q90" s="66"/>
-      <c r="R90" s="66"/>
-      <c r="S90" s="66"/>
-      <c r="T90" s="66"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="65"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="65"/>
+      <c r="R90" s="65"/>
+      <c r="S90" s="65"/>
+      <c r="T90" s="65"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A91" s="66"/>
-      <c r="B91" s="67">
+      <c r="A91" s="65"/>
+      <c r="B91" s="66">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C91" s="66">
+      <c r="C91" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D91" s="66">
+      <c r="D91" s="65">
         <f t="shared" si="29"/>
         <v>23000</v>
       </c>
-      <c r="E91" s="66">
+      <c r="E91" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F91" s="67">
+      <c r="F91" s="66">
         <f t="shared" si="0"/>
         <v>1.5332311179254716</v>
       </c>
-      <c r="G91" s="67">
+      <c r="G91" s="66">
         <f t="shared" si="1"/>
         <v>7.6661555896273583</v>
       </c>
-      <c r="H91" s="67">
+      <c r="H91" s="66">
         <f t="shared" ref="H91:H93" si="35">H90+G91</f>
         <v>9.1993867075528293</v>
       </c>
-      <c r="I91" s="67">
+      <c r="I91" s="66">
         <f t="shared" si="17"/>
         <v>7.6661555896273583</v>
       </c>
-      <c r="J91" s="66"/>
-      <c r="K91" s="67">
+      <c r="J91" s="65"/>
+      <c r="K91" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3560604692144844</v>
-      </c>
-      <c r="L91" s="66" t="str">
+        <v>74.735883013602518</v>
+      </c>
+      <c r="L91" s="65" t="str">
         <f ca="1">IF(K91&lt;=C91, IF(K91&lt;H90,$A$2,IF(K91&lt;H91,$A$3, IF(K91&lt;H92,$A$4, IF(K91&lt;H93,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
-      </c>
-      <c r="M91" s="66"/>
-      <c r="N91" s="66"/>
-      <c r="O91" s="66"/>
-      <c r="P91" s="66"/>
-      <c r="Q91" s="66"/>
-      <c r="R91" s="66"/>
-      <c r="S91" s="66"/>
-      <c r="T91" s="66"/>
+        <v>NONE</v>
+      </c>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="65"/>
+      <c r="R91" s="65"/>
+      <c r="S91" s="65"/>
+      <c r="T91" s="65"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A92" s="66"/>
-      <c r="B92" s="67">
+      <c r="A92" s="65"/>
+      <c r="B92" s="66">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C92" s="66">
+      <c r="C92" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D92" s="66">
+      <c r="D92" s="65">
         <f t="shared" si="29"/>
         <v>23000</v>
       </c>
-      <c r="E92" s="66">
+      <c r="E92" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F92" s="67">
+      <c r="F92" s="66">
         <f t="shared" si="0"/>
         <v>1.5332311179254716</v>
       </c>
-      <c r="G92" s="67">
+      <c r="G92" s="66">
         <f t="shared" si="1"/>
         <v>22.998466768882075</v>
       </c>
-      <c r="H92" s="67">
+      <c r="H92" s="66">
         <f t="shared" si="35"/>
         <v>32.197853476434901</v>
       </c>
-      <c r="I92" s="67">
+      <c r="I92" s="66">
         <f t="shared" si="17"/>
         <v>20.800613292447171</v>
       </c>
-      <c r="J92" s="66"/>
-      <c r="K92" s="67">
+      <c r="J92" s="65"/>
+      <c r="K92" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>18.256820124152974</v>
-      </c>
-      <c r="L92" s="66" t="str">
+        <v>80.116883294305723</v>
+      </c>
+      <c r="L92" s="65" t="str">
         <f ca="1">IF(K92&lt;=C92, IF(K92&lt;H90,$A$2,IF(K92&lt;H91,$A$3, IF(K92&lt;H92,$A$4, IF(K92&lt;H93,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
-      </c>
-      <c r="M92" s="66"/>
-      <c r="N92" s="66"/>
-      <c r="O92" s="66"/>
-      <c r="P92" s="66"/>
-      <c r="Q92" s="66"/>
-      <c r="R92" s="66"/>
-      <c r="S92" s="66"/>
-      <c r="T92" s="66"/>
+        <v>NONE</v>
+      </c>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="65"/>
+      <c r="R92" s="65"/>
+      <c r="S92" s="65"/>
+      <c r="T92" s="65"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A93" s="66"/>
-      <c r="B93" s="67">
+      <c r="A93" s="65"/>
+      <c r="B93" s="66">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C93" s="66">
+      <c r="C93" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D93" s="66">
+      <c r="D93" s="65">
         <f t="shared" si="29"/>
         <v>23000</v>
       </c>
-      <c r="E93" s="66">
+      <c r="E93" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F93" s="67">
+      <c r="F93" s="66">
         <f t="shared" si="0"/>
         <v>1.5332311179254716</v>
       </c>
-      <c r="G93" s="67">
+      <c r="G93" s="66">
         <f t="shared" si="1"/>
         <v>10.732617825478302</v>
       </c>
-      <c r="H93" s="67">
+      <c r="H93" s="66">
         <f t="shared" si="35"/>
         <v>42.930471301913201</v>
       </c>
-      <c r="I93" s="67">
+      <c r="I93" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J93" s="66"/>
-      <c r="K93" s="67">
+      <c r="J93" s="65"/>
+      <c r="K93" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>72.930889313220803</v>
-      </c>
-      <c r="L93" s="66" t="str">
+        <v>68.348611331507172</v>
+      </c>
+      <c r="L93" s="65" t="str">
         <f ca="1">IF(K93&lt;=C93, IF(K93&lt;H90,$A$2,IF(K93&lt;H91,$A$3, IF(K93&lt;H92,$A$4, IF(K93&lt;H93,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
-      <c r="M93" s="66"/>
-      <c r="N93" s="66"/>
-      <c r="O93" s="66"/>
-      <c r="P93" s="66"/>
-      <c r="Q93" s="66"/>
-      <c r="R93" s="66"/>
-      <c r="S93" s="66"/>
-      <c r="T93" s="66"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="65"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65"/>
+      <c r="Q93" s="65"/>
+      <c r="R93" s="65"/>
+      <c r="S93" s="65"/>
+      <c r="T93" s="65"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B94" s="65">
+      <c r="B94" s="64">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C94" s="66">
+      <c r="C94" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10471,41 +10474,41 @@
         <f t="shared" si="29"/>
         <v>24000</v>
       </c>
-      <c r="E94" s="66">
+      <c r="E94" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F94" s="65">
+      <c r="F94" s="64">
         <f t="shared" si="0"/>
         <v>1.5998933404439704</v>
       </c>
-      <c r="G94" s="65">
+      <c r="G94" s="64">
         <f t="shared" si="1"/>
         <v>1.5998933404439704</v>
       </c>
-      <c r="H94" s="65">
+      <c r="H94" s="64">
         <f>G94</f>
         <v>1.5998933404439704</v>
       </c>
-      <c r="I94" s="65">
+      <c r="I94" s="64">
         <f t="shared" si="17"/>
         <v>1.5998933404439704</v>
       </c>
-      <c r="K94" s="67">
+      <c r="K94" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>64.538882995524759</v>
-      </c>
-      <c r="L94" s="66" t="str">
+        <v>24.715912907784009</v>
+      </c>
+      <c r="L94" s="65" t="str">
         <f ca="1">IF(K94&lt;=C94, IF(K94&lt;H94,$A$2,IF(K94&lt;H95,$A$3, IF(K94&lt;H96,$A$4, IF(K94&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B95" s="65">
+      <c r="B95" s="64">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C95" s="66">
+      <c r="C95" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10513,41 +10516,41 @@
         <f t="shared" si="29"/>
         <v>24000</v>
       </c>
-      <c r="E95" s="66">
+      <c r="E95" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F95" s="65">
+      <c r="F95" s="64">
         <f t="shared" si="0"/>
         <v>1.5998933404439704</v>
       </c>
-      <c r="G95" s="65">
+      <c r="G95" s="64">
         <f t="shared" si="1"/>
         <v>7.999466702219852</v>
       </c>
-      <c r="H95" s="65">
+      <c r="H95" s="64">
         <f t="shared" ref="H95:H97" si="36">H94+G95</f>
         <v>9.5993600426638217</v>
       </c>
-      <c r="I95" s="65">
+      <c r="I95" s="64">
         <f t="shared" si="17"/>
         <v>7.999466702219852</v>
       </c>
-      <c r="K95" s="67">
+      <c r="K95" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>33.367775858385841</v>
-      </c>
-      <c r="L95" s="66" t="str">
+        <v>37.370816969281286</v>
+      </c>
+      <c r="L95" s="65" t="str">
         <f ca="1">IF(K95&lt;=C95, IF(K95&lt;H94,$A$2,IF(K95&lt;H95,$A$3, IF(K95&lt;H96,$A$4, IF(K95&lt;H97,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B96" s="65">
+      <c r="B96" s="64">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C96" s="66">
+      <c r="C96" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10555,41 +10558,41 @@
         <f t="shared" si="29"/>
         <v>24000</v>
       </c>
-      <c r="E96" s="66">
+      <c r="E96" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F96" s="65">
+      <c r="F96" s="64">
         <f t="shared" si="0"/>
         <v>1.5998933404439704</v>
       </c>
-      <c r="G96" s="65">
+      <c r="G96" s="64">
         <f t="shared" si="1"/>
         <v>23.998400106659556</v>
       </c>
-      <c r="H96" s="65">
+      <c r="H96" s="64">
         <f t="shared" si="36"/>
         <v>33.597760149323378</v>
       </c>
-      <c r="I96" s="65">
+      <c r="I96" s="64">
         <f t="shared" si="17"/>
         <v>20.400639957336178</v>
       </c>
-      <c r="K96" s="67">
+      <c r="K96" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>94.043597280415298</v>
-      </c>
-      <c r="L96" s="66" t="str">
+        <v>82.155427747334528</v>
+      </c>
+      <c r="L96" s="65" t="str">
         <f ca="1">IF(K96&lt;=C96, IF(K96&lt;H94,$A$2,IF(K96&lt;H95,$A$3, IF(K96&lt;H96,$A$4, IF(K96&lt;H97,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="65">
+      <c r="B97" s="64">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C97" s="66">
+      <c r="C97" s="65">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -10597,218 +10600,218 @@
         <f t="shared" si="29"/>
         <v>24000</v>
       </c>
-      <c r="E97" s="66">
+      <c r="E97" s="65">
         <f t="shared" si="4"/>
         <v>15001</v>
       </c>
-      <c r="F97" s="65">
+      <c r="F97" s="64">
         <f t="shared" si="0"/>
         <v>1.5998933404439704</v>
       </c>
-      <c r="G97" s="65">
+      <c r="G97" s="64">
         <f t="shared" si="1"/>
         <v>11.199253383107793</v>
       </c>
-      <c r="H97" s="65">
+      <c r="H97" s="64">
         <f t="shared" si="36"/>
         <v>44.797013532431173</v>
       </c>
-      <c r="I97" s="65">
+      <c r="I97" s="64">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K97" s="67">
+      <c r="K97" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>48.406771318045152</v>
-      </c>
-      <c r="L97" s="66" t="str">
+        <v>81.380534626979198</v>
+      </c>
+      <c r="L97" s="65" t="str">
         <f ca="1">IF(K97&lt;=C97, IF(K97&lt;H94,$A$2,IF(K97&lt;H95,$A$3, IF(K97&lt;H96,$A$4, IF(K97&lt;H97,$A$5, "NONE")))), "NONE")</f>
         <v>NONE</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="K98" s="65"/>
+      <c r="B98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+      <c r="K98" s="64"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="K99" s="65"/>
+      <c r="B99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="K99" s="64"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="K100" s="65"/>
+      <c r="B100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+      <c r="K100" s="64"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="K101" s="65"/>
+      <c r="B101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="K101" s="64"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
-      <c r="K102" s="65"/>
+      <c r="B102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="K102" s="64"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="K103" s="65"/>
+      <c r="B103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="K103" s="64"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="65"/>
-      <c r="K104" s="65"/>
+      <c r="B104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="64"/>
+      <c r="K104" s="64"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="K105" s="65"/>
+      <c r="B105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="65"/>
-      <c r="K106" s="65"/>
+      <c r="B106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="K106" s="64"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="K107" s="65"/>
+      <c r="B107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+      <c r="K107" s="64"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65"/>
-      <c r="K108" s="65"/>
+      <c r="B108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="K108" s="64"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="K109" s="65"/>
+      <c r="B109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="K110" s="65"/>
+      <c r="B110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="K110" s="64"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="K111" s="65"/>
+      <c r="B111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="K111" s="64"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="K112" s="65"/>
+      <c r="B112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
+      <c r="K112" s="64"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="K113" s="65"/>
+      <c r="B113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64"/>
+      <c r="K113" s="64"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="65"/>
-      <c r="K114" s="65"/>
+      <c r="B114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64"/>
+      <c r="K114" s="64"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="K115" s="65"/>
+      <c r="B115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="K115" s="64"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="K116" s="65"/>
+      <c r="B116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
+      <c r="K116" s="64"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="65"/>
-      <c r="K117" s="65"/>
+      <c r="B117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="K117" s="64"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
-      <c r="I118" s="65"/>
-      <c r="K118" s="65"/>
+      <c r="B118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="K118" s="64"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="65"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="65"/>
-      <c r="K119" s="65"/>
+      <c r="B119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="K119" s="64"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="65"/>
-      <c r="I120" s="65"/>
-      <c r="K120" s="65"/>
+      <c r="B120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64"/>
+      <c r="K120" s="64"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:L120">
@@ -10842,6 +10845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11428,6 +11432,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11778,6 +11783,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12177,6 +12183,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12449,6 +12456,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12837,11 +12845,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14700,6 +14709,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15254,6 +15264,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dev/Items.xlsx
+++ b/dev/Items.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Glyph" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="742">
   <si>
     <t>名称</t>
   </si>
@@ -2144,39 +2144,9 @@
     <t>等级</t>
   </si>
   <si>
-    <t>使用后恢复20%的法力值。</t>
-  </si>
-  <si>
-    <t>使用后恢复40%的法力值。</t>
-  </si>
-  <si>
-    <t>使用后恢复10%的法力值。</t>
-  </si>
-  <si>
-    <t>使用后恢复30%的法力值。</t>
-  </si>
-  <si>
     <t>“坚毅”</t>
   </si>
   <si>
-    <t>每秒恢复5点生命值，使用后恢复10%的生命值。</t>
-  </si>
-  <si>
-    <t>每秒恢复10点生命值，使用后恢复20%的生命值。</t>
-  </si>
-  <si>
-    <t>每秒恢复15点生命值，使用后恢复30%的生命值。</t>
-  </si>
-  <si>
-    <t>每秒恢复20点生命值，使用后恢复40%的生命值。</t>
-  </si>
-  <si>
-    <t>使用后恢复50%的法力值。并且在接下来的10秒内，每秒恢复5%的法力值。</t>
-  </si>
-  <si>
-    <t>每秒恢复1%的生命值，至少恢复30点，使用后恢复50%的生命值。</t>
-  </si>
-  <si>
     <t>“活力”</t>
   </si>
   <si>
@@ -2228,9 +2198,6 @@
     <t>+20力量，攻击时有一定几率对附近200码范围内的一个敌人造成等同伤害，如果没有额外目标，那么对当前目标造成50%额外伤害。</t>
   </si>
   <si>
-    <t>+50攻击强度，开启后，造成的所有伤害提高30%，持续15秒。</t>
-  </si>
-  <si>
     <t>“智者”</t>
   </si>
   <si>
@@ -2271,6 +2238,24 @@
   </si>
   <si>
     <t>“强袭”</t>
+  </si>
+  <si>
+    <t>回血回蓝</t>
+  </si>
+  <si>
+    <t>+10攻击强度，+15法术强度</t>
+  </si>
+  <si>
+    <t>+20攻击强度，+30法术强度</t>
+  </si>
+  <si>
+    <t>+30攻击强度，+45法术强度</t>
+  </si>
+  <si>
+    <t>+40攻击强度，+60法术强度</t>
+  </si>
+  <si>
+    <t>+50攻击强度，+75法术强度，开启后，造成的所有伤害提高30%，持续15秒。</t>
   </si>
 </sst>
 </file>
@@ -2687,13 +2672,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4921,16 +4906,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="77" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="114.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="67" bestFit="1" customWidth="1"/>
@@ -4939,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>703</v>
@@ -4953,13 +4938,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="66" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B2" s="69">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
-        <v>727</v>
+      <c r="C2" s="76" t="s">
+        <v>717</v>
       </c>
       <c r="D2" s="73"/>
     </row>
@@ -4968,8 +4953,8 @@
       <c r="B3" s="69">
         <v>2</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>728</v>
+      <c r="C3" s="76" t="s">
+        <v>718</v>
       </c>
       <c r="D3" s="73"/>
     </row>
@@ -4978,8 +4963,8 @@
       <c r="B4" s="69">
         <v>3</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>729</v>
+      <c r="C4" s="76" t="s">
+        <v>719</v>
       </c>
       <c r="D4" s="73"/>
     </row>
@@ -4988,8 +4973,8 @@
       <c r="B5" s="69">
         <v>4</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>730</v>
+      <c r="C5" s="76" t="s">
+        <v>720</v>
       </c>
       <c r="D5" s="73"/>
     </row>
@@ -4998,20 +4983,20 @@
       <c r="B6" s="69">
         <v>5</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>731</v>
+      <c r="C6" s="76" t="s">
+        <v>721</v>
       </c>
       <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B7" s="68">
         <v>1</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>740</v>
+      <c r="C7" s="76" t="s">
+        <v>729</v>
       </c>
       <c r="D7" s="73"/>
     </row>
@@ -5020,8 +5005,8 @@
       <c r="B8" s="68">
         <v>2</v>
       </c>
-      <c r="C8" s="77" t="s">
-        <v>741</v>
+      <c r="C8" s="76" t="s">
+        <v>730</v>
       </c>
       <c r="D8" s="73"/>
     </row>
@@ -5030,8 +5015,8 @@
       <c r="B9" s="68">
         <v>3</v>
       </c>
-      <c r="C9" s="77" t="s">
-        <v>742</v>
+      <c r="C9" s="76" t="s">
+        <v>731</v>
       </c>
       <c r="D9" s="73"/>
     </row>
@@ -5040,8 +5025,8 @@
       <c r="B10" s="68">
         <v>4</v>
       </c>
-      <c r="C10" s="77" t="s">
-        <v>743</v>
+      <c r="C10" s="76" t="s">
+        <v>732</v>
       </c>
       <c r="D10" s="73"/>
     </row>
@@ -5050,20 +5035,20 @@
       <c r="B11" s="68">
         <v>5</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>744</v>
+      <c r="C11" s="76" t="s">
+        <v>733</v>
       </c>
       <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="66" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B12" s="69">
         <v>1</v>
       </c>
-      <c r="C12" s="77" t="s">
-        <v>734</v>
+      <c r="C12" s="76" t="s">
+        <v>723</v>
       </c>
       <c r="D12" s="73"/>
     </row>
@@ -5072,8 +5057,8 @@
       <c r="B13" s="69">
         <v>2</v>
       </c>
-      <c r="C13" s="77" t="s">
-        <v>735</v>
+      <c r="C13" s="76" t="s">
+        <v>724</v>
       </c>
       <c r="D13" s="73"/>
     </row>
@@ -5082,8 +5067,8 @@
       <c r="B14" s="69">
         <v>3</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>736</v>
+      <c r="C14" s="76" t="s">
+        <v>725</v>
       </c>
       <c r="D14" s="73"/>
     </row>
@@ -5092,8 +5077,8 @@
       <c r="B15" s="69">
         <v>4</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>737</v>
+      <c r="C15" s="76" t="s">
+        <v>726</v>
       </c>
       <c r="D15" s="73"/>
     </row>
@@ -5102,8 +5087,8 @@
       <c r="B16" s="69">
         <v>5</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>739</v>
+      <c r="C16" s="76" t="s">
+        <v>728</v>
       </c>
       <c r="D16" s="73"/>
     </row>
@@ -5114,8 +5099,8 @@
       <c r="B17" s="68">
         <v>1</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>721</v>
+      <c r="C17" s="76" t="s">
+        <v>711</v>
       </c>
       <c r="D17" s="73"/>
     </row>
@@ -5124,8 +5109,8 @@
       <c r="B18" s="68">
         <v>2</v>
       </c>
-      <c r="C18" s="77" t="s">
-        <v>722</v>
+      <c r="C18" s="76" t="s">
+        <v>712</v>
       </c>
       <c r="D18" s="73"/>
     </row>
@@ -5134,8 +5119,8 @@
       <c r="B19" s="68">
         <v>3</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>723</v>
+      <c r="C19" s="76" t="s">
+        <v>713</v>
       </c>
       <c r="D19" s="73"/>
     </row>
@@ -5144,8 +5129,8 @@
       <c r="B20" s="68">
         <v>4</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>724</v>
+      <c r="C20" s="76" t="s">
+        <v>714</v>
       </c>
       <c r="D20" s="73"/>
     </row>
@@ -5154,8 +5139,8 @@
       <c r="B21" s="68">
         <v>5</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>725</v>
+      <c r="C21" s="76" t="s">
+        <v>715</v>
       </c>
       <c r="D21" s="73">
         <v>60</v>
@@ -5163,13 +5148,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="66" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B22" s="68">
         <v>1</v>
       </c>
-      <c r="C22" s="77" t="s">
-        <v>206</v>
+      <c r="C22" s="76" t="s">
+        <v>737</v>
       </c>
       <c r="D22" s="73"/>
     </row>
@@ -5178,8 +5163,8 @@
       <c r="B23" s="68">
         <v>2</v>
       </c>
-      <c r="C23" s="77" t="s">
-        <v>639</v>
+      <c r="C23" s="76" t="s">
+        <v>738</v>
       </c>
       <c r="D23" s="73"/>
     </row>
@@ -5188,8 +5173,8 @@
       <c r="B24" s="68">
         <v>3</v>
       </c>
-      <c r="C24" s="77" t="s">
-        <v>642</v>
+      <c r="C24" s="76" t="s">
+        <v>739</v>
       </c>
       <c r="D24" s="73"/>
     </row>
@@ -5198,8 +5183,8 @@
       <c r="B25" s="68">
         <v>4</v>
       </c>
-      <c r="C25" s="77" t="s">
-        <v>654</v>
+      <c r="C25" s="76" t="s">
+        <v>740</v>
       </c>
       <c r="D25" s="73"/>
     </row>
@@ -5208,8 +5193,8 @@
       <c r="B26" s="68">
         <v>5</v>
       </c>
-      <c r="C26" s="77" t="s">
-        <v>732</v>
+      <c r="C26" s="76" t="s">
+        <v>741</v>
       </c>
       <c r="D26" s="73">
         <v>60</v>
@@ -5217,13 +5202,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="75" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B27" s="71">
         <v>1</v>
       </c>
-      <c r="C27" s="77" t="s">
-        <v>716</v>
+      <c r="C27" s="76" t="s">
+        <v>706</v>
       </c>
       <c r="D27" s="73">
         <v>60</v>
@@ -5234,8 +5219,8 @@
       <c r="B28" s="71">
         <v>2</v>
       </c>
-      <c r="C28" s="77" t="s">
-        <v>717</v>
+      <c r="C28" s="76" t="s">
+        <v>707</v>
       </c>
       <c r="D28" s="73">
         <v>60</v>
@@ -5246,8 +5231,8 @@
       <c r="B29" s="71">
         <v>3</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>718</v>
+      <c r="C29" s="76" t="s">
+        <v>708</v>
       </c>
       <c r="D29" s="73">
         <v>60</v>
@@ -5258,8 +5243,8 @@
       <c r="B30" s="71">
         <v>4</v>
       </c>
-      <c r="C30" s="77" t="s">
-        <v>719</v>
+      <c r="C30" s="76" t="s">
+        <v>709</v>
       </c>
       <c r="D30" s="73">
         <v>60</v>
@@ -5270,8 +5255,8 @@
       <c r="B31" s="71">
         <v>5</v>
       </c>
-      <c r="C31" s="77" t="s">
-        <v>720</v>
+      <c r="C31" s="76" t="s">
+        <v>710</v>
       </c>
       <c r="D31" s="73">
         <v>60</v>
@@ -5279,65 +5264,47 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="66" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B32" s="69">
         <v>1</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>709</v>
-      </c>
-      <c r="D32" s="73">
-        <v>60</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="D32" s="73"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="75"/>
       <c r="B33" s="69">
         <v>2</v>
       </c>
-      <c r="C33" s="65" t="s">
-        <v>710</v>
-      </c>
-      <c r="D33" s="73">
-        <v>60</v>
-      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="75"/>
       <c r="B34" s="69">
         <v>3</v>
       </c>
-      <c r="C34" s="65" t="s">
-        <v>711</v>
-      </c>
-      <c r="D34" s="73">
-        <v>60</v>
-      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="73"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="75"/>
       <c r="B35" s="69">
         <v>4</v>
       </c>
-      <c r="C35" s="65" t="s">
-        <v>712</v>
-      </c>
-      <c r="D35" s="73">
-        <v>60</v>
-      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="73"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="75"/>
       <c r="B36" s="69">
         <v>5</v>
       </c>
-      <c r="C36" s="65" t="s">
-        <v>714</v>
-      </c>
-      <c r="D36" s="73">
-        <v>60</v>
-      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="73"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="66" t="s">
@@ -5347,59 +5314,41 @@
         <v>1</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>706</v>
-      </c>
-      <c r="D37" s="73">
-        <v>60</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D37" s="73"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="66"/>
       <c r="B38" s="68">
         <v>2</v>
       </c>
-      <c r="C38" s="65" t="s">
-        <v>704</v>
-      </c>
-      <c r="D38" s="73">
-        <v>60</v>
-      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="73"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="66"/>
       <c r="B39" s="68">
         <v>3</v>
       </c>
-      <c r="C39" s="65" t="s">
-        <v>707</v>
-      </c>
-      <c r="D39" s="73">
-        <v>60</v>
-      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="73"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="66"/>
       <c r="B40" s="68">
         <v>4</v>
       </c>
-      <c r="C40" s="65" t="s">
-        <v>705</v>
-      </c>
-      <c r="D40" s="73">
-        <v>60</v>
-      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="73"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="66"/>
       <c r="B41" s="68">
         <v>5</v>
       </c>
-      <c r="C41" s="65" t="s">
-        <v>713</v>
-      </c>
-      <c r="D41" s="73">
-        <v>60</v>
-      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5425,18 +5374,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="54"/>
@@ -6697,7 +6646,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58">
         <f t="shared" ref="K2:K97" ca="1" si="2">RAND() * 100</f>
-        <v>49.445172602033061</v>
+        <v>89.515164256506836</v>
       </c>
       <c r="L2" s="57" t="str">
         <f ca="1">IF(K2&lt;=C2, IF(K2&lt;H2,$A$2,IF(K2&lt;H3,$A$3, IF(K2&lt;H4,$A$4, IF(K2&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6749,7 +6698,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>90.360115537417741</v>
+        <v>73.665107384882106</v>
       </c>
       <c r="L3" s="57" t="str">
         <f ca="1">IF(K3&lt;=C3, IF(K3&lt;H2,$A$2,IF(K3&lt;H3,$A$3, IF(K3&lt;H4,$A$4, IF(K3&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6801,7 +6750,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>36.287699483899971</v>
+        <v>45.510502644926312</v>
       </c>
       <c r="L4" s="57" t="str">
         <f ca="1">IF(K4&lt;=C4, IF(K4&lt;H2,$A$2,IF(K4&lt;H3,$A$3, IF(K4&lt;H4,$A$4, IF(K4&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6853,7 +6802,7 @@
       <c r="J5" s="57"/>
       <c r="K5" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7644979333912967</v>
+        <v>65.122311518877751</v>
       </c>
       <c r="L5" s="57" t="str">
         <f ca="1">IF(K5&lt;=C5, IF(K5&lt;H2,$A$2,IF(K5&lt;H3,$A$3, IF(K5&lt;H4,$A$4, IF(K5&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6902,7 +6851,7 @@
       </c>
       <c r="K6" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>91.310383571274201</v>
+        <v>89.708680373627658</v>
       </c>
       <c r="L6" s="57" t="str">
         <f ca="1">IF(K6&lt;=C6, IF(K6&lt;H6,$A$2,IF(K6&lt;H7,$A$3, IF(K6&lt;H8,$A$4, IF(K6&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -6943,7 +6892,7 @@
       </c>
       <c r="K7" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>20.421077915275454</v>
+        <v>62.801510345181512</v>
       </c>
       <c r="L7" s="57" t="str">
         <f ca="1">IF(K7&lt;=C7, IF(K7&lt;H6,$A$2,IF(K7&lt;H7,$A$3, IF(K7&lt;H8,$A$4, IF(K7&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -6984,7 +6933,7 @@
       </c>
       <c r="K8" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>15.435654907396511</v>
+        <v>96.250267964913618</v>
       </c>
       <c r="L8" s="57" t="str">
         <f ca="1">IF(K8&lt;=C8, IF(K8&lt;H6,$A$2,IF(K8&lt;H7,$A$3, IF(K8&lt;H8,$A$4, IF(K8&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -7025,7 +6974,7 @@
       </c>
       <c r="K9" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>34.64793090851542</v>
+        <v>38.367163571491744</v>
       </c>
       <c r="L9" s="57" t="str">
         <f ca="1">IF(K9&lt;=C9, IF(K9&lt;H6,$A$2,IF(K9&lt;H7,$A$3, IF(K9&lt;H8,$A$4, IF(K9&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -7068,7 +7017,7 @@
       <c r="J10" s="57"/>
       <c r="K10" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>80.38330168632757</v>
+        <v>13.325590370755325</v>
       </c>
       <c r="L10" s="57" t="str">
         <f ca="1">IF(K10&lt;=C10, IF(K10&lt;H10,$A$2,IF(K10&lt;H11,$A$3, IF(K10&lt;H12,$A$4, IF(K10&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -7119,7 +7068,7 @@
       <c r="J11" s="57"/>
       <c r="K11" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>75.871723109666661</v>
+        <v>73.912497302239586</v>
       </c>
       <c r="L11" s="57" t="str">
         <f ca="1">IF(K11&lt;=C11, IF(K11&lt;H10,$A$2,IF(K11&lt;H11,$A$3, IF(K11&lt;H12,$A$4, IF(K11&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -7170,7 +7119,7 @@
       <c r="J12" s="57"/>
       <c r="K12" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>93.011479563806887</v>
+        <v>94.267917965426591</v>
       </c>
       <c r="L12" s="57" t="str">
         <f ca="1">IF(K12&lt;=C12, IF(K12&lt;H10,$A$2,IF(K12&lt;H11,$A$3, IF(K12&lt;H12,$A$4, IF(K12&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -7221,11 +7170,11 @@
       <c r="J13" s="57"/>
       <c r="K13" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>72.987370570651322</v>
+        <v>4.6994938435253708</v>
       </c>
       <c r="L13" s="57" t="str">
         <f ca="1">IF(K13&lt;=C13, IF(K13&lt;H10,$A$2,IF(K13&lt;H11,$A$3, IF(K13&lt;H12,$A$4, IF(K13&lt;H13,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -7270,11 +7219,11 @@
       </c>
       <c r="K14" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6333044740706768</v>
+        <v>65.991431308583259</v>
       </c>
       <c r="L14" s="57" t="str">
         <f ca="1">IF(K14&lt;=C14, IF(K14&lt;H14,$A$2,IF(K14&lt;H15,$A$3, IF(K14&lt;H16,$A$4, IF(K14&lt;H17,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -7311,7 +7260,7 @@
       </c>
       <c r="K15" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>95.861794789542714</v>
+        <v>54.4632550179155</v>
       </c>
       <c r="L15" s="57" t="str">
         <f ca="1">IF(K15&lt;=C15, IF(K15&lt;H14,$A$2,IF(K15&lt;H15,$A$3, IF(K15&lt;H16,$A$4, IF(K15&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -7352,7 +7301,7 @@
       </c>
       <c r="K16" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>31.75096179464585</v>
+        <v>71.754273508158818</v>
       </c>
       <c r="L16" s="57" t="str">
         <f ca="1">IF(K16&lt;=C16, IF(K16&lt;H14,$A$2,IF(K16&lt;H15,$A$3, IF(K16&lt;H16,$A$4, IF(K16&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -7393,11 +7342,11 @@
       </c>
       <c r="K17" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1474308038464294</v>
+        <v>70.743470366639315</v>
       </c>
       <c r="L17" s="57" t="str">
         <f ca="1">IF(K17&lt;=C17, IF(K17&lt;H14,$A$2,IF(K17&lt;H15,$A$3, IF(K17&lt;H16,$A$4, IF(K17&lt;H17,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -7436,7 +7385,7 @@
       <c r="J18" s="57"/>
       <c r="K18" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>51.955843125638438</v>
+        <v>38.872549778224339</v>
       </c>
       <c r="L18" s="57" t="str">
         <f ca="1">IF(K18&lt;=C18, IF(K18&lt;H18,$A$2,IF(K18&lt;H19,$A$3, IF(K18&lt;H20,$A$4, IF(K18&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -7487,11 +7436,11 @@
       <c r="J19" s="57"/>
       <c r="K19" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9423030545782787</v>
+        <v>81.308817359768454</v>
       </c>
       <c r="L19" s="57" t="str">
         <f ca="1">IF(K19&lt;=C19, IF(K19&lt;H18,$A$2,IF(K19&lt;H19,$A$3, IF(K19&lt;H20,$A$4, IF(K19&lt;H21,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="57"/>
@@ -7538,7 +7487,7 @@
       <c r="J20" s="57"/>
       <c r="K20" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>41.913953678066918</v>
+        <v>30.323072115809889</v>
       </c>
       <c r="L20" s="57" t="str">
         <f ca="1">IF(K20&lt;=C20, IF(K20&lt;H18,$A$2,IF(K20&lt;H19,$A$3, IF(K20&lt;H20,$A$4, IF(K20&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -7589,7 +7538,7 @@
       <c r="J21" s="57"/>
       <c r="K21" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>71.143427476819909</v>
+        <v>91.246924605969681</v>
       </c>
       <c r="L21" s="57" t="str">
         <f ca="1">IF(K21&lt;=C21, IF(K21&lt;H18,$A$2,IF(K21&lt;H19,$A$3, IF(K21&lt;H20,$A$4, IF(K21&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -7638,7 +7587,7 @@
       </c>
       <c r="K22" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>93.827264185927788</v>
+        <v>64.80661148505267</v>
       </c>
       <c r="L22" s="57" t="str">
         <f ca="1">IF(K22&lt;=C22, IF(K22&lt;H22,$A$2,IF(K22&lt;H23,$A$3, IF(K22&lt;H24,$A$4, IF(K22&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7679,7 +7628,7 @@
       </c>
       <c r="K23" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>80.414363551557884</v>
+        <v>43.426507116641901</v>
       </c>
       <c r="L23" s="57" t="str">
         <f ca="1">IF(K23&lt;=C23, IF(K23&lt;H22,$A$2,IF(K23&lt;H23,$A$3, IF(K23&lt;H24,$A$4, IF(K23&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7720,7 +7669,7 @@
       </c>
       <c r="K24" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>48.456790747359271</v>
+        <v>70.090676100752276</v>
       </c>
       <c r="L24" s="57" t="str">
         <f ca="1">IF(K24&lt;=C24, IF(K24&lt;H22,$A$2,IF(K24&lt;H23,$A$3, IF(K24&lt;H24,$A$4, IF(K24&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7761,7 +7710,7 @@
       </c>
       <c r="K25" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>72.435995361917648</v>
+        <v>29.718435307948752</v>
       </c>
       <c r="L25" s="57" t="str">
         <f ca="1">IF(K25&lt;=C25, IF(K25&lt;H22,$A$2,IF(K25&lt;H23,$A$3, IF(K25&lt;H24,$A$4, IF(K25&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7804,7 +7753,7 @@
       <c r="J26" s="57"/>
       <c r="K26" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>78.956433977076728</v>
+        <v>20.968276468607584</v>
       </c>
       <c r="L26" s="57" t="str">
         <f ca="1">IF(K26&lt;=C26, IF(K26&lt;H26,$A$2,IF(K26&lt;H27,$A$3, IF(K26&lt;H28,$A$4, IF(K26&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -7855,7 +7804,7 @@
       <c r="J27" s="57"/>
       <c r="K27" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8050375064611863</v>
+        <v>5.7834478898587616</v>
       </c>
       <c r="L27" s="57" t="str">
         <f ca="1">IF(K27&lt;=C27, IF(K27&lt;H26,$A$2,IF(K27&lt;H27,$A$3, IF(K27&lt;H28,$A$4, IF(K27&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -7906,7 +7855,7 @@
       <c r="J28" s="57"/>
       <c r="K28" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>60.082740269342494</v>
+        <v>24.139328023826799</v>
       </c>
       <c r="L28" s="57" t="str">
         <f ca="1">IF(K28&lt;=C28, IF(K28&lt;H26,$A$2,IF(K28&lt;H27,$A$3, IF(K28&lt;H28,$A$4, IF(K28&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -7957,7 +7906,7 @@
       <c r="J29" s="57"/>
       <c r="K29" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>28.22307038888766</v>
+        <v>48.492086000916231</v>
       </c>
       <c r="L29" s="57" t="str">
         <f ca="1">IF(K29&lt;=C29, IF(K29&lt;H26,$A$2,IF(K29&lt;H27,$A$3, IF(K29&lt;H28,$A$4, IF(K29&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -8006,7 +7955,7 @@
       </c>
       <c r="K30" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>86.03409631431019</v>
+        <v>92.219008758623062</v>
       </c>
       <c r="L30" s="57" t="str">
         <f ca="1">IF(K30&lt;=C30, IF(K30&lt;H30,$A$2,IF(K30&lt;H31,$A$3, IF(K30&lt;H32,$A$4, IF(K30&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -8047,7 +7996,7 @@
       </c>
       <c r="K31" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>76.47890535906366</v>
+        <v>38.886563751032476</v>
       </c>
       <c r="L31" s="57" t="str">
         <f ca="1">IF(K31&lt;=C31, IF(K31&lt;H30,$A$2,IF(K31&lt;H31,$A$3, IF(K31&lt;H32,$A$4, IF(K31&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -8088,11 +8037,11 @@
       </c>
       <c r="K32" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1007904649358906</v>
+        <v>20.991973983956068</v>
       </c>
       <c r="L32" s="57" t="str">
         <f ca="1">IF(K32&lt;=C32, IF(K32&lt;H30,$A$2,IF(K32&lt;H31,$A$3, IF(K32&lt;H32,$A$4, IF(K32&lt;H33,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -8129,7 +8078,7 @@
       </c>
       <c r="K33" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>89.136096138838724</v>
+        <v>79.91814958989481</v>
       </c>
       <c r="L33" s="57" t="str">
         <f ca="1">IF(K33&lt;=C33, IF(K33&lt;H30,$A$2,IF(K33&lt;H31,$A$3, IF(K33&lt;H32,$A$4, IF(K33&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -8172,7 +8121,7 @@
       <c r="J34" s="57"/>
       <c r="K34" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>50.595911752907483</v>
+        <v>82.703556829610875</v>
       </c>
       <c r="L34" s="57" t="str">
         <f ca="1">IF(K34&lt;=C34, IF(K34&lt;H34,$A$2,IF(K34&lt;H35,$A$3, IF(K34&lt;H36,$A$4, IF(K34&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -8223,7 +8172,7 @@
       <c r="J35" s="57"/>
       <c r="K35" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>19.878248501545627</v>
+        <v>38.556461401103157</v>
       </c>
       <c r="L35" s="57" t="str">
         <f ca="1">IF(K35&lt;=C35, IF(K35&lt;H34,$A$2,IF(K35&lt;H35,$A$3, IF(K35&lt;H36,$A$4, IF(K35&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -8274,11 +8223,11 @@
       <c r="J36" s="57"/>
       <c r="K36" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>67.038340280033609</v>
+        <v>3.2958917240260011</v>
       </c>
       <c r="L36" s="57" t="str">
         <f ca="1">IF(K36&lt;=C36, IF(K36&lt;H34,$A$2,IF(K36&lt;H35,$A$3, IF(K36&lt;H36,$A$4, IF(K36&lt;H37,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
@@ -8325,7 +8274,7 @@
       <c r="J37" s="57"/>
       <c r="K37" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>97.906101652739849</v>
+        <v>65.337251964664503</v>
       </c>
       <c r="L37" s="57" t="str">
         <f ca="1">IF(K37&lt;=C37, IF(K37&lt;H34,$A$2,IF(K37&lt;H35,$A$3, IF(K37&lt;H36,$A$4, IF(K37&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -8374,11 +8323,11 @@
       </c>
       <c r="K38" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>16.279527214460654</v>
+        <v>77.183058332104366</v>
       </c>
       <c r="L38" s="57" t="str">
         <f ca="1">IF(K38&lt;=C38, IF(K38&lt;H38,$A$2,IF(K38&lt;H39,$A$3, IF(K38&lt;H40,$A$4, IF(K38&lt;H41,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -8415,11 +8364,11 @@
       </c>
       <c r="K39" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>98.821354272389314</v>
+        <v>2.5671741770952217</v>
       </c>
       <c r="L39" s="57" t="str">
         <f ca="1">IF(K39&lt;=C39, IF(K39&lt;H38,$A$2,IF(K39&lt;H39,$A$3, IF(K39&lt;H40,$A$4, IF(K39&lt;H41,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -8456,7 +8405,7 @@
       </c>
       <c r="K40" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>93.159873145700431</v>
+        <v>90.032962257352452</v>
       </c>
       <c r="L40" s="57" t="str">
         <f ca="1">IF(K40&lt;=C40, IF(K40&lt;H38,$A$2,IF(K40&lt;H39,$A$3, IF(K40&lt;H40,$A$4, IF(K40&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -8497,7 +8446,7 @@
       </c>
       <c r="K41" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>58.75534126556402</v>
+        <v>88.822534146551874</v>
       </c>
       <c r="L41" s="57" t="str">
         <f ca="1">IF(K41&lt;=C41, IF(K41&lt;H38,$A$2,IF(K41&lt;H39,$A$3, IF(K41&lt;H40,$A$4, IF(K41&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -8540,7 +8489,7 @@
       <c r="J42" s="57"/>
       <c r="K42" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>41.422350277063522</v>
+        <v>42.300581671091699</v>
       </c>
       <c r="L42" s="57" t="str">
         <f ca="1">IF(K42&lt;=C42, IF(K42&lt;H42,$A$2,IF(K42&lt;H43,$A$3, IF(K42&lt;H44,$A$4, IF(K42&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -8591,7 +8540,7 @@
       <c r="J43" s="57"/>
       <c r="K43" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>65.228595203319756</v>
+        <v>52.482379688702906</v>
       </c>
       <c r="L43" s="57" t="str">
         <f ca="1">IF(K43&lt;=C43, IF(K43&lt;H42,$A$2,IF(K43&lt;H43,$A$3, IF(K43&lt;H44,$A$4, IF(K43&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -8642,7 +8591,7 @@
       <c r="J44" s="57"/>
       <c r="K44" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>78.502667212885257</v>
+        <v>39.572896864469044</v>
       </c>
       <c r="L44" s="57" t="str">
         <f ca="1">IF(K44&lt;=C44, IF(K44&lt;H42,$A$2,IF(K44&lt;H43,$A$3, IF(K44&lt;H44,$A$4, IF(K44&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -8693,11 +8642,11 @@
       <c r="J45" s="57"/>
       <c r="K45" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>48.751119736986162</v>
+        <v>14.177440051887647</v>
       </c>
       <c r="L45" s="57" t="str">
         <f ca="1">IF(K45&lt;=C45, IF(K45&lt;H42,$A$2,IF(K45&lt;H43,$A$3, IF(K45&lt;H44,$A$4, IF(K45&lt;H45,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M45" s="57"/>
       <c r="N45" s="57"/>
@@ -8742,7 +8691,7 @@
       </c>
       <c r="K46" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>81.68858631838809</v>
+        <v>77.59684119663099</v>
       </c>
       <c r="L46" s="57" t="str">
         <f ca="1">IF(K46&lt;=C46, IF(K46&lt;H46,$A$2,IF(K46&lt;H47,$A$3, IF(K46&lt;H48,$A$4, IF(K46&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -8783,7 +8732,7 @@
       </c>
       <c r="K47" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>24.936317246893836</v>
+        <v>65.346810648663094</v>
       </c>
       <c r="L47" s="57" t="str">
         <f ca="1">IF(K47&lt;=C47, IF(K47&lt;H46,$A$2,IF(K47&lt;H47,$A$3, IF(K47&lt;H48,$A$4, IF(K47&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -8824,7 +8773,7 @@
       </c>
       <c r="K48" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>90.68305257257154</v>
+        <v>43.995031842903146</v>
       </c>
       <c r="L48" s="57" t="str">
         <f ca="1">IF(K48&lt;=C48, IF(K48&lt;H46,$A$2,IF(K48&lt;H47,$A$3, IF(K48&lt;H48,$A$4, IF(K48&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -8865,11 +8814,11 @@
       </c>
       <c r="K49" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>80.419319315900921</v>
+        <v>14.381147534120364</v>
       </c>
       <c r="L49" s="57" t="str">
         <f ca="1">IF(K49&lt;=C49, IF(K49&lt;H46,$A$2,IF(K49&lt;H47,$A$3, IF(K49&lt;H48,$A$4, IF(K49&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -8908,7 +8857,7 @@
       <c r="J50" s="57"/>
       <c r="K50" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>49.106454645643268</v>
+        <v>98.298958423968728</v>
       </c>
       <c r="L50" s="57" t="str">
         <f ca="1">IF(K50&lt;=C50, IF(K50&lt;H50,$A$2,IF(K50&lt;H51,$A$3, IF(K50&lt;H52,$A$4, IF(K50&lt;H53,$A$5, "NONE")))), "NONE")</f>
@@ -8959,11 +8908,11 @@
       <c r="J51" s="57"/>
       <c r="K51" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5962442130746379</v>
+        <v>83.889473470284699</v>
       </c>
       <c r="L51" s="57" t="str">
         <f ca="1">IF(K51&lt;=C51, IF(K51&lt;H50,$A$2,IF(K51&lt;H51,$A$3, IF(K51&lt;H52,$A$4, IF(K51&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M51" s="57"/>
       <c r="N51" s="57"/>
@@ -9010,7 +8959,7 @@
       <c r="J52" s="57"/>
       <c r="K52" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42.902908034702691</v>
+        <v>92.192012769990853</v>
       </c>
       <c r="L52" s="57" t="str">
         <f ca="1">IF(K52&lt;=C52, IF(K52&lt;H50,$A$2,IF(K52&lt;H51,$A$3, IF(K52&lt;H52,$A$4, IF(K52&lt;H53,$A$5, "NONE")))), "NONE")</f>
@@ -9061,11 +9010,11 @@
       <c r="J53" s="57"/>
       <c r="K53" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>13.204076659853104</v>
+        <v>62.006601587308275</v>
       </c>
       <c r="L53" s="57" t="str">
         <f ca="1">IF(K53&lt;=C53, IF(K53&lt;H50,$A$2,IF(K53&lt;H51,$A$3, IF(K53&lt;H52,$A$4, IF(K53&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M53" s="57"/>
       <c r="N53" s="57"/>
@@ -9110,7 +9059,7 @@
       </c>
       <c r="K54" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>90.676644614504355</v>
+        <v>66.109241819927391</v>
       </c>
       <c r="L54" s="57" t="str">
         <f ca="1">IF(K54&lt;=C54, IF(K54&lt;H54,$A$2,IF(K54&lt;H55,$A$3, IF(K54&lt;H56,$A$4, IF(K54&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -9151,11 +9100,11 @@
       </c>
       <c r="K55" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8941852385960534</v>
+        <v>92.219499285570237</v>
       </c>
       <c r="L55" s="57" t="str">
         <f ca="1">IF(K55&lt;=C55, IF(K55&lt;H54,$A$2,IF(K55&lt;H55,$A$3, IF(K55&lt;H56,$A$4, IF(K55&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -9192,7 +9141,7 @@
       </c>
       <c r="K56" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>28.394175787152221</v>
+        <v>66.439863070893693</v>
       </c>
       <c r="L56" s="57" t="str">
         <f ca="1">IF(K56&lt;=C56, IF(K56&lt;H54,$A$2,IF(K56&lt;H55,$A$3, IF(K56&lt;H56,$A$4, IF(K56&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -9233,11 +9182,11 @@
       </c>
       <c r="K57" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>11.799051991309462</v>
+        <v>84.173616550683121</v>
       </c>
       <c r="L57" s="57" t="str">
         <f ca="1">IF(K57&lt;=C57, IF(K57&lt;H54,$A$2,IF(K57&lt;H55,$A$3, IF(K57&lt;H56,$A$4, IF(K57&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -9276,7 +9225,7 @@
       <c r="J58" s="57"/>
       <c r="K58" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>77.22007459415417</v>
+        <v>65.192487027023233</v>
       </c>
       <c r="L58" s="57" t="str">
         <f ca="1">IF(K58&lt;=C58, IF(K58&lt;H58,$A$2,IF(K58&lt;H59,$A$3, IF(K58&lt;H60,$A$4, IF(K58&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -9327,7 +9276,7 @@
       <c r="J59" s="57"/>
       <c r="K59" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>74.912439673375445</v>
+        <v>82.475532437632111</v>
       </c>
       <c r="L59" s="57" t="str">
         <f ca="1">IF(K59&lt;=C59, IF(K59&lt;H58,$A$2,IF(K59&lt;H59,$A$3, IF(K59&lt;H60,$A$4, IF(K59&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -9378,7 +9327,7 @@
       <c r="J60" s="57"/>
       <c r="K60" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>71.430300842516516</v>
+        <v>98.812513493284385</v>
       </c>
       <c r="L60" s="57" t="str">
         <f ca="1">IF(K60&lt;=C60, IF(K60&lt;H58,$A$2,IF(K60&lt;H59,$A$3, IF(K60&lt;H60,$A$4, IF(K60&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -9429,7 +9378,7 @@
       <c r="J61" s="57"/>
       <c r="K61" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>70.686486323508191</v>
+        <v>81.239877058498635</v>
       </c>
       <c r="L61" s="57" t="str">
         <f ca="1">IF(K61&lt;=C61, IF(K61&lt;H58,$A$2,IF(K61&lt;H59,$A$3, IF(K61&lt;H60,$A$4, IF(K61&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -9478,7 +9427,7 @@
       </c>
       <c r="K62" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>98.736129185611404</v>
+        <v>88.720870554523287</v>
       </c>
       <c r="L62" s="57" t="str">
         <f ca="1">IF(K62&lt;=C62, IF(K62&lt;H62,$A$2,IF(K62&lt;H63,$A$3, IF(K62&lt;H64,$A$4, IF(K62&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -9519,7 +9468,7 @@
       </c>
       <c r="K63" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>74.740436415698113</v>
+        <v>72.991544807467193</v>
       </c>
       <c r="L63" s="57" t="str">
         <f ca="1">IF(K63&lt;=C63, IF(K63&lt;H62,$A$2,IF(K63&lt;H63,$A$3, IF(K63&lt;H64,$A$4, IF(K63&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -9560,11 +9509,11 @@
       </c>
       <c r="K64" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4427891974466034</v>
+        <v>90.08265733298515</v>
       </c>
       <c r="L64" s="57" t="str">
         <f ca="1">IF(K64&lt;=C64, IF(K64&lt;H62,$A$2,IF(K64&lt;H63,$A$3, IF(K64&lt;H64,$A$4, IF(K64&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -9601,7 +9550,7 @@
       </c>
       <c r="K65" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>94.257673456681985</v>
+        <v>82.598388558734285</v>
       </c>
       <c r="L65" s="57" t="str">
         <f ca="1">IF(K65&lt;=C65, IF(K65&lt;H62,$A$2,IF(K65&lt;H63,$A$3, IF(K65&lt;H64,$A$4, IF(K65&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -9644,7 +9593,7 @@
       <c r="J66" s="57"/>
       <c r="K66" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>58.344351988736342</v>
+        <v>65.374534054135523</v>
       </c>
       <c r="L66" s="57" t="str">
         <f ca="1">IF(K66&lt;=C66, IF(K66&lt;H66,$A$2,IF(K66&lt;H67,$A$3, IF(K66&lt;H68,$A$4, IF(K66&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -9695,11 +9644,11 @@
       <c r="J67" s="57"/>
       <c r="K67" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>58.23399556844894</v>
+        <v>29.336485014886815</v>
       </c>
       <c r="L67" s="57" t="str">
         <f ca="1">IF(K67&lt;=C67, IF(K67&lt;H66,$A$2,IF(K67&lt;H67,$A$3, IF(K67&lt;H68,$A$4, IF(K67&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
       <c r="M67" s="57"/>
       <c r="N67" s="57"/>
@@ -9746,11 +9695,11 @@
       <c r="J68" s="57"/>
       <c r="K68" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>37.04919455479839</v>
+        <v>6.616454908876479</v>
       </c>
       <c r="L68" s="57" t="str">
         <f ca="1">IF(K68&lt;=C68, IF(K68&lt;H66,$A$2,IF(K68&lt;H67,$A$3, IF(K68&lt;H68,$A$4, IF(K68&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M68" s="57"/>
       <c r="N68" s="57"/>
@@ -9797,7 +9746,7 @@
       <c r="J69" s="57"/>
       <c r="K69" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>38.582191796131596</v>
+        <v>61.163393356610918</v>
       </c>
       <c r="L69" s="57" t="str">
         <f ca="1">IF(K69&lt;=C69, IF(K69&lt;H66,$A$2,IF(K69&lt;H67,$A$3, IF(K69&lt;H68,$A$4, IF(K69&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -9847,7 +9796,7 @@
       </c>
       <c r="K70" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>61.770402653153496</v>
+        <v>94.824885646684237</v>
       </c>
       <c r="L70" s="57" t="str">
         <f ca="1">IF(K70&lt;=C70, IF(K70&lt;H70,$A$2,IF(K70&lt;H71,$A$3, IF(K70&lt;H72,$A$4, IF(K70&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -9889,7 +9838,7 @@
       </c>
       <c r="K71" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>22.278998477260913</v>
+        <v>21.869049151348964</v>
       </c>
       <c r="L71" s="57" t="str">
         <f ca="1">IF(K71&lt;=C71, IF(K71&lt;H70,$A$2,IF(K71&lt;H71,$A$3, IF(K71&lt;H72,$A$4, IF(K71&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -9931,11 +9880,11 @@
       </c>
       <c r="K72" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81783909333309479</v>
+        <v>43.943824487470941</v>
       </c>
       <c r="L72" s="57" t="str">
         <f ca="1">IF(K72&lt;=C72, IF(K72&lt;H70,$A$2,IF(K72&lt;H71,$A$3, IF(K72&lt;H72,$A$4, IF(K72&lt;H73,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RELIC</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -9973,7 +9922,7 @@
       </c>
       <c r="K73" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>82.612893028857471</v>
+        <v>35.288735223440867</v>
       </c>
       <c r="L73" s="57" t="str">
         <f ca="1">IF(K73&lt;=C73, IF(K73&lt;H70,$A$2,IF(K73&lt;H71,$A$3, IF(K73&lt;H72,$A$4, IF(K73&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -10017,7 +9966,7 @@
       <c r="J74" s="57"/>
       <c r="K74" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>84.199927960763304</v>
+        <v>97.651282713603138</v>
       </c>
       <c r="L74" s="57" t="str">
         <f ca="1">IF(K74&lt;=C74, IF(K74&lt;H74,$A$2,IF(K74&lt;H75,$A$3, IF(K74&lt;H76,$A$4, IF(K74&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -10069,7 +10018,7 @@
       <c r="J75" s="57"/>
       <c r="K75" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>53.292765689208608</v>
+        <v>63.86432985401661</v>
       </c>
       <c r="L75" s="57" t="str">
         <f ca="1">IF(K75&lt;=C75, IF(K75&lt;H74,$A$2,IF(K75&lt;H75,$A$3, IF(K75&lt;H76,$A$4, IF(K75&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -10121,7 +10070,7 @@
       <c r="J76" s="57"/>
       <c r="K76" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>95.632211197528378</v>
+        <v>32.254928920597024</v>
       </c>
       <c r="L76" s="57" t="str">
         <f ca="1">IF(K76&lt;=C76, IF(K76&lt;H74,$A$2,IF(K76&lt;H75,$A$3, IF(K76&lt;H76,$A$4, IF(K76&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -10173,11 +10122,11 @@
       <c r="J77" s="57"/>
       <c r="K77" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>12.124879339608208</v>
+        <v>40.619968839608944</v>
       </c>
       <c r="L77" s="57" t="str">
         <f ca="1">IF(K77&lt;=C77, IF(K77&lt;H74,$A$2,IF(K77&lt;H75,$A$3, IF(K77&lt;H76,$A$4, IF(K77&lt;H77,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M77" s="57"/>
       <c r="N77" s="57"/>
@@ -10223,7 +10172,7 @@
       </c>
       <c r="K78" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>74.560824413462797</v>
+        <v>43.306622962422779</v>
       </c>
       <c r="L78" s="57" t="str">
         <f ca="1">IF(K78&lt;=C78, IF(K78&lt;H78,$A$2,IF(K78&lt;H79,$A$3, IF(K78&lt;H80,$A$4, IF(K78&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -10265,11 +10214,11 @@
       </c>
       <c r="K79" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3532691422818486</v>
+        <v>59.468686913785383</v>
       </c>
       <c r="L79" s="57" t="str">
         <f ca="1">IF(K79&lt;=C79, IF(K79&lt;H78,$A$2,IF(K79&lt;H79,$A$3, IF(K79&lt;H80,$A$4, IF(K79&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -10307,7 +10256,7 @@
       </c>
       <c r="K80" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>48.821652021886472</v>
+        <v>98.206785016261335</v>
       </c>
       <c r="L80" s="57" t="str">
         <f ca="1">IF(K80&lt;=C80, IF(K80&lt;H78,$A$2,IF(K80&lt;H79,$A$3, IF(K80&lt;H80,$A$4, IF(K80&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -10349,7 +10298,7 @@
       </c>
       <c r="K81" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>31.856306528667655</v>
+        <v>52.184925644024673</v>
       </c>
       <c r="L81" s="57" t="str">
         <f ca="1">IF(K81&lt;=C81, IF(K81&lt;H78,$A$2,IF(K81&lt;H79,$A$3, IF(K81&lt;H80,$A$4, IF(K81&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -10393,11 +10342,11 @@
       <c r="J82" s="57"/>
       <c r="K82" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>28.06907391875394</v>
+        <v>79.105893673400445</v>
       </c>
       <c r="L82" s="57" t="str">
         <f ca="1">IF(K82&lt;=C82, IF(K82&lt;H82,$A$2,IF(K82&lt;H83,$A$3, IF(K82&lt;H84,$A$4, IF(K82&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M82" s="57"/>
       <c r="N82" s="57"/>
@@ -10445,7 +10394,7 @@
       <c r="J83" s="57"/>
       <c r="K83" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>40.752562583019561</v>
+        <v>33.976301420815957</v>
       </c>
       <c r="L83" s="57" t="str">
         <f ca="1">IF(K83&lt;=C83, IF(K83&lt;H82,$A$2,IF(K83&lt;H83,$A$3, IF(K83&lt;H84,$A$4, IF(K83&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -10497,11 +10446,11 @@
       <c r="J84" s="57"/>
       <c r="K84" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>24.099795267512171</v>
+        <v>66.142692434160992</v>
       </c>
       <c r="L84" s="57" t="str">
         <f ca="1">IF(K84&lt;=C84, IF(K84&lt;H82,$A$2,IF(K84&lt;H83,$A$3, IF(K84&lt;H84,$A$4, IF(K84&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M84" s="57"/>
       <c r="N84" s="57"/>
@@ -10549,7 +10498,7 @@
       <c r="J85" s="57"/>
       <c r="K85" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>55.44494363579453</v>
+        <v>50.107260374997843</v>
       </c>
       <c r="L85" s="57" t="str">
         <f ca="1">IF(K85&lt;=C85, IF(K85&lt;H82,$A$2,IF(K85&lt;H83,$A$3, IF(K85&lt;H84,$A$4, IF(K85&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -10599,7 +10548,7 @@
       </c>
       <c r="K86" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>63.851562801085834</v>
+        <v>70.218358308673729</v>
       </c>
       <c r="L86" s="57" t="str">
         <f ca="1">IF(K86&lt;=C86, IF(K86&lt;H86,$A$2,IF(K86&lt;H87,$A$3, IF(K86&lt;H88,$A$4, IF(K86&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -10641,7 +10590,7 @@
       </c>
       <c r="K87" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>51.922158984732313</v>
+        <v>40.663301141822359</v>
       </c>
       <c r="L87" s="57" t="str">
         <f ca="1">IF(K87&lt;=C87, IF(K87&lt;H86,$A$2,IF(K87&lt;H87,$A$3, IF(K87&lt;H88,$A$4, IF(K87&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -10683,7 +10632,7 @@
       </c>
       <c r="K88" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>70.04001370640961</v>
+        <v>67.751649355678296</v>
       </c>
       <c r="L88" s="57" t="str">
         <f ca="1">IF(K88&lt;=C88, IF(K88&lt;H86,$A$2,IF(K88&lt;H87,$A$3, IF(K88&lt;H88,$A$4, IF(K88&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -10725,11 +10674,11 @@
       </c>
       <c r="K89" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>46.752865065231774</v>
+        <v>25.110958779561756</v>
       </c>
       <c r="L89" s="57" t="str">
         <f ca="1">IF(K89&lt;=C89, IF(K89&lt;H86,$A$2,IF(K89&lt;H87,$A$3, IF(K89&lt;H88,$A$4, IF(K89&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -10769,11 +10718,11 @@
       <c r="J90" s="57"/>
       <c r="K90" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9574875028202481</v>
+        <v>12.853587187496696</v>
       </c>
       <c r="L90" s="57" t="str">
         <f ca="1">IF(K90&lt;=C90, IF(K90&lt;H90,$A$2,IF(K90&lt;H91,$A$3, IF(K90&lt;H92,$A$4, IF(K90&lt;H93,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M90" s="57"/>
       <c r="N90" s="57"/>
@@ -10821,11 +10770,11 @@
       <c r="J91" s="57"/>
       <c r="K91" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1794158996103619</v>
+        <v>31.274730192845201</v>
       </c>
       <c r="L91" s="57" t="str">
         <f ca="1">IF(K91&lt;=C91, IF(K91&lt;H90,$A$2,IF(K91&lt;H91,$A$3, IF(K91&lt;H92,$A$4, IF(K91&lt;H93,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M91" s="57"/>
       <c r="N91" s="57"/>
@@ -10873,7 +10822,7 @@
       <c r="J92" s="57"/>
       <c r="K92" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>91.357413442830222</v>
+        <v>58.96674642679811</v>
       </c>
       <c r="L92" s="57" t="str">
         <f ca="1">IF(K92&lt;=C92, IF(K92&lt;H90,$A$2,IF(K92&lt;H91,$A$3, IF(K92&lt;H92,$A$4, IF(K92&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -10925,7 +10874,7 @@
       <c r="J93" s="57"/>
       <c r="K93" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>80.569747406399671</v>
+        <v>82.75992406341183</v>
       </c>
       <c r="L93" s="57" t="str">
         <f ca="1">IF(K93&lt;=C93, IF(K93&lt;H90,$A$2,IF(K93&lt;H91,$A$3, IF(K93&lt;H92,$A$4, IF(K93&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -10975,11 +10924,11 @@
       </c>
       <c r="K94" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>33.438802771005683</v>
+        <v>7.5509226624160375</v>
       </c>
       <c r="L94" s="57" t="str">
         <f ca="1">IF(K94&lt;=C94, IF(K94&lt;H94,$A$2,IF(K94&lt;H95,$A$3, IF(K94&lt;H96,$A$4, IF(K94&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -11017,7 +10966,7 @@
       </c>
       <c r="K95" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>63.774502268269963</v>
+        <v>66.674437533728266</v>
       </c>
       <c r="L95" s="57" t="str">
         <f ca="1">IF(K95&lt;=C95, IF(K95&lt;H94,$A$2,IF(K95&lt;H95,$A$3, IF(K95&lt;H96,$A$4, IF(K95&lt;H97,$A$5, "NONE")))), "NONE")</f>
@@ -11059,7 +11008,7 @@
       </c>
       <c r="K96" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>71.669158529881088</v>
+        <v>70.128443314642951</v>
       </c>
       <c r="L96" s="57" t="str">
         <f ca="1">IF(K96&lt;=C96, IF(K96&lt;H94,$A$2,IF(K96&lt;H95,$A$3, IF(K96&lt;H96,$A$4, IF(K96&lt;H97,$A$5, "NONE")))), "NONE")</f>
@@ -11101,7 +11050,7 @@
       </c>
       <c r="K97" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>80.858551753042505</v>
+        <v>45.086493165202825</v>
       </c>
       <c r="L97" s="57" t="str">
         <f ca="1">IF(K97&lt;=C97, IF(K97&lt;H94,$A$2,IF(K97&lt;H95,$A$3, IF(K97&lt;H96,$A$4, IF(K97&lt;H97,$A$5, "NONE")))), "NONE")</f>
@@ -13177,7 +13126,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -13190,52 +13139,46 @@
     <col min="8" max="16384" width="14.42578125" style="60"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="27"/>
       <c r="C2" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="24" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="27"/>
       <c r="C5" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="27"/>
       <c r="C8" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>51</v>
       </c>
@@ -13246,19 +13189,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="29"/>
       <c r="C12" s="35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="29"/>
       <c r="C13" s="36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
         <v>195</v>
       </c>
@@ -13269,31 +13212,28 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C17" s="24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C18" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="29"/>
       <c r="C19" s="36" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>211</v>
       </c>
@@ -13302,13 +13242,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="29"/>
       <c r="C22" s="36" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
         <v>220</v>
       </c>
@@ -13319,7 +13259,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>224</v>
       </c>
@@ -13328,26 +13268,25 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
       <c r="B26" s="29"/>
       <c r="C26" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
       <c r="B27" s="29"/>
       <c r="C27" s="36" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="24"/>
-    </row>
-    <row r="29" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>230</v>
       </c>
@@ -13358,7 +13297,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>234</v>
       </c>
@@ -13367,19 +13306,18 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C31" s="24" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" s="29"/>
       <c r="C32" s="38" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>252</v>
       </c>
@@ -13390,7 +13328,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
         <v>257</v>
       </c>
@@ -13399,25 +13337,24 @@
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C36" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
       <c r="C37" s="35" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="29"/>
       <c r="C38" s="36" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>163</v>
       </c>
@@ -13428,43 +13365,41 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="27"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C44" s="24" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="27"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C45" s="24" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" s="29"/>
       <c r="C46" s="35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" s="29"/>
       <c r="C47" s="35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" s="29"/>
       <c r="C48" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="29"/>
       <c r="C49" s="38" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>293</v>
       </c>
@@ -13475,55 +13410,52 @@
         <v>614</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="27"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C52" s="24" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="27"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="24" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="27"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" s="24" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="29"/>
       <c r="C55" s="35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="29"/>
       <c r="C56" s="35" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="29"/>
       <c r="C57" s="35" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="29"/>
       <c r="C58" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="29"/>
       <c r="C59" s="38" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>305</v>
       </c>
@@ -13534,43 +13466,40 @@
         <v>609</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="27"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C62" s="24" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="27"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C63" s="24" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="27"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C64" s="24" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="29"/>
       <c r="C65" s="35" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="29"/>
       <c r="C66" s="35" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="29"/>
       <c r="C67" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="2:3" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="29"/>
       <c r="C68" s="38" t="s">
         <v>320</v>

--- a/dev/Items.xlsx
+++ b/dev/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Glyph" sheetId="13" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="710">
   <si>
     <t>概率</t>
   </si>
@@ -143,9 +143,6 @@
     <t>唯一方式</t>
   </si>
   <si>
-    <t>使你的辛多雷之盾能提供20%额外的伤害减免，并且在开启时可以强迫附近所有敌人攻击你。</t>
-  </si>
-  <si>
     <t>杰出血精灵卫士的荣耀象征。</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>祈福</t>
   </si>
   <si>
-    <t>医疗术使目标受到治疗增幅的效果翻倍，并且移除护盾术造成的虚弱效果。</t>
-  </si>
-  <si>
     <t>在光的背后，是阴影。</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>Ithu</t>
   </si>
   <si>
-    <t>使你的风暴打击一定能冷却大地震击。</t>
-  </si>
-  <si>
     <t>采自雷霆山，这颗雷电花芯似乎拥有真正的雷电能量。</t>
   </si>
   <si>
@@ -1403,9 +1394,6 @@
     <t>+100法力上限</t>
   </si>
   <si>
-    <t>+22法术强度</t>
-  </si>
-  <si>
     <t>+10敏捷</t>
   </si>
   <si>
@@ -1764,6 +1752,405 @@
   </si>
   <si>
     <t>+45攻击强度</t>
+  </si>
+  <si>
+    <t>使你的辛多雷之盾能提供7%额外的伤害减免，并且在开启时可以强迫附近所有敌人攻击你。</t>
+  </si>
+  <si>
+    <t>使你的辛多雷之盾能提供14%额外的伤害减免，并且在开启时可以强迫附近所有敌人攻击你。</t>
+  </si>
+  <si>
+    <t>使你的辛多雷之盾能提供21%额外的伤害减免，并且在开启时可以强迫附近所有敌人攻击你。</t>
+  </si>
+  <si>
+    <t>使你的辛多雷之盾能提供28%额外的伤害减免，并且在开启时可以强迫附近所有敌人攻击你。</t>
+  </si>
+  <si>
+    <t>使你的辛多雷之盾能提供35%额外的伤害减免，并且在开启时可以强迫附近所有敌人攻击你。</t>
+  </si>
+  <si>
+    <t>+2力量</t>
+  </si>
+  <si>
+    <t>+4力量</t>
+  </si>
+  <si>
+    <t>+6力量</t>
+  </si>
+  <si>
+    <t>+8力量</t>
+  </si>
+  <si>
+    <t>+5法术强度</t>
+  </si>
+  <si>
+    <t>+2敏捷</t>
+  </si>
+  <si>
+    <t>+4敏捷</t>
+  </si>
+  <si>
+    <t>+6敏捷</t>
+  </si>
+  <si>
+    <t>+8敏捷</t>
+  </si>
+  <si>
+    <t>+1物理免伤</t>
+  </si>
+  <si>
+    <t>+2物理免伤</t>
+  </si>
+  <si>
+    <t>+30生命上限</t>
+  </si>
+  <si>
+    <t>+60生命上限</t>
+  </si>
+  <si>
+    <t>+90生命上限</t>
+  </si>
+  <si>
+    <t>+120生命上限</t>
+  </si>
+  <si>
+    <t>使你的生存本能可以提供3%额外的生命值和生命上限。</t>
+  </si>
+  <si>
+    <t>使你的生存本能可以提供6%额外的生命值和生命上限。</t>
+  </si>
+  <si>
+    <t>使你的生存本能可以提供9%额外的生命值和生命上限。</t>
+  </si>
+  <si>
+    <t>使你的生存本能可以提供12%额外的生命值和生命上限。</t>
+  </si>
+  <si>
+    <t>使用：立即冷却生存本能。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>使你的神圣震击一定能造成极效治疗。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>+2智力</t>
+  </si>
+  <si>
+    <t>+4智力</t>
+  </si>
+  <si>
+    <t>+6智力</t>
+  </si>
+  <si>
+    <t>+4法术强度</t>
+  </si>
+  <si>
+    <t>+8法术强度</t>
+  </si>
+  <si>
+    <t>+12法术强度</t>
+  </si>
+  <si>
+    <t>+16法术强度</t>
+  </si>
+  <si>
+    <t>+1%法术暴击</t>
+  </si>
+  <si>
+    <t>+2%法术暴击</t>
+  </si>
+  <si>
+    <t>+4%法术暴击</t>
+  </si>
+  <si>
+    <t>移除护盾术造成的虚弱效果。</t>
+  </si>
+  <si>
+    <t>移除护盾术造成的虚弱效果。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>医疗术使目标受到治疗增幅的效果翻倍。（等级3解锁）</t>
+  </si>
+  <si>
+    <t>医疗术使目标受到治疗增幅的效果翻倍。</t>
+  </si>
+  <si>
+    <t>+20生命上限</t>
+  </si>
+  <si>
+    <t>+40生命上限</t>
+  </si>
+  <si>
+    <t>+80生命上限</t>
+  </si>
+  <si>
+    <t>每秒回复1点法力值</t>
+  </si>
+  <si>
+    <t>每秒回复2点法力值</t>
+  </si>
+  <si>
+    <t>每秒回复4点法力值</t>
+  </si>
+  <si>
+    <t>使愈合的瞬发效果的间隔时间缩短2秒。</t>
+  </si>
+  <si>
+    <t>使愈合的瞬发效果的间隔时间缩短4秒。</t>
+  </si>
+  <si>
+    <t>使愈合的瞬发效果的间隔时间缩短6秒。</t>
+  </si>
+  <si>
+    <t>使愈合的瞬发效果的间隔时间缩短8秒。</t>
+  </si>
+  <si>
+    <t>+1所有属性</t>
+  </si>
+  <si>
+    <t>+3所有属性</t>
+  </si>
+  <si>
+    <t>+2所有属性</t>
+  </si>
+  <si>
+    <t>+6所有属性</t>
+  </si>
+  <si>
+    <t>+15生命上限</t>
+  </si>
+  <si>
+    <t>+45生命上限</t>
+  </si>
+  <si>
+    <t>+20法力上限</t>
+  </si>
+  <si>
+    <t>+40法力上限</t>
+  </si>
+  <si>
+    <t>+60法力上限</t>
+  </si>
+  <si>
+    <t>+80法力上限</t>
+  </si>
+  <si>
+    <t>使英勇打击消耗的法力值减少1点。</t>
+  </si>
+  <si>
+    <t>使英勇打击消耗的法力值减少2点。</t>
+  </si>
+  <si>
+    <t>使英勇打击消耗的法力值减少3点。</t>
+  </si>
+  <si>
+    <t>使英勇打击消耗的法力值减少4点。</t>
+  </si>
+  <si>
+    <t>+3攻击强度</t>
+  </si>
+  <si>
+    <t>+4攻击强度</t>
+  </si>
+  <si>
+    <t>+6攻击强度</t>
+  </si>
+  <si>
+    <t>+12攻击强度</t>
+  </si>
+  <si>
+    <t>+1%暴击几率</t>
+  </si>
+  <si>
+    <t>+2%暴击几率</t>
+  </si>
+  <si>
+    <t>+3%暴击几率</t>
+  </si>
+  <si>
+    <t>+8攻击强度</t>
+  </si>
+  <si>
+    <t>+16攻击强度</t>
+  </si>
+  <si>
+    <t>+3%攻击速度</t>
+  </si>
+  <si>
+    <t>+6%攻击速度</t>
+  </si>
+  <si>
+    <t>+9%攻击速度</t>
+  </si>
+  <si>
+    <t>+12%攻击速度</t>
+  </si>
+  <si>
+    <t>对生命值少于30%的目标造成3%额外伤害。</t>
+  </si>
+  <si>
+    <t>对生命值少于30%的目标造成6%额外伤害。</t>
+  </si>
+  <si>
+    <t>对生命值少于30%的目标造成9%额外伤害。</t>
+  </si>
+  <si>
+    <t>对生命值少于30%的目标造成12%额外伤害。</t>
+  </si>
+  <si>
+    <t>对生命值少于30%的目标造成15%额外伤害。</t>
+  </si>
+  <si>
+    <t>使你的邪恶攻击有15%概率造成麻痹效果，降低目标施法速度20%，并获得一个额外的连击点。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>使你的黑箭数量增加一枝。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>+6%暴击几率</t>
+  </si>
+  <si>
+    <t>使你的寒冰箭能冻结敌人1秒。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>+1%冰冷法术伤害</t>
+  </si>
+  <si>
+    <t>+2%冰冷法术伤害</t>
+  </si>
+  <si>
+    <t>+3%冰冷法术伤害</t>
+  </si>
+  <si>
+    <t>+4%冰冷法术伤害</t>
+  </si>
+  <si>
+    <t>使你的精髓榨取能让目标身上的暗言字：痛额外地生效一次。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>+1%法术急速</t>
+  </si>
+  <si>
+    <t>+2%法术急速</t>
+  </si>
+  <si>
+    <t>+3%法术急速</t>
+  </si>
+  <si>
+    <t>+4%法术急速</t>
+  </si>
+  <si>
+    <t>使你的风暴打击有5%额外概率冷却大地震击。</t>
+  </si>
+  <si>
+    <t>使你的风暴打击有10%额外概率冷却大地震击。</t>
+  </si>
+  <si>
+    <t>使你的风暴打击有15%额外概率冷却大地震击。</t>
+  </si>
+  <si>
+    <t>使你的风暴打击有20%额外概率冷却大地震击。</t>
+  </si>
+  <si>
+    <t>使你的风暴打击有25%额外概率冷却大地震击。</t>
+  </si>
+  <si>
+    <t>+5所有属性</t>
+  </si>
+  <si>
+    <t>+4%攻击速度</t>
+  </si>
+  <si>
+    <t>+8%攻击速度</t>
+  </si>
+  <si>
+    <t>+3%躲闪</t>
+  </si>
+  <si>
+    <t>-1%受到的伤害</t>
+  </si>
+  <si>
+    <t>+1%造成的伤害</t>
+  </si>
+  <si>
+    <t>+1力量每英雄等级</t>
+  </si>
+  <si>
+    <t>+1%生命上限</t>
+  </si>
+  <si>
+    <t>从受到的伤害中获取1%的法力值。</t>
+  </si>
+  <si>
+    <t>-2%受到的伤害</t>
+  </si>
+  <si>
+    <t>+2%造成的伤害</t>
+  </si>
+  <si>
+    <t>+2力量每英雄等级</t>
+  </si>
+  <si>
+    <t>+2%生命上限</t>
+  </si>
+  <si>
+    <t>从受到的伤害中获取2%的法力值。</t>
+  </si>
+  <si>
+    <t>-3%受到的伤害</t>
+  </si>
+  <si>
+    <t>+3力量每英雄等级</t>
+  </si>
+  <si>
+    <t>+3%生命上限</t>
+  </si>
+  <si>
+    <t>从受到的伤害中获取3%的法力值。</t>
+  </si>
+  <si>
+    <t>-4%受到的伤害</t>
+  </si>
+  <si>
+    <t>+4%造成的伤害</t>
+  </si>
+  <si>
+    <t>+4%生命上限</t>
+  </si>
+  <si>
+    <t>+5力量每英雄等级</t>
+  </si>
+  <si>
+    <t>从受到的伤害中获取5%的法力值。</t>
+  </si>
+  <si>
+    <t>使用：传送到一个友军身后。（等级3解锁）</t>
+  </si>
+  <si>
+    <t>+2点所有属性</t>
+  </si>
+  <si>
+    <t>+4点所有属性</t>
+  </si>
+  <si>
+    <t>+6点所有属性</t>
+  </si>
+  <si>
+    <t>+8点所有属性</t>
+  </si>
+  <si>
+    <t>+24攻击强度</t>
+  </si>
+  <si>
+    <t>+32攻击强度</t>
+  </si>
+  <si>
+    <t>+16%攻击速度</t>
+  </si>
+  <si>
+    <t>在命中目标以后，有15%的概率施展剧毒新星，对600码范围内的敌人造成持续性的法术伤害。（等级5解锁）</t>
+  </si>
+  <si>
+    <t>在命中目标以后，吸取造成伤害10%的生命值和法力值。（等级3解锁）</t>
   </si>
 </sst>
 </file>
@@ -4344,7 +4731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4356,7 +4743,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -4371,27 +4758,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B2" s="54">
         <v>1</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D2" s="48"/>
     </row>
@@ -4401,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D3" s="48"/>
     </row>
@@ -4411,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D4" s="48"/>
     </row>
@@ -4421,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D5" s="48"/>
     </row>
@@ -4431,19 +4818,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="53" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B7" s="45">
         <v>1</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D7" s="48"/>
     </row>
@@ -4453,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D8" s="48"/>
     </row>
@@ -4463,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D9" s="48"/>
     </row>
@@ -4473,7 +4860,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D10" s="48"/>
     </row>
@@ -4483,19 +4870,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="53" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B12" s="54">
         <v>1</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D12" s="48"/>
     </row>
@@ -4505,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D13" s="48"/>
     </row>
@@ -4515,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D14" s="48"/>
     </row>
@@ -4525,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D15" s="48"/>
     </row>
@@ -4535,19 +4922,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="53" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B17" s="45">
         <v>1</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D17" s="48"/>
     </row>
@@ -4557,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D18" s="48"/>
     </row>
@@ -4567,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D19" s="48"/>
     </row>
@@ -4577,7 +4964,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D20" s="48"/>
     </row>
@@ -4587,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D21" s="48">
         <v>60</v>
@@ -4595,13 +4982,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B22" s="45">
         <v>1</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D22" s="48"/>
     </row>
@@ -4611,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D23" s="48"/>
     </row>
@@ -4621,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D24" s="48"/>
     </row>
@@ -4631,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D25" s="48"/>
     </row>
@@ -4641,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D26" s="48">
         <v>60</v>
@@ -4649,13 +5036,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B27" s="54">
         <v>1</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D27" s="48">
         <v>60</v>
@@ -4667,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D28" s="48">
         <v>60</v>
@@ -4679,7 +5066,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D29" s="48">
         <v>60</v>
@@ -4691,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D30" s="48">
         <v>60</v>
@@ -4703,7 +5090,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D31" s="48">
         <v>60</v>
@@ -4711,13 +5098,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B32" s="54">
         <v>1</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D32" s="48">
         <v>60</v>
@@ -4729,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D33" s="48">
         <v>60</v>
@@ -4741,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D34" s="48">
         <v>60</v>
@@ -4753,7 +5140,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D35" s="48">
         <v>60</v>
@@ -4765,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D36" s="48">
         <v>60</v>
@@ -4773,13 +5160,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B37" s="45">
         <v>1</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D37" s="48"/>
     </row>
@@ -4789,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D38" s="48"/>
     </row>
@@ -4799,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D39" s="48"/>
     </row>
@@ -4809,7 +5196,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D40" s="48"/>
     </row>
@@ -4819,7 +5206,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D41" s="48"/>
     </row>
@@ -4832,10 +5219,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4845,208 +5232,453 @@
     <col min="8" max="16384" width="14.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="66"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
       <c r="B2" s="66"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="66"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="66"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
-        <v>408</v>
-      </c>
-      <c r="B5" s="66"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="B6" s="66"/>
-    </row>
-    <row r="7" spans="1:2" ht="49.5" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>579</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="66"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
-        <v>41</v>
-      </c>
       <c r="B8" s="66"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="55"/>
       <c r="B9" s="66"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
       <c r="B11" s="66"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>592</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="B12" s="66"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" s="66"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="B14" s="66"/>
-    </row>
-    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="76" t="s">
+        <v>593</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="76" t="s">
+        <v>597</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>599</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>600</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="E17" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="66"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="76" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="66"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="69" t="s">
+      <c r="B18" s="66"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="55"/>
+      <c r="B19" s="66"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="66"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="66"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
+      <c r="B20" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="66" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="64" t="s">
+        <v>603</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>607</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A25" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="E25" s="76" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="B22" s="66"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="B23" s="66"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="76" t="s">
+    <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="66"/>
-    </row>
-    <row r="25" spans="1:2" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="76" t="s">
+      <c r="B26" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="66"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="69" t="s">
+      <c r="B27" s="66"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="55"/>
+      <c r="B28" s="66"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="66"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="55"/>
-      <c r="B27" s="66"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="66"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="55"/>
       <c r="B29" s="66"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="64" t="s">
-        <v>395</v>
-      </c>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="55"/>
       <c r="B30" s="66"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="B31" s="66"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="B32" s="66"/>
+        <v>617</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="64" t="s">
-        <v>457</v>
-      </c>
-      <c r="B33" s="66"/>
-    </row>
-    <row r="34" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A34" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="66"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="66"/>
+        <v>606</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>607</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>608</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A35" s="76" t="s">
+        <v>615</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>615</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>616</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="55"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="76" t="s">
+        <v>614</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>614</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>614</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="55" t="s">
-        <v>62</v>
+      <c r="A37" s="69" t="s">
+        <v>59</v>
       </c>
       <c r="B37" s="66"/>
     </row>
@@ -5055,355 +5687,767 @@
       <c r="B38" s="66"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="64" t="s">
-        <v>458</v>
+      <c r="A39" s="55" t="s">
+        <v>60</v>
       </c>
       <c r="B39" s="66"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="64" t="s">
-        <v>422</v>
-      </c>
+      <c r="A40" s="55"/>
       <c r="B40" s="66"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="B41" s="66"/>
+        <v>627</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="B42" s="66"/>
+        <v>631</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>632</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="66"/>
+      <c r="A43" s="64" t="s">
+        <v>633</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>635</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>636</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="A44" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="55"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="76" t="s">
+        <v>623</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>626</v>
+      </c>
+      <c r="E45" s="76" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="66" t="s">
-        <v>66</v>
-      </c>
+      <c r="A46" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="55"/>
       <c r="B47" s="66"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="B48" s="66"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="64" t="s">
-        <v>461</v>
-      </c>
+      <c r="A48" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="55"/>
       <c r="B49" s="66"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="B50" s="66"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="B51" s="66"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="66"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="66"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="55"/>
-      <c r="B54" s="66"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="64" t="s">
+        <v>641</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>643</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>644</v>
+      </c>
+      <c r="E52" s="64" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="64" t="s">
+        <v>645</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>646</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>647</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="76" t="s">
+        <v>637</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>638</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>640</v>
+      </c>
+      <c r="E54" s="76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="66"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="55"/>
       <c r="B56" s="66"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="B57" s="66"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="64" t="s">
-        <v>424</v>
-      </c>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="55"/>
       <c r="B58" s="66"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="B59" s="66"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="76" t="s">
+        <v>587</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E59" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>648</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>644</v>
+      </c>
+      <c r="D60" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="E60" s="64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="64" t="s">
+        <v>650</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>651</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>652</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>653</v>
+      </c>
+      <c r="E61" s="64" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>655</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>656</v>
+      </c>
+      <c r="D63" s="76" t="s">
+        <v>657</v>
+      </c>
+      <c r="E63" s="76" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="76" t="s">
+        <v>659</v>
+      </c>
+      <c r="B64" s="76" t="s">
+        <v>659</v>
+      </c>
+      <c r="C64" s="76" t="s">
+        <v>659</v>
+      </c>
+      <c r="D64" s="76" t="s">
+        <v>659</v>
+      </c>
+      <c r="E64" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="66"/>
-    </row>
-    <row r="61" spans="1:2" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="76" t="s">
+      <c r="B65" s="66"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="55"/>
+      <c r="B66" s="66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="66"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="66"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="55"/>
-      <c r="B63" s="66"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="66"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="55"/>
-      <c r="B65" s="66"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="B66" s="66"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="64" t="s">
-        <v>424</v>
-      </c>
       <c r="B67" s="66"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="64" t="s">
-        <v>466</v>
-      </c>
+      <c r="A68" s="55"/>
       <c r="B68" s="66"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>648</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>644</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="E70" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="B69" s="66"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="76" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="64" t="s">
+        <v>645</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>646</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>661</v>
+      </c>
+      <c r="E71" s="64" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="E72" s="64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="B73" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="C73" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="D73" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="E73" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="66"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="55"/>
+      <c r="B75" s="66"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="66"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="66"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="55"/>
-      <c r="B72" s="66"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="66"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="55"/>
-      <c r="B74" s="66"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="B75" s="66"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="64" t="s">
-        <v>395</v>
-      </c>
       <c r="B76" s="66"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="64" t="s">
-        <v>454</v>
-      </c>
+      <c r="A77" s="55"/>
       <c r="B77" s="66"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="64" t="s">
-        <v>467</v>
-      </c>
-      <c r="B78" s="66"/>
+        <v>603</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="64" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>611</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="E80" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="64" t="s">
+        <v>663</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>664</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="76" t="s">
+        <v>662</v>
+      </c>
+      <c r="B82" s="76" t="s">
+        <v>662</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>662</v>
+      </c>
+      <c r="D82" s="76" t="s">
+        <v>662</v>
+      </c>
+      <c r="E82" s="76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="55"/>
+      <c r="B84" s="66"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="66"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="23" t="s">
+      <c r="B85" s="66"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="55"/>
+      <c r="B86" s="66"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87" s="64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="64" t="s">
+        <v>668</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>669</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>670</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>671</v>
+      </c>
+      <c r="E89" s="64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>611</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A91" s="76" t="s">
+        <v>667</v>
+      </c>
+      <c r="B91" s="76" t="s">
+        <v>667</v>
+      </c>
+      <c r="C91" s="76" t="s">
+        <v>667</v>
+      </c>
+      <c r="D91" s="76" t="s">
+        <v>667</v>
+      </c>
+      <c r="E91" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="55"/>
-      <c r="B81" s="66"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="55" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="66"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="55"/>
-      <c r="B83" s="66"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="B84" s="66"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="64" t="s">
-        <v>408</v>
-      </c>
-      <c r="B85" s="66"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B86" s="66"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="B87" s="66"/>
-    </row>
-    <row r="88" spans="1:2" ht="33" x14ac:dyDescent="0.35">
-      <c r="A88" s="76" t="s">
+      <c r="B92" s="66"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="55"/>
+      <c r="B93" s="66"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="66"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="69" t="s">
+      <c r="B94" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="66"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="55"/>
-      <c r="B90" s="66"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="55" t="s">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="55"/>
+      <c r="B95" s="66"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="64" t="s">
+        <v>627</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>628</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="E97" s="64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>678</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>651</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="64" t="s">
+        <v>668</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>669</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>670</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>671</v>
+      </c>
+      <c r="E99" s="64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A100" s="76" t="s">
+        <v>672</v>
+      </c>
+      <c r="B100" s="76" t="s">
+        <v>673</v>
+      </c>
+      <c r="C100" s="76" t="s">
+        <v>674</v>
+      </c>
+      <c r="D100" s="76" t="s">
+        <v>675</v>
+      </c>
+      <c r="E100" s="76" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="55"/>
-      <c r="B92" s="66"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="64" t="s">
-        <v>458</v>
-      </c>
-      <c r="B93" s="66"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="64" t="s">
-        <v>408</v>
-      </c>
-      <c r="B94" s="66"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="B95" s="66"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="66"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" s="66"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5434,23 +6478,23 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>33</v>
@@ -5462,54 +6506,54 @@
     </row>
     <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="67" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5521,104 +6565,104 @@
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F12" s="25"/>
       <c r="H12" s="65"/>
@@ -5628,19 +6672,19 @@
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="25"/>
       <c r="H13" s="65"/>
@@ -5650,19 +6694,19 @@
     </row>
     <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5709,7 +6753,7 @@
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -5717,7 +6761,7 @@
       <c r="E19" s="55"/>
       <c r="F19" s="25"/>
       <c r="G19" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H19" s="65">
         <v>4</v>
@@ -5734,7 +6778,7 @@
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -5742,7 +6786,7 @@
       <c r="E20" s="55"/>
       <c r="F20" s="25"/>
       <c r="G20" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5752,7 +6796,7 @@
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
       <c r="G21" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5763,7 +6807,7 @@
       <c r="E22" s="64"/>
       <c r="F22" s="25"/>
       <c r="G22" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5777,7 +6821,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
@@ -5785,101 +6829,101 @@
       <c r="E24" s="68"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F25" s="15"/>
       <c r="G25" s="25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F26" s="15"/>
       <c r="G26" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
       <c r="F28" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G29" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G30" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F31" s="15"/>
       <c r="G31" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
       <c r="F33" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G34" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G35" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F36" s="15"/>
       <c r="G36" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
       <c r="F38" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B39" s="68"/>
       <c r="C39" s="68"/>
@@ -5887,37 +6931,37 @@
       <c r="E39" s="68"/>
       <c r="F39" s="15"/>
       <c r="G39" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G40" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G41" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B43" s="68"/>
       <c r="C43" s="68"/>
       <c r="D43" s="68"/>
       <c r="E43" s="68"/>
       <c r="F43" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B44" s="68"/>
       <c r="C44" s="68"/>
@@ -5925,44 +6969,44 @@
       <c r="E44" s="68"/>
       <c r="F44" s="15"/>
       <c r="G44" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G45" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F46" s="15"/>
       <c r="G46" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F47" s="15"/>
       <c r="G47" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B49" s="68"/>
       <c r="C49" s="68"/>
       <c r="D49" s="68"/>
       <c r="E49" s="68"/>
       <c r="F49" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B50" s="68"/>
       <c r="C50" s="68"/>
@@ -5970,7 +7014,7 @@
       <c r="E50" s="68"/>
       <c r="F50" s="15"/>
       <c r="G50" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -5981,28 +7025,28 @@
       <c r="E51" s="68"/>
       <c r="F51" s="15"/>
       <c r="G51" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F52" s="15"/>
       <c r="G52" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6013,7 +7057,7 @@
       <c r="E55" s="64"/>
       <c r="F55" s="18"/>
       <c r="G55" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6024,7 +7068,7 @@
       <c r="E56" s="64"/>
       <c r="F56" s="18"/>
       <c r="G56" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6035,7 +7079,7 @@
       <c r="E57" s="64"/>
       <c r="F57" s="18"/>
       <c r="G57" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6046,7 +7090,7 @@
       <c r="E58" s="64"/>
       <c r="F58" s="19"/>
       <c r="G58" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6057,7 +7101,7 @@
       <c r="E59" s="64"/>
       <c r="F59" s="19"/>
       <c r="G59" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6070,17 +7114,17 @@
     </row>
     <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6091,7 +7135,7 @@
       <c r="E62" s="64"/>
       <c r="F62" s="18"/>
       <c r="G62" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6102,7 +7146,7 @@
       <c r="E63" s="64"/>
       <c r="F63" s="18"/>
       <c r="G63" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6113,7 +7157,7 @@
       <c r="E64" s="64"/>
       <c r="F64" s="18"/>
       <c r="G64" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6124,7 +7168,7 @@
       <c r="E65" s="64"/>
       <c r="F65" s="19"/>
       <c r="G65" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6138,22 +7182,22 @@
     </row>
     <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -6161,7 +7205,7 @@
       <c r="E68" s="55"/>
       <c r="F68" s="19"/>
       <c r="G68" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6172,7 +7216,7 @@
       <c r="E69" s="64"/>
       <c r="F69" s="18"/>
       <c r="G69" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6183,7 +7227,7 @@
       <c r="E70" s="64"/>
       <c r="F70" s="18"/>
       <c r="G70" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6194,7 +7238,7 @@
       <c r="E71" s="64"/>
       <c r="F71" s="19"/>
       <c r="G71" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6207,17 +7251,17 @@
     </row>
     <row r="73" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="68" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" s="68"/>
       <c r="C73" s="68"/>
       <c r="D73" s="68"/>
       <c r="E73" s="68"/>
       <c r="F73" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6228,7 +7272,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="13"/>
       <c r="G74" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6239,7 +7283,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="13"/>
       <c r="G75" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6261,7 +7305,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="15"/>
       <c r="G77" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6275,7 +7319,7 @@
     </row>
     <row r="79" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B79" s="68"/>
       <c r="C79" s="68"/>
@@ -6283,7 +7327,7 @@
       <c r="E79" s="68"/>
       <c r="F79" s="15"/>
       <c r="G79" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6294,7 +7338,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="15"/>
       <c r="G80" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6308,22 +7352,22 @@
     </row>
     <row r="82" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B82" s="68"/>
       <c r="C82" s="68"/>
       <c r="D82" s="68"/>
       <c r="E82" s="68"/>
       <c r="F82" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B83" s="68"/>
       <c r="C83" s="68"/>
@@ -6331,7 +7375,7 @@
       <c r="E83" s="68"/>
       <c r="F83" s="15"/>
       <c r="G83" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6342,7 +7386,7 @@
       <c r="E84" s="68"/>
       <c r="F84" s="15"/>
       <c r="G84" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6353,7 +7397,7 @@
       <c r="E85" s="68"/>
       <c r="F85" s="15"/>
       <c r="G85" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6367,22 +7411,22 @@
     </row>
     <row r="87" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B87" s="68"/>
       <c r="C87" s="68"/>
       <c r="D87" s="68"/>
       <c r="E87" s="68"/>
       <c r="F87" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="68" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B88" s="68"/>
       <c r="C88" s="68"/>
@@ -6390,7 +7434,7 @@
       <c r="E88" s="68"/>
       <c r="F88" s="15"/>
       <c r="G88" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6401,7 +7445,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="13"/>
       <c r="G89" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6412,7 +7456,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="15"/>
       <c r="G90" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6426,22 +7470,22 @@
     </row>
     <row r="92" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B92" s="68"/>
       <c r="C92" s="68"/>
       <c r="D92" s="68"/>
       <c r="E92" s="68"/>
       <c r="F92" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B93" s="68"/>
       <c r="C93" s="68"/>
@@ -6449,7 +7493,7 @@
       <c r="E93" s="68"/>
       <c r="F93" s="15"/>
       <c r="G93" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6460,7 +7504,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="13"/>
       <c r="G94" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6471,7 +7515,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="15"/>
       <c r="G95" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6482,7 +7526,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="15"/>
       <c r="G96" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6495,8 +7539,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6508,7 +7552,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="10"/>
@@ -6518,119 +7562,119 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>553</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>555</v>
-      </c>
       <c r="D3" s="64" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B4" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>554</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="70" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="10"/>
@@ -6641,126 +7685,126 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="64" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="70" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A19" s="70" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A20" s="70" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -6769,108 +7813,238 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="69" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="64" t="s">
-        <v>449</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="10"/>
+        <v>681</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>691</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>682</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>696</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="C27" s="10"/>
+        <v>448</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>683</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>684</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>693</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="10"/>
+        <v>685</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>694</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="10"/>
+        <v>700</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>700</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B33" s="66"/>
       <c r="C33" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="64" t="s">
-        <v>438</v>
+        <v>701</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="64" t="s">
-        <v>439</v>
+        <v>648</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>705</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="64" t="s">
-        <v>440</v>
+        <v>678</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>653</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>707</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A40" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+        <v>709</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>709</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A41" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+        <v>708</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="42" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3"/>
       <c r="D42" s="11"/>
@@ -6878,7 +8052,7 @@
     </row>
     <row r="43" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B43" s="15"/>
     </row>
@@ -6890,13 +8064,13 @@
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="72" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B45" s="73"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -6907,7 +8081,7 @@
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="64" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="64"/>
@@ -6916,7 +8090,7 @@
     </row>
     <row r="48" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="64" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="64"/>
@@ -6925,7 +8099,7 @@
     </row>
     <row r="49" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="64"/>
@@ -6934,7 +8108,7 @@
     </row>
     <row r="50" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="64" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="64"/>
@@ -6943,7 +8117,7 @@
     </row>
     <row r="51" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="70" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="64"/>
@@ -6952,7 +8126,7 @@
     </row>
     <row r="52" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="71" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="64"/>
@@ -6968,14 +8142,14 @@
     </row>
     <row r="54" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="72" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="64"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
@@ -6987,7 +8161,7 @@
     </row>
     <row r="56" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="64" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="64"/>
@@ -6996,14 +8170,14 @@
     </row>
     <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="64" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="64" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B58" s="3"/>
       <c r="D58" s="11"/>
@@ -7011,7 +8185,7 @@
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B59" s="3"/>
       <c r="D59" s="11"/>
@@ -7019,7 +8193,7 @@
     </row>
     <row r="60" spans="1:6" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A60" s="70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B60" s="3"/>
       <c r="D60" s="11"/>
@@ -7027,7 +8201,7 @@
     </row>
     <row r="61" spans="1:6" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A61" s="70" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B61" s="73"/>
       <c r="D61" s="11"/>
@@ -7035,7 +8209,7 @@
     </row>
     <row r="62" spans="1:6" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A62" s="70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B62" s="73"/>
       <c r="D62" s="11"/>
@@ -7043,7 +8217,7 @@
     </row>
     <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="64"/>
@@ -7052,7 +8226,7 @@
     </row>
     <row r="64" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="10"/>
@@ -7066,55 +8240,55 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F66" s="74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="64" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="64" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="64" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="64" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="64" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -7127,12 +8301,12 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B78" s="75"/>
       <c r="C78" s="10"/>
       <c r="F78" s="73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -7141,47 +8315,47 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="64" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B80" s="75"/>
       <c r="C80" s="10"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="64" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B81" s="74"/>
       <c r="C81" s="10"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="64" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B82" s="74"/>
       <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A83" s="70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B83" s="74"/>
       <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A84" s="70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B84" s="74"/>
       <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -7190,14 +8364,14 @@
     </row>
     <row r="88" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="64"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
@@ -7209,7 +8383,7 @@
     </row>
     <row r="90" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="64" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="64"/>
@@ -7218,7 +8392,7 @@
     </row>
     <row r="91" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="64" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="64"/>
@@ -7227,7 +8401,7 @@
     </row>
     <row r="92" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="64" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="64"/>
@@ -7236,7 +8410,7 @@
     </row>
     <row r="93" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="64" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="64"/>
@@ -7245,7 +8419,7 @@
     </row>
     <row r="94" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="70" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="64"/>
@@ -7254,7 +8428,7 @@
     </row>
     <row r="95" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="64"/>
@@ -7263,7 +8437,7 @@
     </row>
     <row r="96" spans="1:6" s="52" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A96" s="70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="64"/>
@@ -7272,14 +8446,14 @@
     </row>
     <row r="97" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B98" s="13"/>
     </row>
@@ -7291,13 +8465,13 @@
     </row>
     <row r="100" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="72" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B100" s="3"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -7308,7 +8482,7 @@
     </row>
     <row r="102" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="64" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B102" s="73"/>
       <c r="D102" s="11"/>
@@ -7316,7 +8490,7 @@
     </row>
     <row r="103" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="64" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B103" s="73"/>
       <c r="D103" s="11"/>
@@ -7324,7 +8498,7 @@
     </row>
     <row r="104" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="64" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B104" s="73"/>
       <c r="D104" s="11"/>
@@ -7332,7 +8506,7 @@
     </row>
     <row r="105" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="64" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B105" s="73"/>
       <c r="D105" s="11"/>
@@ -7340,7 +8514,7 @@
     </row>
     <row r="106" spans="1:6" s="38" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A106" s="70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="64"/>
@@ -7349,7 +8523,7 @@
     </row>
     <row r="107" spans="1:6" s="52" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A107" s="70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="64"/>
@@ -7358,7 +8532,7 @@
     </row>
     <row r="108" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="64"/>
@@ -7367,7 +8541,7 @@
     </row>
     <row r="109" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="10"/>
@@ -7496,7 +8670,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
@@ -7504,14 +8678,14 @@
     <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="60" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F2" s="59">
         <v>1</v>
@@ -7520,10 +8694,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="56"/>
@@ -7535,14 +8709,14 @@
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="60" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F3" s="59">
         <v>1</v>
@@ -7551,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="61"/>
@@ -7564,14 +8738,14 @@
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56"/>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F4" s="59">
         <v>1</v>
@@ -7580,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="61"/>
@@ -7593,14 +8767,14 @@
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56"/>
       <c r="B5" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F5" s="59">
         <v>1</v>
@@ -7609,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="61"/>
@@ -7622,14 +8796,14 @@
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56"/>
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="60" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F6" s="59">
         <v>1</v>
@@ -7638,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="61"/>
@@ -7651,14 +8825,14 @@
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="56"/>
       <c r="B7" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F7" s="59">
         <v>1</v>
@@ -7667,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="61"/>
@@ -7680,14 +8854,14 @@
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56"/>
       <c r="B8" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="63" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F8" s="59">
         <v>1</v>
@@ -7696,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="56"/>
@@ -7711,14 +8885,14 @@
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F9" s="59">
         <v>1</v>
@@ -7727,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="61"/>
@@ -7740,14 +8914,14 @@
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F10" s="59">
         <v>1</v>
@@ -7756,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="61"/>
@@ -7769,14 +8943,14 @@
     <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F11" s="59">
         <v>1</v>
@@ -7785,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="56"/>
@@ -7800,14 +8974,14 @@
     <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="60" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F12" s="59">
         <v>1</v>
@@ -7816,10 +8990,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="56"/>
@@ -7831,14 +9005,14 @@
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="60" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F13" s="59">
         <v>1</v>
@@ -7847,7 +9021,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="61"/>
@@ -7860,14 +9034,14 @@
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="60" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F14" s="59">
         <v>1</v>
@@ -7876,10 +9050,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="56"/>
@@ -7891,14 +9065,14 @@
     <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="60" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F15" s="59">
         <v>1</v>
@@ -7907,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="61"/>
@@ -7920,14 +9094,14 @@
     <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="62" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F16" s="59">
         <v>1</v>
@@ -7936,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J16" s="61"/>
       <c r="K16" s="56"/>
@@ -7951,14 +9125,14 @@
     <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56"/>
       <c r="B17" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="63" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F17" s="59">
         <v>1</v>
@@ -7967,10 +9141,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J17" s="61"/>
       <c r="K17" s="56"/>
@@ -7999,14 +9173,14 @@
     <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="56"/>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="56" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F19" s="57">
         <v>2</v>
@@ -8015,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="61"/>
@@ -8028,14 +9202,14 @@
     <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56"/>
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F20" s="57">
         <v>2</v>
@@ -8044,7 +9218,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="61"/>
@@ -8057,14 +9231,14 @@
     <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="56"/>
       <c r="B21" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="60" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F21" s="59">
         <v>1</v>
@@ -8073,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="61"/>
@@ -8086,14 +9260,14 @@
     <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="56"/>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F22" s="59">
         <v>1</v>
@@ -8102,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="61"/>
@@ -8115,14 +9289,14 @@
     <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56"/>
       <c r="B23" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F23" s="59">
         <v>1</v>
@@ -8131,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="61"/>
@@ -8144,14 +9318,14 @@
     <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="56"/>
       <c r="B24" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C24" s="5">
         <v>4</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F24" s="59">
         <v>2</v>
@@ -8160,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="61"/>
@@ -8173,14 +9347,14 @@
     <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="56"/>
       <c r="B25" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="60" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F25" s="59">
         <v>1</v>
@@ -8189,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="61"/>
@@ -8202,14 +9376,14 @@
     <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56"/>
       <c r="B26" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C26" s="5">
         <v>2</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F26" s="59">
         <v>2</v>
@@ -8218,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="61"/>
@@ -8231,14 +9405,14 @@
     <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="56"/>
       <c r="B27" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="62" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F27" s="59">
         <v>2</v>
@@ -8247,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="61"/>
@@ -8260,14 +9434,14 @@
     <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F28" s="59">
         <v>2</v>
@@ -8276,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="61"/>
@@ -8289,14 +9463,14 @@
     <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56"/>
       <c r="B29" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="60" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F29" s="59">
         <v>1</v>
@@ -8305,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="61"/>
@@ -8318,14 +9492,14 @@
     <row r="30" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56"/>
       <c r="B30" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F30" s="59">
         <v>1</v>
@@ -8334,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="61"/>
@@ -8364,14 +9538,14 @@
     <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56"/>
       <c r="B32" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="62" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F32" s="59">
         <v>1</v>
@@ -8380,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="61"/>
@@ -8393,14 +9567,14 @@
     <row r="33" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56"/>
       <c r="B33" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="62" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F33" s="59">
         <v>1</v>
@@ -8409,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="61"/>
@@ -8422,14 +9596,14 @@
     <row r="34" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="56"/>
       <c r="B34" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
       </c>
       <c r="D34" s="58"/>
       <c r="E34" s="60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F34" s="59">
         <v>1</v>
@@ -8438,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="61"/>
@@ -8451,14 +9625,14 @@
     <row r="35" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="56"/>
       <c r="B35" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
       </c>
       <c r="D35" s="58"/>
       <c r="E35" s="60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F35" s="59">
         <v>1</v>
@@ -8467,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="61"/>
@@ -8480,14 +9654,14 @@
     <row r="36" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="56"/>
       <c r="B36" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C36" s="5">
         <v>3</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="62" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F36" s="59">
         <v>1</v>
@@ -8496,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="61"/>
@@ -8509,14 +9683,14 @@
     <row r="37" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="56"/>
       <c r="B37" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
       </c>
       <c r="D37" s="58"/>
       <c r="E37" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F37" s="59">
         <v>1</v>
@@ -8525,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="61"/>
@@ -8555,14 +9729,14 @@
     <row r="39" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="56"/>
       <c r="B39" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F39" s="59">
         <v>1</v>
@@ -8571,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="61"/>
@@ -8584,14 +9758,14 @@
     <row r="40" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
       </c>
       <c r="D40" s="58"/>
       <c r="E40" s="60" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F40" s="59">
         <v>1</v>
@@ -8600,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="61"/>
@@ -8613,14 +9787,14 @@
     <row r="41" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="56"/>
       <c r="B41" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F41" s="59">
         <v>1</v>
@@ -8629,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="61"/>
@@ -8659,14 +9833,14 @@
     <row r="43" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="56"/>
       <c r="B43" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C43" s="5">
         <v>2</v>
       </c>
       <c r="D43" s="58"/>
       <c r="E43" s="60" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F43" s="59">
         <v>1</v>
@@ -8675,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="61"/>
@@ -8688,14 +9862,14 @@
     <row r="44" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="56"/>
       <c r="B44" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C44" s="5">
         <v>2</v>
       </c>
       <c r="D44" s="58"/>
       <c r="E44" s="60" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F44" s="59">
         <v>1</v>
@@ -8704,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="61"/>
@@ -8717,14 +9891,14 @@
     <row r="45" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="56"/>
       <c r="B45" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C45" s="5">
         <v>3</v>
       </c>
       <c r="D45" s="58"/>
       <c r="E45" s="62" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F45" s="59">
         <v>1</v>
@@ -8733,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="61"/>
@@ -8763,14 +9937,14 @@
     <row r="47" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="56"/>
       <c r="B47" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C47" s="5">
         <v>2</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="60" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F47" s="59">
         <v>1</v>
@@ -8779,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="61"/>
@@ -8792,14 +9966,14 @@
     <row r="48" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="56"/>
       <c r="B48" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C48" s="5">
         <v>2</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="60" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F48" s="59">
         <v>1</v>
@@ -8808,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="61"/>
@@ -8821,14 +9995,14 @@
     <row r="49" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="56"/>
       <c r="B49" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C49" s="5">
         <v>2</v>
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="60" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F49" s="59">
         <v>1</v>
@@ -8837,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="61"/>
@@ -8867,16 +10041,16 @@
     <row r="51" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="56"/>
       <c r="B51" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F51" s="59">
         <v>8</v>
@@ -8885,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="61"/>
@@ -8898,16 +10072,16 @@
     <row r="52" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="56"/>
       <c r="B52" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C52" s="5">
         <v>2</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F52" s="59">
         <v>10</v>
@@ -8916,7 +10090,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="61"/>
@@ -8929,16 +10103,16 @@
     <row r="53" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="56"/>
       <c r="B53" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F53" s="59">
         <v>3</v>
@@ -8947,7 +10121,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="61"/>
@@ -8960,16 +10134,16 @@
     <row r="54" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="56"/>
       <c r="B54" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C54" s="5">
         <v>2</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F54" s="59">
         <v>8</v>
@@ -8978,7 +10152,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="61"/>
@@ -8991,16 +10165,16 @@
     <row r="55" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="56"/>
       <c r="B55" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E55" s="62" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F55" s="59">
         <v>3</v>
@@ -9009,7 +10183,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="61"/>
@@ -9022,16 +10196,16 @@
     <row r="56" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="56"/>
       <c r="B56" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C56" s="5">
         <v>3</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F56" s="59">
         <v>3</v>
@@ -9040,7 +10214,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="61"/>
@@ -9053,16 +10227,16 @@
     <row r="57" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="56"/>
       <c r="B57" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F57" s="59">
         <v>5</v>
@@ -9071,7 +10245,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="61"/>
@@ -9084,16 +10258,16 @@
     <row r="58" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="56"/>
       <c r="B58" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C58" s="5">
         <v>2</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F58" s="59">
         <v>4</v>
@@ -9102,10 +10276,10 @@
         <v>4</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J58" s="61"/>
       <c r="K58" s="56"/>
@@ -9117,16 +10291,16 @@
     <row r="59" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="56"/>
       <c r="B59" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C59" s="5">
         <v>3</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F59" s="59">
         <v>2</v>
@@ -9135,10 +10309,10 @@
         <v>2</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J59" s="61"/>
       <c r="K59" s="56"/>
@@ -9359,7 +10533,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="27"/>
       <c r="B3" s="29" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>15</v>
@@ -9394,25 +10568,25 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
       <c r="B8" s="25" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
       <c r="B9" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="27"/>
       <c r="B10" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
       <c r="B11" s="30" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>20</v>
@@ -9444,13 +10618,13 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
       <c r="B17" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -9462,7 +10636,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="27"/>
       <c r="B19" s="30" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>14</v>
@@ -9494,7 +10668,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
       <c r="B24" s="25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -9512,7 +10686,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
       <c r="B27" s="30" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>20</v>
@@ -9553,7 +10727,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="27"/>
       <c r="B33" s="25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -9826,25 +11000,25 @@
         <v>39</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="I2" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -9865,7 +11039,7 @@
         <v>战斗召唤</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -9874,7 +11048,7 @@
         <v>烦恼诗集</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -9883,7 +11057,7 @@
         <v>谜团</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -9892,7 +11066,7 @@
         <v>死亡呼吸</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -9901,7 +11075,7 @@
         <v>风之力</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -9910,7 +11084,7 @@
         <v>克苏恩的疯狂</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -9919,7 +11093,7 @@
         <v>正义天使之力</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -9928,7 +11102,7 @@
         <v>无限</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -9937,7 +11111,7 @@
         <v>洞察</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -9946,7 +11120,7 @@
         <v>巫毒瓶</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -9955,7 +11129,7 @@
         <v>辛多雷宝珠</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -9964,88 +11138,88 @@
         <v>重铸的坚韧徽章</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="str">
-        <f>Class!A19</f>
+        <f>Class!A20</f>
         <v>圣光的正义</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="str">
-        <f>Class!A28</f>
+        <f>Class!A29</f>
         <v>祈福</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="str">
-        <f>Class!A37</f>
+        <f>Class!A39</f>
         <v>塞纳留斯的号角</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="str">
-        <f>Class!A46</f>
+        <f>Class!A48</f>
         <v>部落旗帜</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="str">
-        <f>Class!A55</f>
+        <f>Class!A57</f>
         <v>科勒恩的刺杀匕首</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="str">
-        <f>Class!A64</f>
+        <f>Class!A67</f>
         <v>上古守护者的长弓</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="str">
-        <f>Class!A73</f>
+        <f>Class!A76</f>
         <v>雷基·冬寒的护命匣</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="str">
-        <f>Class!A82</f>
+        <f>Class!A85</f>
         <v>咒逐</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="str">
-        <f>Class!A91</f>
+        <f>Class!A94</f>
         <v>罕见的雷电花芯</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -10057,7 +11231,7 @@
         <v>至尊四戒</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="33">
         <v>15</v>
@@ -10088,7 +11262,7 @@
         <v>限量版地精火箭靴</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C26" s="33">
         <v>25</v>
@@ -10108,7 +11282,7 @@
         <v>43</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -10117,7 +11291,7 @@
         <v>战歌之鼓</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -10139,7 +11313,7 @@
         <v>43</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -10148,7 +11322,7 @@
         <v>托尔贝恩</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33">
@@ -10170,7 +11344,7 @@
         <v>44</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -10179,7 +11353,7 @@
         <v>血吼</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
@@ -10201,7 +11375,7 @@
         <v>44</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -10210,7 +11384,7 @@
         <v>熔火犬牙</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C30" s="33">
         <v>7</v>
@@ -10232,7 +11406,7 @@
         <v>44</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -10241,7 +11415,7 @@
         <v>维斯卡格</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31" s="33">
         <v>11</v>
@@ -10263,7 +11437,7 @@
         <v>44</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -10272,7 +11446,7 @@
         <v>风暴狮角</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33">
@@ -10294,7 +11468,7 @@
         <v>44</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -10303,7 +11477,7 @@
         <v>诅咒铠甲</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C33" s="33">
         <v>10</v>
@@ -10325,7 +11499,7 @@
         <v>44</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -10334,7 +11508,7 @@
         <v>阿曼尼帝国壁垒</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" s="33">
         <v>11</v>
@@ -10356,7 +11530,7 @@
         <v>44</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -10365,7 +11539,7 @@
         <v>末日防御者徽记</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -10387,7 +11561,7 @@
         <v>44</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -10396,7 +11570,7 @@
         <v>埃兰的镇定宝石</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33">
@@ -10418,7 +11592,7 @@
         <v>44</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -10427,7 +11601,7 @@
         <v>纯净秘法</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37" s="33">
         <v>11</v>
@@ -10449,7 +11623,7 @@
         <v>44</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -10458,7 +11632,7 @@
         <v>妖术之颅</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33">
@@ -10480,7 +11654,7 @@
         <v>43</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -10489,7 +11663,7 @@
         <v>暗影烈焰法杖</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C39" s="33">
         <v>10</v>
@@ -10511,7 +11685,7 @@
         <v>44</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -10520,7 +11694,7 @@
         <v>潮汐指环</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33">
@@ -10542,7 +11716,7 @@
         <v>44</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -10589,10 +11763,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -10621,7 +11795,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -11127,7 +12301,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="36">
         <f t="shared" ref="K2:K97" ca="1" si="2">RAND() * 100</f>
-        <v>74.875343475258049</v>
+        <v>30.977856702299931</v>
       </c>
       <c r="L2" s="35" t="str">
         <f ca="1">IF(K2&lt;=C2, IF(K2&lt;H2,$A$2,IF(K2&lt;H3,$A$3, IF(K2&lt;H4,$A$4, IF(K2&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -11144,7 +12318,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B3" s="36">
         <v>5</v>
@@ -11179,7 +12353,7 @@
       <c r="J3" s="35"/>
       <c r="K3" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>85.633140061504079</v>
+        <v>28.55859644861556</v>
       </c>
       <c r="L3" s="35" t="str">
         <f ca="1">IF(K3&lt;=C3, IF(K3&lt;H2,$A$2,IF(K3&lt;H3,$A$3, IF(K3&lt;H4,$A$4, IF(K3&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -11196,7 +12370,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B4" s="36">
         <v>15</v>
@@ -11231,7 +12405,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7075314483573294</v>
+        <v>92.994751492177429</v>
       </c>
       <c r="L4" s="35" t="str">
         <f ca="1">IF(K4&lt;=C4, IF(K4&lt;H2,$A$2,IF(K4&lt;H3,$A$3, IF(K4&lt;H4,$A$4, IF(K4&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -11248,7 +12422,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" s="36">
         <v>7</v>
@@ -11283,7 +12457,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>57.900550080201498</v>
+        <v>7.3136503683606353</v>
       </c>
       <c r="L5" s="35" t="str">
         <f ca="1">IF(K5&lt;=C5, IF(K5&lt;H2,$A$2,IF(K5&lt;H3,$A$3, IF(K5&lt;H4,$A$4, IF(K5&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -11332,7 +12506,7 @@
       </c>
       <c r="K6" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>69.926868761626537</v>
+        <v>37.287147568256593</v>
       </c>
       <c r="L6" s="35" t="str">
         <f ca="1">IF(K6&lt;=C6, IF(K6&lt;H6,$A$2,IF(K6&lt;H7,$A$3, IF(K6&lt;H8,$A$4, IF(K6&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -11373,7 +12547,7 @@
       </c>
       <c r="K7" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>14.029587581704718</v>
+        <v>91.343442103510753</v>
       </c>
       <c r="L7" s="35" t="str">
         <f ca="1">IF(K7&lt;=C7, IF(K7&lt;H6,$A$2,IF(K7&lt;H7,$A$3, IF(K7&lt;H8,$A$4, IF(K7&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -11414,11 +12588,11 @@
       </c>
       <c r="K8" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>12.316360696719608</v>
+        <v>3.0363031230413173</v>
       </c>
       <c r="L8" s="35" t="str">
         <f ca="1">IF(K8&lt;=C8, IF(K8&lt;H6,$A$2,IF(K8&lt;H7,$A$3, IF(K8&lt;H8,$A$4, IF(K8&lt;H9,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -11455,7 +12629,7 @@
       </c>
       <c r="K9" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>35.609366571512027</v>
+        <v>91.780693588971033</v>
       </c>
       <c r="L9" s="35" t="str">
         <f ca="1">IF(K9&lt;=C9, IF(K9&lt;H6,$A$2,IF(K9&lt;H7,$A$3, IF(K9&lt;H8,$A$4, IF(K9&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -11498,7 +12672,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>30.411324758872794</v>
+        <v>6.1525433711854145</v>
       </c>
       <c r="L10" s="35" t="str">
         <f ca="1">IF(K10&lt;=C10, IF(K10&lt;H10,$A$2,IF(K10&lt;H11,$A$3, IF(K10&lt;H12,$A$4, IF(K10&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -11549,7 +12723,7 @@
       <c r="J11" s="35"/>
       <c r="K11" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>48.304517781145897</v>
+        <v>34.067911120214433</v>
       </c>
       <c r="L11" s="35" t="str">
         <f ca="1">IF(K11&lt;=C11, IF(K11&lt;H10,$A$2,IF(K11&lt;H11,$A$3, IF(K11&lt;H12,$A$4, IF(K11&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -11600,11 +12774,11 @@
       <c r="J12" s="35"/>
       <c r="K12" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7049790223477768</v>
+        <v>15.855734376280072</v>
       </c>
       <c r="L12" s="35" t="str">
         <f ca="1">IF(K12&lt;=C12, IF(K12&lt;H10,$A$2,IF(K12&lt;H11,$A$3, IF(K12&lt;H12,$A$4, IF(K12&lt;H13,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
@@ -11651,11 +12825,11 @@
       <c r="J13" s="35"/>
       <c r="K13" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1704712607180667</v>
+        <v>26.331632365444126</v>
       </c>
       <c r="L13" s="35" t="str">
         <f ca="1">IF(K13&lt;=C13, IF(K13&lt;H10,$A$2,IF(K13&lt;H11,$A$3, IF(K13&lt;H12,$A$4, IF(K13&lt;H13,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
@@ -11700,7 +12874,7 @@
       </c>
       <c r="K14" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>51.880892873580819</v>
+        <v>16.919174750895039</v>
       </c>
       <c r="L14" s="35" t="str">
         <f ca="1">IF(K14&lt;=C14, IF(K14&lt;H14,$A$2,IF(K14&lt;H15,$A$3, IF(K14&lt;H16,$A$4, IF(K14&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -11741,7 +12915,7 @@
       </c>
       <c r="K15" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>98.067115333791094</v>
+        <v>93.085735633544658</v>
       </c>
       <c r="L15" s="35" t="str">
         <f ca="1">IF(K15&lt;=C15, IF(K15&lt;H14,$A$2,IF(K15&lt;H15,$A$3, IF(K15&lt;H16,$A$4, IF(K15&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -11782,7 +12956,7 @@
       </c>
       <c r="K16" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>79.924695712618998</v>
+        <v>84.195691248355431</v>
       </c>
       <c r="L16" s="35" t="str">
         <f ca="1">IF(K16&lt;=C16, IF(K16&lt;H14,$A$2,IF(K16&lt;H15,$A$3, IF(K16&lt;H16,$A$4, IF(K16&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -11823,11 +12997,11 @@
       </c>
       <c r="K17" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>59.570434266034887</v>
+        <v>7.250428186369029</v>
       </c>
       <c r="L17" s="35" t="str">
         <f ca="1">IF(K17&lt;=C17, IF(K17&lt;H14,$A$2,IF(K17&lt;H15,$A$3, IF(K17&lt;H16,$A$4, IF(K17&lt;H17,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -11866,7 +13040,7 @@
       <c r="J18" s="35"/>
       <c r="K18" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>64.094513072314953</v>
+        <v>41.54146680078766</v>
       </c>
       <c r="L18" s="35" t="str">
         <f ca="1">IF(K18&lt;=C18, IF(K18&lt;H18,$A$2,IF(K18&lt;H19,$A$3, IF(K18&lt;H20,$A$4, IF(K18&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -11917,11 +13091,11 @@
       <c r="J19" s="35"/>
       <c r="K19" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5679666931566016</v>
+        <v>7.1727673943787318</v>
       </c>
       <c r="L19" s="35" t="str">
         <f ca="1">IF(K19&lt;=C19, IF(K19&lt;H18,$A$2,IF(K19&lt;H19,$A$3, IF(K19&lt;H20,$A$4, IF(K19&lt;H21,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>RP_COMMON</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -11968,7 +13142,7 @@
       <c r="J20" s="35"/>
       <c r="K20" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>79.489033798569764</v>
+        <v>35.606708079082672</v>
       </c>
       <c r="L20" s="35" t="str">
         <f ca="1">IF(K20&lt;=C20, IF(K20&lt;H18,$A$2,IF(K20&lt;H19,$A$3, IF(K20&lt;H20,$A$4, IF(K20&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -12019,11 +13193,11 @@
       <c r="J21" s="35"/>
       <c r="K21" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35661530941810682</v>
+        <v>34.601509766941973</v>
       </c>
       <c r="L21" s="35" t="str">
         <f ca="1">IF(K21&lt;=C21, IF(K21&lt;H18,$A$2,IF(K21&lt;H19,$A$3, IF(K21&lt;H20,$A$4, IF(K21&lt;H21,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
@@ -12068,11 +13242,11 @@
       </c>
       <c r="K22" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>52.992953760103454</v>
+        <v>3.6312805226533573</v>
       </c>
       <c r="L22" s="35" t="str">
         <f ca="1">IF(K22&lt;=C22, IF(K22&lt;H22,$A$2,IF(K22&lt;H23,$A$3, IF(K22&lt;H24,$A$4, IF(K22&lt;H25,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -12109,7 +13283,7 @@
       </c>
       <c r="K23" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>40.627389867970344</v>
+        <v>74.58337435359141</v>
       </c>
       <c r="L23" s="35" t="str">
         <f ca="1">IF(K23&lt;=C23, IF(K23&lt;H22,$A$2,IF(K23&lt;H23,$A$3, IF(K23&lt;H24,$A$4, IF(K23&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -12150,7 +13324,7 @@
       </c>
       <c r="K24" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>43.425923292676117</v>
+        <v>41.512819806661341</v>
       </c>
       <c r="L24" s="35" t="str">
         <f ca="1">IF(K24&lt;=C24, IF(K24&lt;H22,$A$2,IF(K24&lt;H23,$A$3, IF(K24&lt;H24,$A$4, IF(K24&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -12191,7 +13365,7 @@
       </c>
       <c r="K25" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>15.087051406669206</v>
+        <v>43.166649950104329</v>
       </c>
       <c r="L25" s="35" t="str">
         <f ca="1">IF(K25&lt;=C25, IF(K25&lt;H22,$A$2,IF(K25&lt;H23,$A$3, IF(K25&lt;H24,$A$4, IF(K25&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -12234,7 +13408,7 @@
       <c r="J26" s="35"/>
       <c r="K26" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>44.423557089775123</v>
+        <v>94.095214766390569</v>
       </c>
       <c r="L26" s="35" t="str">
         <f ca="1">IF(K26&lt;=C26, IF(K26&lt;H26,$A$2,IF(K26&lt;H27,$A$3, IF(K26&lt;H28,$A$4, IF(K26&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -12285,11 +13459,11 @@
       <c r="J27" s="35"/>
       <c r="K27" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0653994313477746</v>
+        <v>58.75307829524251</v>
       </c>
       <c r="L27" s="35" t="str">
         <f ca="1">IF(K27&lt;=C27, IF(K27&lt;H26,$A$2,IF(K27&lt;H27,$A$3, IF(K27&lt;H28,$A$4, IF(K27&lt;H29,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
@@ -12336,7 +13510,7 @@
       <c r="J28" s="35"/>
       <c r="K28" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>50.621282313082638</v>
+        <v>66.023382654347657</v>
       </c>
       <c r="L28" s="35" t="str">
         <f ca="1">IF(K28&lt;=C28, IF(K28&lt;H26,$A$2,IF(K28&lt;H27,$A$3, IF(K28&lt;H28,$A$4, IF(K28&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -12387,7 +13561,7 @@
       <c r="J29" s="35"/>
       <c r="K29" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>90.931280267506793</v>
+        <v>90.623878681513105</v>
       </c>
       <c r="L29" s="35" t="str">
         <f ca="1">IF(K29&lt;=C29, IF(K29&lt;H26,$A$2,IF(K29&lt;H27,$A$3, IF(K29&lt;H28,$A$4, IF(K29&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -12436,7 +13610,7 @@
       </c>
       <c r="K30" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>60.972478071193159</v>
+        <v>75.379054198636325</v>
       </c>
       <c r="L30" s="35" t="str">
         <f ca="1">IF(K30&lt;=C30, IF(K30&lt;H30,$A$2,IF(K30&lt;H31,$A$3, IF(K30&lt;H32,$A$4, IF(K30&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -12477,7 +13651,7 @@
       </c>
       <c r="K31" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>46.941927628404642</v>
+        <v>53.969815685596444</v>
       </c>
       <c r="L31" s="35" t="str">
         <f ca="1">IF(K31&lt;=C31, IF(K31&lt;H30,$A$2,IF(K31&lt;H31,$A$3, IF(K31&lt;H32,$A$4, IF(K31&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -12518,7 +13692,7 @@
       </c>
       <c r="K32" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>67.861179862688601</v>
+        <v>82.918993804243669</v>
       </c>
       <c r="L32" s="35" t="str">
         <f ca="1">IF(K32&lt;=C32, IF(K32&lt;H30,$A$2,IF(K32&lt;H31,$A$3, IF(K32&lt;H32,$A$4, IF(K32&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -12559,7 +13733,7 @@
       </c>
       <c r="K33" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>45.997420552303502</v>
+        <v>25.053530915436916</v>
       </c>
       <c r="L33" s="35" t="str">
         <f ca="1">IF(K33&lt;=C33, IF(K33&lt;H30,$A$2,IF(K33&lt;H31,$A$3, IF(K33&lt;H32,$A$4, IF(K33&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -12602,11 +13776,11 @@
       <c r="J34" s="35"/>
       <c r="K34" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74843108651728718</v>
+        <v>68.390551615769866</v>
       </c>
       <c r="L34" s="35" t="str">
         <f ca="1">IF(K34&lt;=C34, IF(K34&lt;H34,$A$2,IF(K34&lt;H35,$A$3, IF(K34&lt;H36,$A$4, IF(K34&lt;H37,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
@@ -12653,7 +13827,7 @@
       <c r="J35" s="35"/>
       <c r="K35" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>90.168832176300455</v>
+        <v>32.822730744044279</v>
       </c>
       <c r="L35" s="35" t="str">
         <f ca="1">IF(K35&lt;=C35, IF(K35&lt;H34,$A$2,IF(K35&lt;H35,$A$3, IF(K35&lt;H36,$A$4, IF(K35&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -12704,7 +13878,7 @@
       <c r="J36" s="35"/>
       <c r="K36" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>46.454718832302419</v>
+        <v>17.59363796605582</v>
       </c>
       <c r="L36" s="35" t="str">
         <f ca="1">IF(K36&lt;=C36, IF(K36&lt;H34,$A$2,IF(K36&lt;H35,$A$3, IF(K36&lt;H36,$A$4, IF(K36&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -12755,7 +13929,7 @@
       <c r="J37" s="35"/>
       <c r="K37" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>74.579842246889015</v>
+        <v>76.980731530617248</v>
       </c>
       <c r="L37" s="35" t="str">
         <f ca="1">IF(K37&lt;=C37, IF(K37&lt;H34,$A$2,IF(K37&lt;H35,$A$3, IF(K37&lt;H36,$A$4, IF(K37&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -12804,7 +13978,7 @@
       </c>
       <c r="K38" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>40.034960537304961</v>
+        <v>83.044595331647315</v>
       </c>
       <c r="L38" s="35" t="str">
         <f ca="1">IF(K38&lt;=C38, IF(K38&lt;H38,$A$2,IF(K38&lt;H39,$A$3, IF(K38&lt;H40,$A$4, IF(K38&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -12845,7 +14019,7 @@
       </c>
       <c r="K39" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>79.690929262440662</v>
+        <v>80.015964650361113</v>
       </c>
       <c r="L39" s="35" t="str">
         <f ca="1">IF(K39&lt;=C39, IF(K39&lt;H38,$A$2,IF(K39&lt;H39,$A$3, IF(K39&lt;H40,$A$4, IF(K39&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -12886,7 +14060,7 @@
       </c>
       <c r="K40" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>73.370994999687085</v>
+        <v>60.902232713623604</v>
       </c>
       <c r="L40" s="35" t="str">
         <f ca="1">IF(K40&lt;=C40, IF(K40&lt;H38,$A$2,IF(K40&lt;H39,$A$3, IF(K40&lt;H40,$A$4, IF(K40&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -12927,11 +14101,11 @@
       </c>
       <c r="K41" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>16.810589128119236</v>
+        <v>2.4624994756241692</v>
       </c>
       <c r="L41" s="35" t="str">
         <f ca="1">IF(K41&lt;=C41, IF(K41&lt;H38,$A$2,IF(K41&lt;H39,$A$3, IF(K41&lt;H40,$A$4, IF(K41&lt;H41,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -12970,7 +14144,7 @@
       <c r="J42" s="35"/>
       <c r="K42" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>41.460810056021892</v>
+        <v>93.896350427431969</v>
       </c>
       <c r="L42" s="35" t="str">
         <f ca="1">IF(K42&lt;=C42, IF(K42&lt;H42,$A$2,IF(K42&lt;H43,$A$3, IF(K42&lt;H44,$A$4, IF(K42&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -13021,7 +14195,7 @@
       <c r="J43" s="35"/>
       <c r="K43" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>35.774695490969691</v>
+        <v>48.23751464197337</v>
       </c>
       <c r="L43" s="35" t="str">
         <f ca="1">IF(K43&lt;=C43, IF(K43&lt;H42,$A$2,IF(K43&lt;H43,$A$3, IF(K43&lt;H44,$A$4, IF(K43&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -13072,7 +14246,7 @@
       <c r="J44" s="35"/>
       <c r="K44" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>28.171247386931341</v>
+        <v>31.386048413660607</v>
       </c>
       <c r="L44" s="35" t="str">
         <f ca="1">IF(K44&lt;=C44, IF(K44&lt;H42,$A$2,IF(K44&lt;H43,$A$3, IF(K44&lt;H44,$A$4, IF(K44&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -13123,11 +14297,11 @@
       <c r="J45" s="35"/>
       <c r="K45" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>31.636035014814667</v>
+        <v>7.8072932664475463</v>
       </c>
       <c r="L45" s="35" t="str">
         <f ca="1">IF(K45&lt;=C45, IF(K45&lt;H42,$A$2,IF(K45&lt;H43,$A$3, IF(K45&lt;H44,$A$4, IF(K45&lt;H45,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
@@ -13172,7 +14346,7 @@
       </c>
       <c r="K46" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>97.138336969459388</v>
+        <v>68.205771371086712</v>
       </c>
       <c r="L46" s="35" t="str">
         <f ca="1">IF(K46&lt;=C46, IF(K46&lt;H46,$A$2,IF(K46&lt;H47,$A$3, IF(K46&lt;H48,$A$4, IF(K46&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -13213,11 +14387,11 @@
       </c>
       <c r="K47" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1279947465478011</v>
+        <v>90.342781059090044</v>
       </c>
       <c r="L47" s="35" t="str">
         <f ca="1">IF(K47&lt;=C47, IF(K47&lt;H46,$A$2,IF(K47&lt;H47,$A$3, IF(K47&lt;H48,$A$4, IF(K47&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -13254,11 +14428,11 @@
       </c>
       <c r="K48" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1562745271727088</v>
+        <v>60.400171554827118</v>
       </c>
       <c r="L48" s="35" t="str">
         <f ca="1">IF(K48&lt;=C48, IF(K48&lt;H46,$A$2,IF(K48&lt;H47,$A$3, IF(K48&lt;H48,$A$4, IF(K48&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -13295,11 +14469,11 @@
       </c>
       <c r="K49" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>11.74900823538978</v>
+        <v>69.991332517871527</v>
       </c>
       <c r="L49" s="35" t="str">
         <f ca="1">IF(K49&lt;=C49, IF(K49&lt;H46,$A$2,IF(K49&lt;H47,$A$3, IF(K49&lt;H48,$A$4, IF(K49&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -13338,11 +14512,11 @@
       <c r="J50" s="35"/>
       <c r="K50" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>53.567559550931691</v>
+        <v>3.8988526007197266</v>
       </c>
       <c r="L50" s="35" t="str">
         <f ca="1">IF(K50&lt;=C50, IF(K50&lt;H50,$A$2,IF(K50&lt;H51,$A$3, IF(K50&lt;H52,$A$4, IF(K50&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
@@ -13389,11 +14563,11 @@
       <c r="J51" s="35"/>
       <c r="K51" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>98.201704456906043</v>
+        <v>19.809435987801706</v>
       </c>
       <c r="L51" s="35" t="str">
         <f ca="1">IF(K51&lt;=C51, IF(K51&lt;H50,$A$2,IF(K51&lt;H51,$A$3, IF(K51&lt;H52,$A$4, IF(K51&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
@@ -13440,11 +14614,11 @@
       <c r="J52" s="35"/>
       <c r="K52" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>41.569631908821812</v>
+        <v>14.606932655622485</v>
       </c>
       <c r="L52" s="35" t="str">
         <f ca="1">IF(K52&lt;=C52, IF(K52&lt;H50,$A$2,IF(K52&lt;H51,$A$3, IF(K52&lt;H52,$A$4, IF(K52&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
@@ -13491,7 +14665,7 @@
       <c r="J53" s="35"/>
       <c r="K53" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>68.35521092916143</v>
+        <v>45.847824867490885</v>
       </c>
       <c r="L53" s="35" t="str">
         <f ca="1">IF(K53&lt;=C53, IF(K53&lt;H50,$A$2,IF(K53&lt;H51,$A$3, IF(K53&lt;H52,$A$4, IF(K53&lt;H53,$A$5, "NONE")))), "NONE")</f>
@@ -13540,7 +14714,7 @@
       </c>
       <c r="K54" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>98.234363741717999</v>
+        <v>26.452001470346687</v>
       </c>
       <c r="L54" s="35" t="str">
         <f ca="1">IF(K54&lt;=C54, IF(K54&lt;H54,$A$2,IF(K54&lt;H55,$A$3, IF(K54&lt;H56,$A$4, IF(K54&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -13581,7 +14755,7 @@
       </c>
       <c r="K55" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>63.653896279913226</v>
+        <v>82.005746218630762</v>
       </c>
       <c r="L55" s="35" t="str">
         <f ca="1">IF(K55&lt;=C55, IF(K55&lt;H54,$A$2,IF(K55&lt;H55,$A$3, IF(K55&lt;H56,$A$4, IF(K55&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -13622,7 +14796,7 @@
       </c>
       <c r="K56" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>98.804983846303926</v>
+        <v>32.027953677662566</v>
       </c>
       <c r="L56" s="35" t="str">
         <f ca="1">IF(K56&lt;=C56, IF(K56&lt;H54,$A$2,IF(K56&lt;H55,$A$3, IF(K56&lt;H56,$A$4, IF(K56&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -13663,7 +14837,7 @@
       </c>
       <c r="K57" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>50.305871183046044</v>
+        <v>37.976092313813794</v>
       </c>
       <c r="L57" s="35" t="str">
         <f ca="1">IF(K57&lt;=C57, IF(K57&lt;H54,$A$2,IF(K57&lt;H55,$A$3, IF(K57&lt;H56,$A$4, IF(K57&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -13706,11 +14880,11 @@
       <c r="J58" s="35"/>
       <c r="K58" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>99.216662400152657</v>
+        <v>20.829877803285225</v>
       </c>
       <c r="L58" s="35" t="str">
         <f ca="1">IF(K58&lt;=C58, IF(K58&lt;H58,$A$2,IF(K58&lt;H59,$A$3, IF(K58&lt;H60,$A$4, IF(K58&lt;H61,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -13757,7 +14931,7 @@
       <c r="J59" s="35"/>
       <c r="K59" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>42.966343818369999</v>
+        <v>98.84308870615051</v>
       </c>
       <c r="L59" s="35" t="str">
         <f ca="1">IF(K59&lt;=C59, IF(K59&lt;H58,$A$2,IF(K59&lt;H59,$A$3, IF(K59&lt;H60,$A$4, IF(K59&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -13808,11 +14982,11 @@
       <c r="J60" s="35"/>
       <c r="K60" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>85.457314150708655</v>
+        <v>27.026349493341005</v>
       </c>
       <c r="L60" s="35" t="str">
         <f ca="1">IF(K60&lt;=C60, IF(K60&lt;H58,$A$2,IF(K60&lt;H59,$A$3, IF(K60&lt;H60,$A$4, IF(K60&lt;H61,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
@@ -13859,11 +15033,11 @@
       <c r="J61" s="35"/>
       <c r="K61" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>22.749052776800692</v>
+        <v>4.5172055271213711</v>
       </c>
       <c r="L61" s="35" t="str">
         <f ca="1">IF(K61&lt;=C61, IF(K61&lt;H58,$A$2,IF(K61&lt;H59,$A$3, IF(K61&lt;H60,$A$4, IF(K61&lt;H61,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
@@ -13908,11 +15082,11 @@
       </c>
       <c r="K62" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3114850954216717</v>
+        <v>15.561564373585068</v>
       </c>
       <c r="L62" s="35" t="str">
         <f ca="1">IF(K62&lt;=C62, IF(K62&lt;H62,$A$2,IF(K62&lt;H63,$A$3, IF(K62&lt;H64,$A$4, IF(K62&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -13949,7 +15123,7 @@
       </c>
       <c r="K63" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>82.808432403524478</v>
+        <v>97.985245522748571</v>
       </c>
       <c r="L63" s="35" t="str">
         <f ca="1">IF(K63&lt;=C63, IF(K63&lt;H62,$A$2,IF(K63&lt;H63,$A$3, IF(K63&lt;H64,$A$4, IF(K63&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -13990,11 +15164,11 @@
       </c>
       <c r="K64" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>11.413952670328619</v>
+        <v>89.2329653494848</v>
       </c>
       <c r="L64" s="35" t="str">
         <f ca="1">IF(K64&lt;=C64, IF(K64&lt;H62,$A$2,IF(K64&lt;H63,$A$3, IF(K64&lt;H64,$A$4, IF(K64&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -14031,7 +15205,7 @@
       </c>
       <c r="K65" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>85.182544744268995</v>
+        <v>48.848920213878891</v>
       </c>
       <c r="L65" s="35" t="str">
         <f ca="1">IF(K65&lt;=C65, IF(K65&lt;H62,$A$2,IF(K65&lt;H63,$A$3, IF(K65&lt;H64,$A$4, IF(K65&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -14074,11 +15248,11 @@
       <c r="J66" s="35"/>
       <c r="K66" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>78.36853651878009</v>
+        <v>19.641759785728286</v>
       </c>
       <c r="L66" s="35" t="str">
         <f ca="1">IF(K66&lt;=C66, IF(K66&lt;H66,$A$2,IF(K66&lt;H67,$A$3, IF(K66&lt;H68,$A$4, IF(K66&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -14125,11 +15299,11 @@
       <c r="J67" s="35"/>
       <c r="K67" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>18.849103939085531</v>
+        <v>1.4265720323056952</v>
       </c>
       <c r="L67" s="35" t="str">
         <f ca="1">IF(K67&lt;=C67, IF(K67&lt;H66,$A$2,IF(K67&lt;H67,$A$3, IF(K67&lt;H68,$A$4, IF(K67&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M67" s="35"/>
       <c r="N67" s="35"/>
@@ -14176,7 +15350,7 @@
       <c r="J68" s="35"/>
       <c r="K68" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>50.88635407735039</v>
+        <v>56.339899270632529</v>
       </c>
       <c r="L68" s="35" t="str">
         <f ca="1">IF(K68&lt;=C68, IF(K68&lt;H66,$A$2,IF(K68&lt;H67,$A$3, IF(K68&lt;H68,$A$4, IF(K68&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -14227,11 +15401,11 @@
       <c r="J69" s="35"/>
       <c r="K69" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>67.833584051625863</v>
+        <v>20.680206214385944</v>
       </c>
       <c r="L69" s="35" t="str">
         <f ca="1">IF(K69&lt;=C69, IF(K69&lt;H66,$A$2,IF(K69&lt;H67,$A$3, IF(K69&lt;H68,$A$4, IF(K69&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
@@ -14277,7 +15451,7 @@
       </c>
       <c r="K70" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>91.779069427208924</v>
+        <v>78.512307379169201</v>
       </c>
       <c r="L70" s="35" t="str">
         <f ca="1">IF(K70&lt;=C70, IF(K70&lt;H70,$A$2,IF(K70&lt;H71,$A$3, IF(K70&lt;H72,$A$4, IF(K70&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -14319,7 +15493,7 @@
       </c>
       <c r="K71" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>37.319146562218108</v>
+        <v>76.017605079754986</v>
       </c>
       <c r="L71" s="35" t="str">
         <f ca="1">IF(K71&lt;=C71, IF(K71&lt;H70,$A$2,IF(K71&lt;H71,$A$3, IF(K71&lt;H72,$A$4, IF(K71&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -14361,11 +15535,11 @@
       </c>
       <c r="K72" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>25.643080688989272</v>
+        <v>36.483776844686879</v>
       </c>
       <c r="L72" s="35" t="str">
         <f ca="1">IF(K72&lt;=C72, IF(K72&lt;H70,$A$2,IF(K72&lt;H71,$A$3, IF(K72&lt;H72,$A$4, IF(K72&lt;H73,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -14403,11 +15577,11 @@
       </c>
       <c r="K73" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>95.36534081058106</v>
+        <v>19.779374422042608</v>
       </c>
       <c r="L73" s="35" t="str">
         <f ca="1">IF(K73&lt;=C73, IF(K73&lt;H70,$A$2,IF(K73&lt;H71,$A$3, IF(K73&lt;H72,$A$4, IF(K73&lt;H73,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -14447,7 +15621,7 @@
       <c r="J74" s="35"/>
       <c r="K74" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>47.582646124561464</v>
+        <v>55.836214590626966</v>
       </c>
       <c r="L74" s="35" t="str">
         <f ca="1">IF(K74&lt;=C74, IF(K74&lt;H74,$A$2,IF(K74&lt;H75,$A$3, IF(K74&lt;H76,$A$4, IF(K74&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -14499,7 +15673,7 @@
       <c r="J75" s="35"/>
       <c r="K75" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>82.446377175676233</v>
+        <v>93.133218896823493</v>
       </c>
       <c r="L75" s="35" t="str">
         <f ca="1">IF(K75&lt;=C75, IF(K75&lt;H74,$A$2,IF(K75&lt;H75,$A$3, IF(K75&lt;H76,$A$4, IF(K75&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -14551,11 +15725,11 @@
       <c r="J76" s="35"/>
       <c r="K76" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>36.078679896809021</v>
+        <v>7.0336306543318123</v>
       </c>
       <c r="L76" s="35" t="str">
         <f ca="1">IF(K76&lt;=C76, IF(K76&lt;H74,$A$2,IF(K76&lt;H75,$A$3, IF(K76&lt;H76,$A$4, IF(K76&lt;H77,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
@@ -14603,7 +15777,7 @@
       <c r="J77" s="35"/>
       <c r="K77" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>79.772627733446299</v>
+        <v>86.092411938827809</v>
       </c>
       <c r="L77" s="35" t="str">
         <f ca="1">IF(K77&lt;=C77, IF(K77&lt;H74,$A$2,IF(K77&lt;H75,$A$3, IF(K77&lt;H76,$A$4, IF(K77&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -14653,7 +15827,7 @@
       </c>
       <c r="K78" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>88.769468079733528</v>
+        <v>89.716922935198198</v>
       </c>
       <c r="L78" s="35" t="str">
         <f ca="1">IF(K78&lt;=C78, IF(K78&lt;H78,$A$2,IF(K78&lt;H79,$A$3, IF(K78&lt;H80,$A$4, IF(K78&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -14695,11 +15869,11 @@
       </c>
       <c r="K79" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>13.310951578068785</v>
+        <v>78.843987380361597</v>
       </c>
       <c r="L79" s="35" t="str">
         <f ca="1">IF(K79&lt;=C79, IF(K79&lt;H78,$A$2,IF(K79&lt;H79,$A$3, IF(K79&lt;H80,$A$4, IF(K79&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -14737,11 +15911,11 @@
       </c>
       <c r="K80" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>63.110069508008202</v>
+        <v>22.529525951211539</v>
       </c>
       <c r="L80" s="35" t="str">
         <f ca="1">IF(K80&lt;=C80, IF(K80&lt;H78,$A$2,IF(K80&lt;H79,$A$3, IF(K80&lt;H80,$A$4, IF(K80&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -14779,7 +15953,7 @@
       </c>
       <c r="K81" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>71.066265626612079</v>
+        <v>42.62705963634825</v>
       </c>
       <c r="L81" s="35" t="str">
         <f ca="1">IF(K81&lt;=C81, IF(K81&lt;H78,$A$2,IF(K81&lt;H79,$A$3, IF(K81&lt;H80,$A$4, IF(K81&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -14823,7 +15997,7 @@
       <c r="J82" s="35"/>
       <c r="K82" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>40.222316575841752</v>
+        <v>42.588145992939076</v>
       </c>
       <c r="L82" s="35" t="str">
         <f ca="1">IF(K82&lt;=C82, IF(K82&lt;H82,$A$2,IF(K82&lt;H83,$A$3, IF(K82&lt;H84,$A$4, IF(K82&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -14875,7 +16049,7 @@
       <c r="J83" s="35"/>
       <c r="K83" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>53.194900699784412</v>
+        <v>75.360378622884284</v>
       </c>
       <c r="L83" s="35" t="str">
         <f ca="1">IF(K83&lt;=C83, IF(K83&lt;H82,$A$2,IF(K83&lt;H83,$A$3, IF(K83&lt;H84,$A$4, IF(K83&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -14927,11 +16101,11 @@
       <c r="J84" s="35"/>
       <c r="K84" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>95.1317729147855</v>
+        <v>13.022674133697443</v>
       </c>
       <c r="L84" s="35" t="str">
         <f ca="1">IF(K84&lt;=C84, IF(K84&lt;H82,$A$2,IF(K84&lt;H83,$A$3, IF(K84&lt;H84,$A$4, IF(K84&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
@@ -14979,11 +16153,11 @@
       <c r="J85" s="35"/>
       <c r="K85" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>27.605378017427672</v>
+        <v>92.092092930985658</v>
       </c>
       <c r="L85" s="35" t="str">
         <f ca="1">IF(K85&lt;=C85, IF(K85&lt;H82,$A$2,IF(K85&lt;H83,$A$3, IF(K85&lt;H84,$A$4, IF(K85&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M85" s="35"/>
       <c r="N85" s="35"/>
@@ -15029,7 +16203,7 @@
       </c>
       <c r="K86" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>48.002292350192654</v>
+        <v>79.875967404616262</v>
       </c>
       <c r="L86" s="35" t="str">
         <f ca="1">IF(K86&lt;=C86, IF(K86&lt;H86,$A$2,IF(K86&lt;H87,$A$3, IF(K86&lt;H88,$A$4, IF(K86&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -15071,11 +16245,11 @@
       </c>
       <c r="K87" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>46.088245089125749</v>
+        <v>11.774025974760693</v>
       </c>
       <c r="L87" s="35" t="str">
         <f ca="1">IF(K87&lt;=C87, IF(K87&lt;H86,$A$2,IF(K87&lt;H87,$A$3, IF(K87&lt;H88,$A$4, IF(K87&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -15113,7 +16287,7 @@
       </c>
       <c r="K88" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>22.390541574329049</v>
+        <v>27.005543321103097</v>
       </c>
       <c r="L88" s="35" t="str">
         <f ca="1">IF(K88&lt;=C88, IF(K88&lt;H86,$A$2,IF(K88&lt;H87,$A$3, IF(K88&lt;H88,$A$4, IF(K88&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -15155,11 +16329,11 @@
       </c>
       <c r="K89" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>81.688727914057012</v>
+        <v>27.480348042268375</v>
       </c>
       <c r="L89" s="35" t="str">
         <f ca="1">IF(K89&lt;=C89, IF(K89&lt;H86,$A$2,IF(K89&lt;H87,$A$3, IF(K89&lt;H88,$A$4, IF(K89&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -15199,7 +16373,7 @@
       <c r="J90" s="35"/>
       <c r="K90" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>41.116801566162088</v>
+        <v>33.920285506116542</v>
       </c>
       <c r="L90" s="35" t="str">
         <f ca="1">IF(K90&lt;=C90, IF(K90&lt;H90,$A$2,IF(K90&lt;H91,$A$3, IF(K90&lt;H92,$A$4, IF(K90&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -15251,7 +16425,7 @@
       <c r="J91" s="35"/>
       <c r="K91" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>86.957271921967177</v>
+        <v>45.381792150743784</v>
       </c>
       <c r="L91" s="35" t="str">
         <f ca="1">IF(K91&lt;=C91, IF(K91&lt;H90,$A$2,IF(K91&lt;H91,$A$3, IF(K91&lt;H92,$A$4, IF(K91&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -15303,7 +16477,7 @@
       <c r="J92" s="35"/>
       <c r="K92" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>58.192755377375448</v>
+        <v>64.258883586885162</v>
       </c>
       <c r="L92" s="35" t="str">
         <f ca="1">IF(K92&lt;=C92, IF(K92&lt;H90,$A$2,IF(K92&lt;H91,$A$3, IF(K92&lt;H92,$A$4, IF(K92&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -15355,11 +16529,11 @@
       <c r="J93" s="35"/>
       <c r="K93" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2854751368278574</v>
+        <v>83.792809892480591</v>
       </c>
       <c r="L93" s="35" t="str">
         <f ca="1">IF(K93&lt;=C93, IF(K93&lt;H90,$A$2,IF(K93&lt;H91,$A$3, IF(K93&lt;H92,$A$4, IF(K93&lt;H93,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M93" s="35"/>
       <c r="N93" s="35"/>
@@ -15405,11 +16579,11 @@
       </c>
       <c r="K94" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>95.317778968474443</v>
+        <v>8.0134780744317133</v>
       </c>
       <c r="L94" s="35" t="str">
         <f ca="1">IF(K94&lt;=C94, IF(K94&lt;H94,$A$2,IF(K94&lt;H95,$A$3, IF(K94&lt;H96,$A$4, IF(K94&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -15447,11 +16621,11 @@
       </c>
       <c r="K95" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>20.951246855510284</v>
+        <v>97.948288898331484</v>
       </c>
       <c r="L95" s="35" t="str">
         <f ca="1">IF(K95&lt;=C95, IF(K95&lt;H94,$A$2,IF(K95&lt;H95,$A$3, IF(K95&lt;H96,$A$4, IF(K95&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -15489,7 +16663,7 @@
       </c>
       <c r="K96" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>31.579243580975312</v>
+        <v>31.204883313318522</v>
       </c>
       <c r="L96" s="35" t="str">
         <f ca="1">IF(K96&lt;=C96, IF(K96&lt;H94,$A$2,IF(K96&lt;H95,$A$3, IF(K96&lt;H96,$A$4, IF(K96&lt;H97,$A$5, "NONE")))), "NONE")</f>
@@ -15531,11 +16705,11 @@
       </c>
       <c r="K97" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>93.006224507728717</v>
+        <v>15.617169027524803</v>
       </c>
       <c r="L97" s="35" t="str">
         <f ca="1">IF(K97&lt;=C97, IF(K97&lt;H94,$A$2,IF(K97&lt;H95,$A$3, IF(K97&lt;H96,$A$4, IF(K97&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">

--- a/dev/Items.xlsx
+++ b/dev/Items.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\Warcraft III\Maps\Zulaman-WE\dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12360" activeTab="3"/>
   </bookViews>
@@ -16,12 +21,12 @@
     <sheet name="BossLoot" sheetId="10" r:id="rId7"/>
     <sheet name="MinionLoot" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="717">
   <si>
     <t>概率</t>
   </si>
@@ -2151,12 +2156,33 @@
   </si>
   <si>
     <t>在命中目标以后，吸取造成伤害10%的生命值和法力值。（等级3解锁）</t>
+  </si>
+  <si>
+    <t>神圣月光之剑</t>
+  </si>
+  <si>
+    <t>命中：吸取造成伤害10%的法力值。</t>
+  </si>
+  <si>
+    <t>命中：有一定几率消耗5%的法力值，向前方释放一道月光波，对直线上的敌人造成法术伤害伤害。</t>
+  </si>
+  <si>
+    <t>命中：造成法术伤害。</t>
+  </si>
+  <si>
+    <t>每第三次普通攻击：消耗5%的法力值，引爆月光，对范围内的目标造成法术伤害。</t>
+  </si>
+  <si>
+    <t>+200生命上限</t>
+  </si>
+  <si>
+    <t>“圣剑路德维希”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2350,7 +2376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2515,6 +2541,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2641,7 +2668,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="image23.png"/>
+        <xdr:cNvPr id="9" name="image23.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2678,7 +2711,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image06.png"/>
+        <xdr:cNvPr id="10" name="image06.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2715,7 +2754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image03.png"/>
+        <xdr:cNvPr id="11" name="image03.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2752,7 +2797,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image10.png"/>
+        <xdr:cNvPr id="12" name="image10.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2789,7 +2840,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="image11.png"/>
+        <xdr:cNvPr id="13" name="image11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2826,7 +2883,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="image47.png"/>
+        <xdr:cNvPr id="14" name="image47.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2863,7 +2926,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="image08.png"/>
+        <xdr:cNvPr id="15" name="image08.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2900,7 +2969,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image14.png"/>
+        <xdr:cNvPr id="16" name="image14.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2937,7 +3012,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="image09.png"/>
+        <xdr:cNvPr id="17" name="image09.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2974,7 +3055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image12.png"/>
+        <xdr:cNvPr id="18" name="image12.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3011,7 +3098,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="image29.png"/>
+        <xdr:cNvPr id="19" name="image29.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3048,7 +3141,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="image13.png"/>
+        <xdr:cNvPr id="20" name="image13.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3085,7 +3184,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="image17.png"/>
+        <xdr:cNvPr id="21" name="image17.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3122,7 +3227,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image16.png"/>
+        <xdr:cNvPr id="22" name="image16.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3159,7 +3270,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image15.png"/>
+        <xdr:cNvPr id="23" name="image15.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3196,7 +3313,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="image18.png"/>
+        <xdr:cNvPr id="24" name="image18.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3233,7 +3356,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="image19.png"/>
+        <xdr:cNvPr id="25" name="image19.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3270,7 +3399,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="image48.png"/>
+        <xdr:cNvPr id="26" name="image48.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3307,7 +3442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="image21.png"/>
+        <xdr:cNvPr id="27" name="image21.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3344,7 +3485,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="image45.png"/>
+        <xdr:cNvPr id="28" name="image45.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3381,7 +3528,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="image24.png"/>
+        <xdr:cNvPr id="29" name="image24.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3418,7 +3571,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="image22.png"/>
+        <xdr:cNvPr id="30" name="image22.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3455,7 +3614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="image25.png"/>
+        <xdr:cNvPr id="31" name="image25.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3492,7 +3657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="image26.png"/>
+        <xdr:cNvPr id="32" name="image26.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3529,7 +3700,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="image28.png"/>
+        <xdr:cNvPr id="33" name="image28.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3566,7 +3743,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="image27.png"/>
+        <xdr:cNvPr id="34" name="image27.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3603,7 +3786,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="image30.png"/>
+        <xdr:cNvPr id="35" name="image30.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3640,7 +3829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="image41.png"/>
+        <xdr:cNvPr id="36" name="image41.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3677,7 +3872,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="image31.png"/>
+        <xdr:cNvPr id="37" name="image31.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3714,7 +3915,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="image32.png"/>
+        <xdr:cNvPr id="38" name="image32.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3751,7 +3958,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="image34.png"/>
+        <xdr:cNvPr id="39" name="image34.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3788,7 +4001,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="image33.png"/>
+        <xdr:cNvPr id="40" name="image33.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3825,7 +4044,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="image35.png"/>
+        <xdr:cNvPr id="41" name="image35.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3862,7 +4087,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="image36.gif" title="Image"/>
+        <xdr:cNvPr id="42" name="image36.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3899,7 +4130,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="image37.gif" title="Image"/>
+        <xdr:cNvPr id="43" name="image37.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3936,7 +4173,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="image38.gif" title="Image"/>
+        <xdr:cNvPr id="44" name="image38.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3973,7 +4216,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="image39.gif" title="Image"/>
+        <xdr:cNvPr id="45" name="image39.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4010,7 +4259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="image46.gif" title="Image"/>
+        <xdr:cNvPr id="46" name="image46.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4047,7 +4302,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="image40.gif" title="Image"/>
+        <xdr:cNvPr id="47" name="image40.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4084,7 +4345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="image42.gif" title="Image"/>
+        <xdr:cNvPr id="48" name="image42.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4121,7 +4388,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="image43.gif" title="Image"/>
+        <xdr:cNvPr id="49" name="image43.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4158,7 +4431,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="image44.gif" title="Image"/>
+        <xdr:cNvPr id="50" name="image44.gif" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4195,7 +4474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="image01.png"/>
+        <xdr:cNvPr id="51" name="image01.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4232,7 +4517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="image04.png"/>
+        <xdr:cNvPr id="52" name="image04.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4269,7 +4560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="image05.png"/>
+        <xdr:cNvPr id="53" name="image05.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4306,7 +4603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="image07.png"/>
+        <xdr:cNvPr id="54" name="image07.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4343,7 +4646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="image20.png"/>
+        <xdr:cNvPr id="55" name="image20.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4380,7 +4689,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="image00.png"/>
+        <xdr:cNvPr id="56" name="image00.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4417,7 +4732,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="image02.png"/>
+        <xdr:cNvPr id="57" name="image02.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4731,7 +5052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7539,8 +7860,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8554,7 +8875,9 @@
       <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="11"/>
+      <c r="A111" s="72" t="s">
+        <v>710</v>
+      </c>
       <c r="B111" s="3"/>
       <c r="C111" s="64"/>
       <c r="D111" s="11"/>
@@ -8568,49 +8891,63 @@
       <c r="E112" s="11"/>
     </row>
     <row r="113" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="11"/>
+      <c r="A113" s="64" t="s">
+        <v>407</v>
+      </c>
       <c r="B113" s="3"/>
       <c r="C113" s="64"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="11"/>
+      <c r="A114" s="64" t="s">
+        <v>715</v>
+      </c>
       <c r="B114" s="3"/>
       <c r="C114" s="64"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
     </row>
-    <row r="115" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" s="77" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="70" t="s">
+        <v>713</v>
+      </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="11"/>
+      <c r="A116" s="70" t="s">
+        <v>711</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
     </row>
-    <row r="117" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="11"/>
+    <row r="117" spans="1:5" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A117" s="70" t="s">
+        <v>714</v>
+      </c>
       <c r="B117" s="3"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
     </row>
-    <row r="118" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="11"/>
+    <row r="118" spans="1:5" s="38" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="70" t="s">
+        <v>712</v>
+      </c>
       <c r="B118" s="3"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="11"/>
+      <c r="A119" s="22" t="s">
+        <v>716</v>
+      </c>
       <c r="B119" s="73"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="11"/>
       <c r="B120" s="73"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -10981,18 +11318,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="32"/>
@@ -12301,7 +12638,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="36">
         <f t="shared" ref="K2:K97" ca="1" si="2">RAND() * 100</f>
-        <v>30.977856702299931</v>
+        <v>63.605376017377012</v>
       </c>
       <c r="L2" s="35" t="str">
         <f ca="1">IF(K2&lt;=C2, IF(K2&lt;H2,$A$2,IF(K2&lt;H3,$A$3, IF(K2&lt;H4,$A$4, IF(K2&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -12353,7 +12690,7 @@
       <c r="J3" s="35"/>
       <c r="K3" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>28.55859644861556</v>
+        <v>34.675607917475979</v>
       </c>
       <c r="L3" s="35" t="str">
         <f ca="1">IF(K3&lt;=C3, IF(K3&lt;H2,$A$2,IF(K3&lt;H3,$A$3, IF(K3&lt;H4,$A$4, IF(K3&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -12405,7 +12742,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>92.994751492177429</v>
+        <v>28.538733885456892</v>
       </c>
       <c r="L4" s="35" t="str">
         <f ca="1">IF(K4&lt;=C4, IF(K4&lt;H2,$A$2,IF(K4&lt;H3,$A$3, IF(K4&lt;H4,$A$4, IF(K4&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -12457,7 +12794,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3136503683606353</v>
+        <v>61.638113724388447</v>
       </c>
       <c r="L5" s="35" t="str">
         <f ca="1">IF(K5&lt;=C5, IF(K5&lt;H2,$A$2,IF(K5&lt;H3,$A$3, IF(K5&lt;H4,$A$4, IF(K5&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -12506,7 +12843,7 @@
       </c>
       <c r="K6" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>37.287147568256593</v>
+        <v>38.663884268332453</v>
       </c>
       <c r="L6" s="35" t="str">
         <f ca="1">IF(K6&lt;=C6, IF(K6&lt;H6,$A$2,IF(K6&lt;H7,$A$3, IF(K6&lt;H8,$A$4, IF(K6&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -12547,7 +12884,7 @@
       </c>
       <c r="K7" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>91.343442103510753</v>
+        <v>45.666175902717121</v>
       </c>
       <c r="L7" s="35" t="str">
         <f ca="1">IF(K7&lt;=C7, IF(K7&lt;H6,$A$2,IF(K7&lt;H7,$A$3, IF(K7&lt;H8,$A$4, IF(K7&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -12588,11 +12925,11 @@
       </c>
       <c r="K8" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0363031230413173</v>
+        <v>94.059396542330859</v>
       </c>
       <c r="L8" s="35" t="str">
         <f ca="1">IF(K8&lt;=C8, IF(K8&lt;H6,$A$2,IF(K8&lt;H7,$A$3, IF(K8&lt;H8,$A$4, IF(K8&lt;H9,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -12629,7 +12966,7 @@
       </c>
       <c r="K9" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>91.780693588971033</v>
+        <v>74.737665897125382</v>
       </c>
       <c r="L9" s="35" t="str">
         <f ca="1">IF(K9&lt;=C9, IF(K9&lt;H6,$A$2,IF(K9&lt;H7,$A$3, IF(K9&lt;H8,$A$4, IF(K9&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -12672,7 +13009,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1525433711854145</v>
+        <v>38.508859755581511</v>
       </c>
       <c r="L10" s="35" t="str">
         <f ca="1">IF(K10&lt;=C10, IF(K10&lt;H10,$A$2,IF(K10&lt;H11,$A$3, IF(K10&lt;H12,$A$4, IF(K10&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -12723,7 +13060,7 @@
       <c r="J11" s="35"/>
       <c r="K11" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>34.067911120214433</v>
+        <v>70.074195066010816</v>
       </c>
       <c r="L11" s="35" t="str">
         <f ca="1">IF(K11&lt;=C11, IF(K11&lt;H10,$A$2,IF(K11&lt;H11,$A$3, IF(K11&lt;H12,$A$4, IF(K11&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -12774,7 +13111,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>15.855734376280072</v>
+        <v>22.80906989704118</v>
       </c>
       <c r="L12" s="35" t="str">
         <f ca="1">IF(K12&lt;=C12, IF(K12&lt;H10,$A$2,IF(K12&lt;H11,$A$3, IF(K12&lt;H12,$A$4, IF(K12&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -12825,7 +13162,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>26.331632365444126</v>
+        <v>21.001216219986961</v>
       </c>
       <c r="L13" s="35" t="str">
         <f ca="1">IF(K13&lt;=C13, IF(K13&lt;H10,$A$2,IF(K13&lt;H11,$A$3, IF(K13&lt;H12,$A$4, IF(K13&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -12874,7 +13211,7 @@
       </c>
       <c r="K14" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>16.919174750895039</v>
+        <v>15.188069535458649</v>
       </c>
       <c r="L14" s="35" t="str">
         <f ca="1">IF(K14&lt;=C14, IF(K14&lt;H14,$A$2,IF(K14&lt;H15,$A$3, IF(K14&lt;H16,$A$4, IF(K14&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -12915,7 +13252,7 @@
       </c>
       <c r="K15" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>93.085735633544658</v>
+        <v>52.290537389470792</v>
       </c>
       <c r="L15" s="35" t="str">
         <f ca="1">IF(K15&lt;=C15, IF(K15&lt;H14,$A$2,IF(K15&lt;H15,$A$3, IF(K15&lt;H16,$A$4, IF(K15&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -12956,7 +13293,7 @@
       </c>
       <c r="K16" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>84.195691248355431</v>
+        <v>15.779988645199239</v>
       </c>
       <c r="L16" s="35" t="str">
         <f ca="1">IF(K16&lt;=C16, IF(K16&lt;H14,$A$2,IF(K16&lt;H15,$A$3, IF(K16&lt;H16,$A$4, IF(K16&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -12997,11 +13334,11 @@
       </c>
       <c r="K17" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>7.250428186369029</v>
+        <v>99.989618491854529</v>
       </c>
       <c r="L17" s="35" t="str">
         <f ca="1">IF(K17&lt;=C17, IF(K17&lt;H14,$A$2,IF(K17&lt;H15,$A$3, IF(K17&lt;H16,$A$4, IF(K17&lt;H17,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -13040,7 +13377,7 @@
       <c r="J18" s="35"/>
       <c r="K18" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>41.54146680078766</v>
+        <v>71.346942859967371</v>
       </c>
       <c r="L18" s="35" t="str">
         <f ca="1">IF(K18&lt;=C18, IF(K18&lt;H18,$A$2,IF(K18&lt;H19,$A$3, IF(K18&lt;H20,$A$4, IF(K18&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -13091,11 +13428,11 @@
       <c r="J19" s="35"/>
       <c r="K19" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1727673943787318</v>
+        <v>25.687185008653568</v>
       </c>
       <c r="L19" s="35" t="str">
         <f ca="1">IF(K19&lt;=C19, IF(K19&lt;H18,$A$2,IF(K19&lt;H19,$A$3, IF(K19&lt;H20,$A$4, IF(K19&lt;H21,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -13142,7 +13479,7 @@
       <c r="J20" s="35"/>
       <c r="K20" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>35.606708079082672</v>
+        <v>9.7035430432044318</v>
       </c>
       <c r="L20" s="35" t="str">
         <f ca="1">IF(K20&lt;=C20, IF(K20&lt;H18,$A$2,IF(K20&lt;H19,$A$3, IF(K20&lt;H20,$A$4, IF(K20&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -13193,7 +13530,7 @@
       <c r="J21" s="35"/>
       <c r="K21" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>34.601509766941973</v>
+        <v>34.950388739245561</v>
       </c>
       <c r="L21" s="35" t="str">
         <f ca="1">IF(K21&lt;=C21, IF(K21&lt;H18,$A$2,IF(K21&lt;H19,$A$3, IF(K21&lt;H20,$A$4, IF(K21&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -13242,11 +13579,11 @@
       </c>
       <c r="K22" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6312805226533573</v>
+        <v>66.937939053653466</v>
       </c>
       <c r="L22" s="35" t="str">
         <f ca="1">IF(K22&lt;=C22, IF(K22&lt;H22,$A$2,IF(K22&lt;H23,$A$3, IF(K22&lt;H24,$A$4, IF(K22&lt;H25,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -13283,11 +13620,11 @@
       </c>
       <c r="K23" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>74.58337435359141</v>
+        <v>0.24203568935551312</v>
       </c>
       <c r="L23" s="35" t="str">
         <f ca="1">IF(K23&lt;=C23, IF(K23&lt;H22,$A$2,IF(K23&lt;H23,$A$3, IF(K23&lt;H24,$A$4, IF(K23&lt;H25,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RELIC</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -13324,7 +13661,7 @@
       </c>
       <c r="K24" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>41.512819806661341</v>
+        <v>53.674156990366107</v>
       </c>
       <c r="L24" s="35" t="str">
         <f ca="1">IF(K24&lt;=C24, IF(K24&lt;H22,$A$2,IF(K24&lt;H23,$A$3, IF(K24&lt;H24,$A$4, IF(K24&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -13365,7 +13702,7 @@
       </c>
       <c r="K25" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>43.166649950104329</v>
+        <v>91.299398058921327</v>
       </c>
       <c r="L25" s="35" t="str">
         <f ca="1">IF(K25&lt;=C25, IF(K25&lt;H22,$A$2,IF(K25&lt;H23,$A$3, IF(K25&lt;H24,$A$4, IF(K25&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -13408,7 +13745,7 @@
       <c r="J26" s="35"/>
       <c r="K26" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>94.095214766390569</v>
+        <v>28.915599321050344</v>
       </c>
       <c r="L26" s="35" t="str">
         <f ca="1">IF(K26&lt;=C26, IF(K26&lt;H26,$A$2,IF(K26&lt;H27,$A$3, IF(K26&lt;H28,$A$4, IF(K26&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -13459,7 +13796,7 @@
       <c r="J27" s="35"/>
       <c r="K27" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>58.75307829524251</v>
+        <v>59.796676829805619</v>
       </c>
       <c r="L27" s="35" t="str">
         <f ca="1">IF(K27&lt;=C27, IF(K27&lt;H26,$A$2,IF(K27&lt;H27,$A$3, IF(K27&lt;H28,$A$4, IF(K27&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -13510,7 +13847,7 @@
       <c r="J28" s="35"/>
       <c r="K28" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>66.023382654347657</v>
+        <v>64.40398375529135</v>
       </c>
       <c r="L28" s="35" t="str">
         <f ca="1">IF(K28&lt;=C28, IF(K28&lt;H26,$A$2,IF(K28&lt;H27,$A$3, IF(K28&lt;H28,$A$4, IF(K28&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -13561,7 +13898,7 @@
       <c r="J29" s="35"/>
       <c r="K29" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>90.623878681513105</v>
+        <v>67.553903141191768</v>
       </c>
       <c r="L29" s="35" t="str">
         <f ca="1">IF(K29&lt;=C29, IF(K29&lt;H26,$A$2,IF(K29&lt;H27,$A$3, IF(K29&lt;H28,$A$4, IF(K29&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -13610,7 +13947,7 @@
       </c>
       <c r="K30" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>75.379054198636325</v>
+        <v>26.496034900388889</v>
       </c>
       <c r="L30" s="35" t="str">
         <f ca="1">IF(K30&lt;=C30, IF(K30&lt;H30,$A$2,IF(K30&lt;H31,$A$3, IF(K30&lt;H32,$A$4, IF(K30&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -13651,7 +13988,7 @@
       </c>
       <c r="K31" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>53.969815685596444</v>
+        <v>45.45305226886304</v>
       </c>
       <c r="L31" s="35" t="str">
         <f ca="1">IF(K31&lt;=C31, IF(K31&lt;H30,$A$2,IF(K31&lt;H31,$A$3, IF(K31&lt;H32,$A$4, IF(K31&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -13692,7 +14029,7 @@
       </c>
       <c r="K32" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>82.918993804243669</v>
+        <v>84.036641330037526</v>
       </c>
       <c r="L32" s="35" t="str">
         <f ca="1">IF(K32&lt;=C32, IF(K32&lt;H30,$A$2,IF(K32&lt;H31,$A$3, IF(K32&lt;H32,$A$4, IF(K32&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -13733,11 +14070,11 @@
       </c>
       <c r="K33" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>25.053530915436916</v>
+        <v>3.8936709165100392</v>
       </c>
       <c r="L33" s="35" t="str">
         <f ca="1">IF(K33&lt;=C33, IF(K33&lt;H30,$A$2,IF(K33&lt;H31,$A$3, IF(K33&lt;H32,$A$4, IF(K33&lt;H33,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -13776,7 +14113,7 @@
       <c r="J34" s="35"/>
       <c r="K34" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>68.390551615769866</v>
+        <v>33.200877667886999</v>
       </c>
       <c r="L34" s="35" t="str">
         <f ca="1">IF(K34&lt;=C34, IF(K34&lt;H34,$A$2,IF(K34&lt;H35,$A$3, IF(K34&lt;H36,$A$4, IF(K34&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -13827,7 +14164,7 @@
       <c r="J35" s="35"/>
       <c r="K35" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>32.822730744044279</v>
+        <v>54.755747026248095</v>
       </c>
       <c r="L35" s="35" t="str">
         <f ca="1">IF(K35&lt;=C35, IF(K35&lt;H34,$A$2,IF(K35&lt;H35,$A$3, IF(K35&lt;H36,$A$4, IF(K35&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -13878,7 +14215,7 @@
       <c r="J36" s="35"/>
       <c r="K36" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>17.59363796605582</v>
+        <v>82.672382213255091</v>
       </c>
       <c r="L36" s="35" t="str">
         <f ca="1">IF(K36&lt;=C36, IF(K36&lt;H34,$A$2,IF(K36&lt;H35,$A$3, IF(K36&lt;H36,$A$4, IF(K36&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -13929,11 +14266,11 @@
       <c r="J37" s="35"/>
       <c r="K37" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>76.980731530617248</v>
+        <v>13.070042817819816</v>
       </c>
       <c r="L37" s="35" t="str">
         <f ca="1">IF(K37&lt;=C37, IF(K37&lt;H34,$A$2,IF(K37&lt;H35,$A$3, IF(K37&lt;H36,$A$4, IF(K37&lt;H37,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_COMMON</v>
       </c>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
@@ -13978,11 +14315,11 @@
       </c>
       <c r="K38" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>83.044595331647315</v>
+        <v>5.3819948763394692</v>
       </c>
       <c r="L38" s="35" t="str">
         <f ca="1">IF(K38&lt;=C38, IF(K38&lt;H38,$A$2,IF(K38&lt;H39,$A$3, IF(K38&lt;H40,$A$4, IF(K38&lt;H41,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -14019,7 +14356,7 @@
       </c>
       <c r="K39" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>80.015964650361113</v>
+        <v>39.592398443497643</v>
       </c>
       <c r="L39" s="35" t="str">
         <f ca="1">IF(K39&lt;=C39, IF(K39&lt;H38,$A$2,IF(K39&lt;H39,$A$3, IF(K39&lt;H40,$A$4, IF(K39&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -14060,7 +14397,7 @@
       </c>
       <c r="K40" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>60.902232713623604</v>
+        <v>85.207261993631562</v>
       </c>
       <c r="L40" s="35" t="str">
         <f ca="1">IF(K40&lt;=C40, IF(K40&lt;H38,$A$2,IF(K40&lt;H39,$A$3, IF(K40&lt;H40,$A$4, IF(K40&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -14101,11 +14438,11 @@
       </c>
       <c r="K41" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4624994756241692</v>
+        <v>83.934547152092065</v>
       </c>
       <c r="L41" s="35" t="str">
         <f ca="1">IF(K41&lt;=C41, IF(K41&lt;H38,$A$2,IF(K41&lt;H39,$A$3, IF(K41&lt;H40,$A$4, IF(K41&lt;H41,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -14144,11 +14481,11 @@
       <c r="J42" s="35"/>
       <c r="K42" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>93.896350427431969</v>
+        <v>3.619057945282389</v>
       </c>
       <c r="L42" s="35" t="str">
         <f ca="1">IF(K42&lt;=C42, IF(K42&lt;H42,$A$2,IF(K42&lt;H43,$A$3, IF(K42&lt;H44,$A$4, IF(K42&lt;H45,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
@@ -14195,7 +14532,7 @@
       <c r="J43" s="35"/>
       <c r="K43" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>48.23751464197337</v>
+        <v>88.308143914750787</v>
       </c>
       <c r="L43" s="35" t="str">
         <f ca="1">IF(K43&lt;=C43, IF(K43&lt;H42,$A$2,IF(K43&lt;H43,$A$3, IF(K43&lt;H44,$A$4, IF(K43&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -14246,7 +14583,7 @@
       <c r="J44" s="35"/>
       <c r="K44" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>31.386048413660607</v>
+        <v>50.49161777847462</v>
       </c>
       <c r="L44" s="35" t="str">
         <f ca="1">IF(K44&lt;=C44, IF(K44&lt;H42,$A$2,IF(K44&lt;H43,$A$3, IF(K44&lt;H44,$A$4, IF(K44&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -14297,11 +14634,11 @@
       <c r="J45" s="35"/>
       <c r="K45" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8072932664475463</v>
+        <v>1.2038926671786632</v>
       </c>
       <c r="L45" s="35" t="str">
         <f ca="1">IF(K45&lt;=C45, IF(K45&lt;H42,$A$2,IF(K45&lt;H43,$A$3, IF(K45&lt;H44,$A$4, IF(K45&lt;H45,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
@@ -14346,11 +14683,11 @@
       </c>
       <c r="K46" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>68.205771371086712</v>
+        <v>14.413936660282046</v>
       </c>
       <c r="L46" s="35" t="str">
         <f ca="1">IF(K46&lt;=C46, IF(K46&lt;H46,$A$2,IF(K46&lt;H47,$A$3, IF(K46&lt;H48,$A$4, IF(K46&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -14387,7 +14724,7 @@
       </c>
       <c r="K47" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>90.342781059090044</v>
+        <v>85.029771819652211</v>
       </c>
       <c r="L47" s="35" t="str">
         <f ca="1">IF(K47&lt;=C47, IF(K47&lt;H46,$A$2,IF(K47&lt;H47,$A$3, IF(K47&lt;H48,$A$4, IF(K47&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -14428,11 +14765,11 @@
       </c>
       <c r="K48" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>60.400171554827118</v>
+        <v>3.3080370608853382</v>
       </c>
       <c r="L48" s="35" t="str">
         <f ca="1">IF(K48&lt;=C48, IF(K48&lt;H46,$A$2,IF(K48&lt;H47,$A$3, IF(K48&lt;H48,$A$4, IF(K48&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -14469,7 +14806,7 @@
       </c>
       <c r="K49" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>69.991332517871527</v>
+        <v>64.855116066953684</v>
       </c>
       <c r="L49" s="35" t="str">
         <f ca="1">IF(K49&lt;=C49, IF(K49&lt;H46,$A$2,IF(K49&lt;H47,$A$3, IF(K49&lt;H48,$A$4, IF(K49&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -14512,11 +14849,11 @@
       <c r="J50" s="35"/>
       <c r="K50" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8988526007197266</v>
+        <v>75.588397673238276</v>
       </c>
       <c r="L50" s="35" t="str">
         <f ca="1">IF(K50&lt;=C50, IF(K50&lt;H50,$A$2,IF(K50&lt;H51,$A$3, IF(K50&lt;H52,$A$4, IF(K50&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
@@ -14563,11 +14900,11 @@
       <c r="J51" s="35"/>
       <c r="K51" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>19.809435987801706</v>
+        <v>12.513805047720227</v>
       </c>
       <c r="L51" s="35" t="str">
         <f ca="1">IF(K51&lt;=C51, IF(K51&lt;H50,$A$2,IF(K51&lt;H51,$A$3, IF(K51&lt;H52,$A$4, IF(K51&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
@@ -14614,11 +14951,11 @@
       <c r="J52" s="35"/>
       <c r="K52" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>14.606932655622485</v>
+        <v>60.902793935112932</v>
       </c>
       <c r="L52" s="35" t="str">
         <f ca="1">IF(K52&lt;=C52, IF(K52&lt;H50,$A$2,IF(K52&lt;H51,$A$3, IF(K52&lt;H52,$A$4, IF(K52&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
@@ -14665,11 +15002,11 @@
       <c r="J53" s="35"/>
       <c r="K53" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>45.847824867490885</v>
+        <v>16.35533008009612</v>
       </c>
       <c r="L53" s="35" t="str">
         <f ca="1">IF(K53&lt;=C53, IF(K53&lt;H50,$A$2,IF(K53&lt;H51,$A$3, IF(K53&lt;H52,$A$4, IF(K53&lt;H53,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
@@ -14714,7 +15051,7 @@
       </c>
       <c r="K54" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>26.452001470346687</v>
+        <v>29.829087666339195</v>
       </c>
       <c r="L54" s="35" t="str">
         <f ca="1">IF(K54&lt;=C54, IF(K54&lt;H54,$A$2,IF(K54&lt;H55,$A$3, IF(K54&lt;H56,$A$4, IF(K54&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -14755,11 +15092,11 @@
       </c>
       <c r="K55" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>82.005746218630762</v>
+        <v>10.258675381867555</v>
       </c>
       <c r="L55" s="35" t="str">
         <f ca="1">IF(K55&lt;=C55, IF(K55&lt;H54,$A$2,IF(K55&lt;H55,$A$3, IF(K55&lt;H56,$A$4, IF(K55&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -14796,7 +15133,7 @@
       </c>
       <c r="K56" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>32.027953677662566</v>
+        <v>58.583571451331387</v>
       </c>
       <c r="L56" s="35" t="str">
         <f ca="1">IF(K56&lt;=C56, IF(K56&lt;H54,$A$2,IF(K56&lt;H55,$A$3, IF(K56&lt;H56,$A$4, IF(K56&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -14837,7 +15174,7 @@
       </c>
       <c r="K57" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>37.976092313813794</v>
+        <v>29.226194907533998</v>
       </c>
       <c r="L57" s="35" t="str">
         <f ca="1">IF(K57&lt;=C57, IF(K57&lt;H54,$A$2,IF(K57&lt;H55,$A$3, IF(K57&lt;H56,$A$4, IF(K57&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -14880,11 +15217,11 @@
       <c r="J58" s="35"/>
       <c r="K58" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>20.829877803285225</v>
+        <v>99.701280365444006</v>
       </c>
       <c r="L58" s="35" t="str">
         <f ca="1">IF(K58&lt;=C58, IF(K58&lt;H58,$A$2,IF(K58&lt;H59,$A$3, IF(K58&lt;H60,$A$4, IF(K58&lt;H61,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -14931,7 +15268,7 @@
       <c r="J59" s="35"/>
       <c r="K59" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>98.84308870615051</v>
+        <v>87.372027062454748</v>
       </c>
       <c r="L59" s="35" t="str">
         <f ca="1">IF(K59&lt;=C59, IF(K59&lt;H58,$A$2,IF(K59&lt;H59,$A$3, IF(K59&lt;H60,$A$4, IF(K59&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -14982,11 +15319,11 @@
       <c r="J60" s="35"/>
       <c r="K60" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>27.026349493341005</v>
+        <v>39.105617391397075</v>
       </c>
       <c r="L60" s="35" t="str">
         <f ca="1">IF(K60&lt;=C60, IF(K60&lt;H58,$A$2,IF(K60&lt;H59,$A$3, IF(K60&lt;H60,$A$4, IF(K60&lt;H61,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_COMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
@@ -15033,11 +15370,11 @@
       <c r="J61" s="35"/>
       <c r="K61" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5172055271213711</v>
+        <v>34.727007871138291</v>
       </c>
       <c r="L61" s="35" t="str">
         <f ca="1">IF(K61&lt;=C61, IF(K61&lt;H58,$A$2,IF(K61&lt;H59,$A$3, IF(K61&lt;H60,$A$4, IF(K61&lt;H61,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
@@ -15082,11 +15419,11 @@
       </c>
       <c r="K62" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>15.561564373585068</v>
+        <v>82.629306789105243</v>
       </c>
       <c r="L62" s="35" t="str">
         <f ca="1">IF(K62&lt;=C62, IF(K62&lt;H62,$A$2,IF(K62&lt;H63,$A$3, IF(K62&lt;H64,$A$4, IF(K62&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -15123,7 +15460,7 @@
       </c>
       <c r="K63" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>97.985245522748571</v>
+        <v>44.554061437751237</v>
       </c>
       <c r="L63" s="35" t="str">
         <f ca="1">IF(K63&lt;=C63, IF(K63&lt;H62,$A$2,IF(K63&lt;H63,$A$3, IF(K63&lt;H64,$A$4, IF(K63&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -15164,7 +15501,7 @@
       </c>
       <c r="K64" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>89.2329653494848</v>
+        <v>69.858476733993598</v>
       </c>
       <c r="L64" s="35" t="str">
         <f ca="1">IF(K64&lt;=C64, IF(K64&lt;H62,$A$2,IF(K64&lt;H63,$A$3, IF(K64&lt;H64,$A$4, IF(K64&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -15205,11 +15542,11 @@
       </c>
       <c r="K65" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>48.848920213878891</v>
+        <v>15.737521333785875</v>
       </c>
       <c r="L65" s="35" t="str">
         <f ca="1">IF(K65&lt;=C65, IF(K65&lt;H62,$A$2,IF(K65&lt;H63,$A$3, IF(K65&lt;H64,$A$4, IF(K65&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -15248,11 +15585,11 @@
       <c r="J66" s="35"/>
       <c r="K66" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>19.641759785728286</v>
+        <v>48.657466243006454</v>
       </c>
       <c r="L66" s="35" t="str">
         <f ca="1">IF(K66&lt;=C66, IF(K66&lt;H66,$A$2,IF(K66&lt;H67,$A$3, IF(K66&lt;H68,$A$4, IF(K66&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -15299,11 +15636,11 @@
       <c r="J67" s="35"/>
       <c r="K67" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4265720323056952</v>
+        <v>64.871479100015463</v>
       </c>
       <c r="L67" s="35" t="str">
         <f ca="1">IF(K67&lt;=C67, IF(K67&lt;H66,$A$2,IF(K67&lt;H67,$A$3, IF(K67&lt;H68,$A$4, IF(K67&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M67" s="35"/>
       <c r="N67" s="35"/>
@@ -15350,7 +15687,7 @@
       <c r="J68" s="35"/>
       <c r="K68" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>56.339899270632529</v>
+        <v>71.600796901681775</v>
       </c>
       <c r="L68" s="35" t="str">
         <f ca="1">IF(K68&lt;=C68, IF(K68&lt;H66,$A$2,IF(K68&lt;H67,$A$3, IF(K68&lt;H68,$A$4, IF(K68&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -15401,11 +15738,11 @@
       <c r="J69" s="35"/>
       <c r="K69" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>20.680206214385944</v>
+        <v>98.273130553034122</v>
       </c>
       <c r="L69" s="35" t="str">
         <f ca="1">IF(K69&lt;=C69, IF(K69&lt;H66,$A$2,IF(K69&lt;H67,$A$3, IF(K69&lt;H68,$A$4, IF(K69&lt;H69,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
@@ -15451,7 +15788,7 @@
       </c>
       <c r="K70" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>78.512307379169201</v>
+        <v>74.654974337885477</v>
       </c>
       <c r="L70" s="35" t="str">
         <f ca="1">IF(K70&lt;=C70, IF(K70&lt;H70,$A$2,IF(K70&lt;H71,$A$3, IF(K70&lt;H72,$A$4, IF(K70&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -15493,7 +15830,7 @@
       </c>
       <c r="K71" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>76.017605079754986</v>
+        <v>86.702730537154181</v>
       </c>
       <c r="L71" s="35" t="str">
         <f ca="1">IF(K71&lt;=C71, IF(K71&lt;H70,$A$2,IF(K71&lt;H71,$A$3, IF(K71&lt;H72,$A$4, IF(K71&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -15535,7 +15872,7 @@
       </c>
       <c r="K72" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>36.483776844686879</v>
+        <v>33.349838218990001</v>
       </c>
       <c r="L72" s="35" t="str">
         <f ca="1">IF(K72&lt;=C72, IF(K72&lt;H70,$A$2,IF(K72&lt;H71,$A$3, IF(K72&lt;H72,$A$4, IF(K72&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -15577,11 +15914,11 @@
       </c>
       <c r="K73" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>19.779374422042608</v>
+        <v>40.685375784172493</v>
       </c>
       <c r="L73" s="35" t="str">
         <f ca="1">IF(K73&lt;=C73, IF(K73&lt;H70,$A$2,IF(K73&lt;H71,$A$3, IF(K73&lt;H72,$A$4, IF(K73&lt;H73,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -15621,7 +15958,7 @@
       <c r="J74" s="35"/>
       <c r="K74" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>55.836214590626966</v>
+        <v>40.898482344555575</v>
       </c>
       <c r="L74" s="35" t="str">
         <f ca="1">IF(K74&lt;=C74, IF(K74&lt;H74,$A$2,IF(K74&lt;H75,$A$3, IF(K74&lt;H76,$A$4, IF(K74&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -15673,7 +16010,7 @@
       <c r="J75" s="35"/>
       <c r="K75" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>93.133218896823493</v>
+        <v>54.565173216394335</v>
       </c>
       <c r="L75" s="35" t="str">
         <f ca="1">IF(K75&lt;=C75, IF(K75&lt;H74,$A$2,IF(K75&lt;H75,$A$3, IF(K75&lt;H76,$A$4, IF(K75&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -15725,11 +16062,11 @@
       <c r="J76" s="35"/>
       <c r="K76" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0336306543318123</v>
+        <v>34.499965535517504</v>
       </c>
       <c r="L76" s="35" t="str">
         <f ca="1">IF(K76&lt;=C76, IF(K76&lt;H74,$A$2,IF(K76&lt;H75,$A$3, IF(K76&lt;H76,$A$4, IF(K76&lt;H77,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
@@ -15777,11 +16114,11 @@
       <c r="J77" s="35"/>
       <c r="K77" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>86.092411938827809</v>
+        <v>19.420927620871453</v>
       </c>
       <c r="L77" s="35" t="str">
         <f ca="1">IF(K77&lt;=C77, IF(K77&lt;H74,$A$2,IF(K77&lt;H75,$A$3, IF(K77&lt;H76,$A$4, IF(K77&lt;H77,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
@@ -15827,7 +16164,7 @@
       </c>
       <c r="K78" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>89.716922935198198</v>
+        <v>76.897721504318383</v>
       </c>
       <c r="L78" s="35" t="str">
         <f ca="1">IF(K78&lt;=C78, IF(K78&lt;H78,$A$2,IF(K78&lt;H79,$A$3, IF(K78&lt;H80,$A$4, IF(K78&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -15869,7 +16206,7 @@
       </c>
       <c r="K79" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>78.843987380361597</v>
+        <v>39.848675825733025</v>
       </c>
       <c r="L79" s="35" t="str">
         <f ca="1">IF(K79&lt;=C79, IF(K79&lt;H78,$A$2,IF(K79&lt;H79,$A$3, IF(K79&lt;H80,$A$4, IF(K79&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -15911,11 +16248,11 @@
       </c>
       <c r="K80" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>22.529525951211539</v>
+        <v>87.617059357161125</v>
       </c>
       <c r="L80" s="35" t="str">
         <f ca="1">IF(K80&lt;=C80, IF(K80&lt;H78,$A$2,IF(K80&lt;H79,$A$3, IF(K80&lt;H80,$A$4, IF(K80&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -15953,11 +16290,11 @@
       </c>
       <c r="K81" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>42.62705963634825</v>
+        <v>2.333997521712583</v>
       </c>
       <c r="L81" s="35" t="str">
         <f ca="1">IF(K81&lt;=C81, IF(K81&lt;H78,$A$2,IF(K81&lt;H79,$A$3, IF(K81&lt;H80,$A$4, IF(K81&lt;H81,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -15997,7 +16334,7 @@
       <c r="J82" s="35"/>
       <c r="K82" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>42.588145992939076</v>
+        <v>42.068634974218035</v>
       </c>
       <c r="L82" s="35" t="str">
         <f ca="1">IF(K82&lt;=C82, IF(K82&lt;H82,$A$2,IF(K82&lt;H83,$A$3, IF(K82&lt;H84,$A$4, IF(K82&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -16049,7 +16386,7 @@
       <c r="J83" s="35"/>
       <c r="K83" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>75.360378622884284</v>
+        <v>83.348619692214371</v>
       </c>
       <c r="L83" s="35" t="str">
         <f ca="1">IF(K83&lt;=C83, IF(K83&lt;H82,$A$2,IF(K83&lt;H83,$A$3, IF(K83&lt;H84,$A$4, IF(K83&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -16101,7 +16438,7 @@
       <c r="J84" s="35"/>
       <c r="K84" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>13.022674133697443</v>
+        <v>27.806927674152849</v>
       </c>
       <c r="L84" s="35" t="str">
         <f ca="1">IF(K84&lt;=C84, IF(K84&lt;H82,$A$2,IF(K84&lt;H83,$A$3, IF(K84&lt;H84,$A$4, IF(K84&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -16153,7 +16490,7 @@
       <c r="J85" s="35"/>
       <c r="K85" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>92.092092930985658</v>
+        <v>90.865213625808678</v>
       </c>
       <c r="L85" s="35" t="str">
         <f ca="1">IF(K85&lt;=C85, IF(K85&lt;H82,$A$2,IF(K85&lt;H83,$A$3, IF(K85&lt;H84,$A$4, IF(K85&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -16203,7 +16540,7 @@
       </c>
       <c r="K86" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>79.875967404616262</v>
+        <v>92.697827673946094</v>
       </c>
       <c r="L86" s="35" t="str">
         <f ca="1">IF(K86&lt;=C86, IF(K86&lt;H86,$A$2,IF(K86&lt;H87,$A$3, IF(K86&lt;H88,$A$4, IF(K86&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -16245,11 +16582,11 @@
       </c>
       <c r="K87" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>11.774025974760693</v>
+        <v>84.230354963555271</v>
       </c>
       <c r="L87" s="35" t="str">
         <f ca="1">IF(K87&lt;=C87, IF(K87&lt;H86,$A$2,IF(K87&lt;H87,$A$3, IF(K87&lt;H88,$A$4, IF(K87&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -16287,11 +16624,11 @@
       </c>
       <c r="K88" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>27.005543321103097</v>
+        <v>65.057800858436607</v>
       </c>
       <c r="L88" s="35" t="str">
         <f ca="1">IF(K88&lt;=C88, IF(K88&lt;H86,$A$2,IF(K88&lt;H87,$A$3, IF(K88&lt;H88,$A$4, IF(K88&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -16329,11 +16666,11 @@
       </c>
       <c r="K89" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>27.480348042268375</v>
+        <v>52.671456531144891</v>
       </c>
       <c r="L89" s="35" t="str">
         <f ca="1">IF(K89&lt;=C89, IF(K89&lt;H86,$A$2,IF(K89&lt;H87,$A$3, IF(K89&lt;H88,$A$4, IF(K89&lt;H89,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_UNCOMMON</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -16373,7 +16710,7 @@
       <c r="J90" s="35"/>
       <c r="K90" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>33.920285506116542</v>
+        <v>72.47585205124642</v>
       </c>
       <c r="L90" s="35" t="str">
         <f ca="1">IF(K90&lt;=C90, IF(K90&lt;H90,$A$2,IF(K90&lt;H91,$A$3, IF(K90&lt;H92,$A$4, IF(K90&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -16425,7 +16762,7 @@
       <c r="J91" s="35"/>
       <c r="K91" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>45.381792150743784</v>
+        <v>72.754245187481501</v>
       </c>
       <c r="L91" s="35" t="str">
         <f ca="1">IF(K91&lt;=C91, IF(K91&lt;H90,$A$2,IF(K91&lt;H91,$A$3, IF(K91&lt;H92,$A$4, IF(K91&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -16477,7 +16814,7 @@
       <c r="J92" s="35"/>
       <c r="K92" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>64.258883586885162</v>
+        <v>78.294464299482797</v>
       </c>
       <c r="L92" s="35" t="str">
         <f ca="1">IF(K92&lt;=C92, IF(K92&lt;H90,$A$2,IF(K92&lt;H91,$A$3, IF(K92&lt;H92,$A$4, IF(K92&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -16529,11 +16866,11 @@
       <c r="J93" s="35"/>
       <c r="K93" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>83.792809892480591</v>
+        <v>17.163017541306612</v>
       </c>
       <c r="L93" s="35" t="str">
         <f ca="1">IF(K93&lt;=C93, IF(K93&lt;H90,$A$2,IF(K93&lt;H91,$A$3, IF(K93&lt;H92,$A$4, IF(K93&lt;H93,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_UNCOMMON</v>
       </c>
       <c r="M93" s="35"/>
       <c r="N93" s="35"/>
@@ -16579,11 +16916,11 @@
       </c>
       <c r="K94" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0134780744317133</v>
+        <v>51.095924005606264</v>
       </c>
       <c r="L94" s="35" t="str">
         <f ca="1">IF(K94&lt;=C94, IF(K94&lt;H94,$A$2,IF(K94&lt;H95,$A$3, IF(K94&lt;H96,$A$4, IF(K94&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -16621,11 +16958,11 @@
       </c>
       <c r="K95" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>97.948288898331484</v>
+        <v>3.1578582567053481</v>
       </c>
       <c r="L95" s="35" t="str">
         <f ca="1">IF(K95&lt;=C95, IF(K95&lt;H94,$A$2,IF(K95&lt;H95,$A$3, IF(K95&lt;H96,$A$4, IF(K95&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -16663,7 +17000,7 @@
       </c>
       <c r="K96" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>31.204883313318522</v>
+        <v>50.649723595422536</v>
       </c>
       <c r="L96" s="35" t="str">
         <f ca="1">IF(K96&lt;=C96, IF(K96&lt;H94,$A$2,IF(K96&lt;H95,$A$3, IF(K96&lt;H96,$A$4, IF(K96&lt;H97,$A$5, "NONE")))), "NONE")</f>
@@ -16705,7 +17042,7 @@
       </c>
       <c r="K97" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>15.617169027524803</v>
+        <v>16.530198445766629</v>
       </c>
       <c r="L97" s="35" t="str">
         <f ca="1">IF(K97&lt;=C97, IF(K97&lt;H94,$A$2,IF(K97&lt;H95,$A$3, IF(K97&lt;H96,$A$4, IF(K97&lt;H97,$A$5, "NONE")))), "NONE")</f>

--- a/dev/Items.xlsx
+++ b/dev/Items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Warcraft III\Maps\Zulaman-WE\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Warcraft III\Maps\Zulaman-WE\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB433554-F5C2-49E2-A86C-B0807FF399CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824BAB33-9F67-4E22-8AFA-B82D7B381EEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,12 @@
     <sheet name="BossLoot" sheetId="10" r:id="rId9"/>
     <sheet name="MinionLoot" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="848">
   <si>
     <t>TABLE_SIZE</t>
   </si>
@@ -2456,15 +2456,9 @@
     <t>智力</t>
   </si>
   <si>
-    <t>所有属性</t>
-  </si>
-  <si>
     <t>生命值</t>
   </si>
   <si>
-    <t>法力值</t>
-  </si>
-  <si>
     <t>攻击强度</t>
   </si>
   <si>
@@ -2489,33 +2483,6 @@
     <t>躲闪</t>
   </si>
   <si>
-    <t>of Lion Heart</t>
-  </si>
-  <si>
-    <t>狮心之</t>
-  </si>
-  <si>
-    <t>+5力量</t>
-  </si>
-  <si>
-    <t>+5敏捷</t>
-  </si>
-  <si>
-    <t>of Gorilla</t>
-  </si>
-  <si>
-    <t>巨猿之</t>
-  </si>
-  <si>
-    <t>+5智力</t>
-  </si>
-  <si>
-    <t>of Fox</t>
-  </si>
-  <si>
-    <t>红狐之</t>
-  </si>
-  <si>
     <t>of Brute</t>
   </si>
   <si>
@@ -2555,9 +2522,6 @@
     <t>of Ranger</t>
   </si>
   <si>
-    <t>刽子手之</t>
-  </si>
-  <si>
     <t>of Wizard</t>
   </si>
   <si>
@@ -2576,9 +2540,6 @@
     <t>护卫之</t>
   </si>
   <si>
-    <t>+75生命值</t>
-  </si>
-  <si>
     <t>+1%躲闪几率</t>
   </si>
   <si>
@@ -2720,15 +2681,6 @@
     <t>prefix</t>
   </si>
   <si>
-    <t>5-8力量</t>
-  </si>
-  <si>
-    <t>5-8敏捷</t>
-  </si>
-  <si>
-    <t>5-8智力</t>
-  </si>
-  <si>
     <t>厚重的</t>
   </si>
   <si>
@@ -2747,15 +2699,9 @@
     <t>7-10</t>
   </si>
   <si>
-    <t>8-13</t>
-  </si>
-  <si>
     <t>锋利的</t>
   </si>
   <si>
-    <t>Refined</t>
-  </si>
-  <si>
     <t>敏捷的</t>
   </si>
   <si>
@@ -2772,6 +2718,309 @@
   </si>
   <si>
     <t>Intelligent</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>耐久的</t>
+  </si>
+  <si>
+    <t>生命的</t>
+  </si>
+  <si>
+    <t>Vibrant</t>
+  </si>
+  <si>
+    <t>Endurable</t>
+  </si>
+  <si>
+    <t>60-90</t>
+  </si>
+  <si>
+    <t>熟练的</t>
+  </si>
+  <si>
+    <t>Skilled</t>
+  </si>
+  <si>
+    <t>7-11</t>
+  </si>
+  <si>
+    <t>附魔的</t>
+  </si>
+  <si>
+    <t>Enchanted</t>
+  </si>
+  <si>
+    <t>法术的</t>
+  </si>
+  <si>
+    <t>Sorcerous</t>
+  </si>
+  <si>
+    <t>8-12</t>
+  </si>
+  <si>
+    <t>91-150</t>
+  </si>
+  <si>
+    <t>12-18</t>
+  </si>
+  <si>
+    <t>13-20</t>
+  </si>
+  <si>
+    <t>神秘的</t>
+  </si>
+  <si>
+    <t>Mysterious</t>
+  </si>
+  <si>
+    <t>Cruel</t>
+  </si>
+  <si>
+    <t>永恒的</t>
+  </si>
+  <si>
+    <t>Eternal</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>稳固的</t>
+  </si>
+  <si>
+    <t>Steady</t>
+  </si>
+  <si>
+    <t>坚硬的</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>of Wind Serpent</t>
+  </si>
+  <si>
+    <t>风蛇之</t>
+  </si>
+  <si>
+    <t>of Snake</t>
+  </si>
+  <si>
+    <t>灵蛇之</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>活力之</t>
+  </si>
+  <si>
+    <t>of Vitality</t>
+  </si>
+  <si>
+    <t>90-180</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>游侠之</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>70-100</t>
+  </si>
+  <si>
+    <t>精通之</t>
+  </si>
+  <si>
+    <t>of Mastery</t>
+  </si>
+  <si>
+    <t>模糊之</t>
+  </si>
+  <si>
+    <t>of Blur</t>
+  </si>
+  <si>
+    <t>堡垒之</t>
+  </si>
+  <si>
+    <t>of Stronghold</t>
+  </si>
+  <si>
+    <t>深海之</t>
+  </si>
+  <si>
+    <t>of Deep Sea</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>虚空之</t>
+  </si>
+  <si>
+    <t>of Void</t>
+  </si>
+  <si>
+    <t>12-24</t>
+  </si>
+  <si>
+    <t>of Quickness</t>
+  </si>
+  <si>
+    <t>致命之</t>
+  </si>
+  <si>
+    <t>of Lethality</t>
+  </si>
+  <si>
+    <t>快速之</t>
+  </si>
+  <si>
+    <t>残忍的</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
 </sst>
 </file>
@@ -2969,20 +3218,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3012,6 +3263,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3026,7 +3289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3189,19 +3452,25 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -6294,7 +6563,7 @@
       <c r="J2" s="69"/>
       <c r="K2" s="70">
         <f t="shared" ref="K2:K97" ca="1" si="2">RAND() * 100</f>
-        <v>70.500284380012985</v>
+        <v>9.7973208702744294</v>
       </c>
       <c r="L2" s="69" t="str">
         <f ca="1">IF(K2&lt;=C2, IF(K2&lt;H2,$A$2,IF(K2&lt;H3,$A$3, IF(K2&lt;H4,$A$4, IF(K2&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6347,7 +6616,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>56.524556057939165</v>
+        <v>42.675830044316896</v>
       </c>
       <c r="L3" s="69" t="str">
         <f ca="1">IF(K3&lt;=C3, IF(K3&lt;H2,$A$2,IF(K3&lt;H3,$A$3, IF(K3&lt;H4,$A$4, IF(K3&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6400,7 +6669,7 @@
       <c r="J4" s="69"/>
       <c r="K4" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>83.373974588202643</v>
+        <v>43.338946279768862</v>
       </c>
       <c r="L4" s="69" t="str">
         <f ca="1">IF(K4&lt;=C4, IF(K4&lt;H2,$A$2,IF(K4&lt;H3,$A$3, IF(K4&lt;H4,$A$4, IF(K4&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6453,7 +6722,7 @@
       <c r="J5" s="69"/>
       <c r="K5" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>76.038608482829403</v>
+        <v>50.397229744380176</v>
       </c>
       <c r="L5" s="69" t="str">
         <f ca="1">IF(K5&lt;=C5, IF(K5&lt;H2,$A$2,IF(K5&lt;H3,$A$3, IF(K5&lt;H4,$A$4, IF(K5&lt;H5,$A$5, "NONE")))), "NONE")</f>
@@ -6503,7 +6772,7 @@
       </c>
       <c r="K6" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>64.080814774618133</v>
+        <v>18.223184733406718</v>
       </c>
       <c r="L6" s="69" t="str">
         <f ca="1">IF(K6&lt;=C6, IF(K6&lt;H6,$A$2,IF(K6&lt;H7,$A$3, IF(K6&lt;H8,$A$4, IF(K6&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -6545,7 +6814,7 @@
       </c>
       <c r="K7" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>32.973065131582388</v>
+        <v>56.539055022924892</v>
       </c>
       <c r="L7" s="69" t="str">
         <f ca="1">IF(K7&lt;=C7, IF(K7&lt;H6,$A$2,IF(K7&lt;H7,$A$3, IF(K7&lt;H8,$A$4, IF(K7&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -6587,7 +6856,7 @@
       </c>
       <c r="K8" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>21.838748671248197</v>
+        <v>32.087559064922729</v>
       </c>
       <c r="L8" s="69" t="str">
         <f ca="1">IF(K8&lt;=C8, IF(K8&lt;H6,$A$2,IF(K8&lt;H7,$A$3, IF(K8&lt;H8,$A$4, IF(K8&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -6629,7 +6898,7 @@
       </c>
       <c r="K9" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>64.051984342370332</v>
+        <v>54.726625542009465</v>
       </c>
       <c r="L9" s="69" t="str">
         <f ca="1">IF(K9&lt;=C9, IF(K9&lt;H6,$A$2,IF(K9&lt;H7,$A$3, IF(K9&lt;H8,$A$4, IF(K9&lt;H9,$A$5, "NONE")))), "NONE")</f>
@@ -6673,7 +6942,7 @@
       <c r="J10" s="69"/>
       <c r="K10" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>12.154550722296232</v>
+        <v>50.22140408811542</v>
       </c>
       <c r="L10" s="69" t="str">
         <f ca="1">IF(K10&lt;=C10, IF(K10&lt;H10,$A$2,IF(K10&lt;H11,$A$3, IF(K10&lt;H12,$A$4, IF(K10&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -6725,7 +6994,7 @@
       <c r="J11" s="69"/>
       <c r="K11" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>38.270898855798393</v>
+        <v>50.110473032712669</v>
       </c>
       <c r="L11" s="69" t="str">
         <f ca="1">IF(K11&lt;=C11, IF(K11&lt;H10,$A$2,IF(K11&lt;H11,$A$3, IF(K11&lt;H12,$A$4, IF(K11&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -6777,7 +7046,7 @@
       <c r="J12" s="69"/>
       <c r="K12" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>53.345556484318003</v>
+        <v>13.998734961456183</v>
       </c>
       <c r="L12" s="69" t="str">
         <f ca="1">IF(K12&lt;=C12, IF(K12&lt;H10,$A$2,IF(K12&lt;H11,$A$3, IF(K12&lt;H12,$A$4, IF(K12&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -6829,7 +7098,7 @@
       <c r="J13" s="69"/>
       <c r="K13" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>68.962877483555147</v>
+        <v>74.610531645383887</v>
       </c>
       <c r="L13" s="69" t="str">
         <f ca="1">IF(K13&lt;=C13, IF(K13&lt;H10,$A$2,IF(K13&lt;H11,$A$3, IF(K13&lt;H12,$A$4, IF(K13&lt;H13,$A$5, "NONE")))), "NONE")</f>
@@ -6879,7 +7148,7 @@
       </c>
       <c r="K14" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>14.614194682991554</v>
+        <v>22.311374971298125</v>
       </c>
       <c r="L14" s="69" t="str">
         <f ca="1">IF(K14&lt;=C14, IF(K14&lt;H14,$A$2,IF(K14&lt;H15,$A$3, IF(K14&lt;H16,$A$4, IF(K14&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -6921,7 +7190,7 @@
       </c>
       <c r="K15" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>29.22052140039678</v>
+        <v>6.032445603983005</v>
       </c>
       <c r="L15" s="69" t="str">
         <f ca="1">IF(K15&lt;=C15, IF(K15&lt;H14,$A$2,IF(K15&lt;H15,$A$3, IF(K15&lt;H16,$A$4, IF(K15&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -6963,7 +7232,7 @@
       </c>
       <c r="K16" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>70.659509763557892</v>
+        <v>88.621456941621204</v>
       </c>
       <c r="L16" s="69" t="str">
         <f ca="1">IF(K16&lt;=C16, IF(K16&lt;H14,$A$2,IF(K16&lt;H15,$A$3, IF(K16&lt;H16,$A$4, IF(K16&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -7005,7 +7274,7 @@
       </c>
       <c r="K17" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>21.3763832115642</v>
+        <v>61.890491068169609</v>
       </c>
       <c r="L17" s="69" t="str">
         <f ca="1">IF(K17&lt;=C17, IF(K17&lt;H14,$A$2,IF(K17&lt;H15,$A$3, IF(K17&lt;H16,$A$4, IF(K17&lt;H17,$A$5, "NONE")))), "NONE")</f>
@@ -7049,11 +7318,11 @@
       <c r="J18" s="69"/>
       <c r="K18" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2495482317702589</v>
+        <v>44.810134954219237</v>
       </c>
       <c r="L18" s="69" t="str">
         <f ca="1">IF(K18&lt;=C18, IF(K18&lt;H18,$A$2,IF(K18&lt;H19,$A$3, IF(K18&lt;H20,$A$4, IF(K18&lt;H21,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="69"/>
@@ -7101,7 +7370,7 @@
       <c r="J19" s="69"/>
       <c r="K19" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>33.400931045939508</v>
+        <v>84.181631841792736</v>
       </c>
       <c r="L19" s="69" t="str">
         <f ca="1">IF(K19&lt;=C19, IF(K19&lt;H18,$A$2,IF(K19&lt;H19,$A$3, IF(K19&lt;H20,$A$4, IF(K19&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -7153,11 +7422,11 @@
       <c r="J20" s="69"/>
       <c r="K20" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>67.33365807634037</v>
+        <v>1.606894201611786</v>
       </c>
       <c r="L20" s="69" t="str">
         <f ca="1">IF(K20&lt;=C20, IF(K20&lt;H18,$A$2,IF(K20&lt;H19,$A$3, IF(K20&lt;H20,$A$4, IF(K20&lt;H21,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M20" s="69"/>
       <c r="N20" s="69"/>
@@ -7205,7 +7474,7 @@
       <c r="J21" s="69"/>
       <c r="K21" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>95.132938035521491</v>
+        <v>4.2095353619608034</v>
       </c>
       <c r="L21" s="69" t="str">
         <f ca="1">IF(K21&lt;=C21, IF(K21&lt;H18,$A$2,IF(K21&lt;H19,$A$3, IF(K21&lt;H20,$A$4, IF(K21&lt;H21,$A$5, "NONE")))), "NONE")</f>
@@ -7255,7 +7524,7 @@
       </c>
       <c r="K22" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>46.113907267176401</v>
+        <v>91.567530023456925</v>
       </c>
       <c r="L22" s="69" t="str">
         <f ca="1">IF(K22&lt;=C22, IF(K22&lt;H22,$A$2,IF(K22&lt;H23,$A$3, IF(K22&lt;H24,$A$4, IF(K22&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7297,7 +7566,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>90.473861724866794</v>
+        <v>5.7053630454815485</v>
       </c>
       <c r="L23" s="69" t="str">
         <f ca="1">IF(K23&lt;=C23, IF(K23&lt;H22,$A$2,IF(K23&lt;H23,$A$3, IF(K23&lt;H24,$A$4, IF(K23&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7339,7 +7608,7 @@
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>99.197555711131542</v>
+        <v>27.894230073383486</v>
       </c>
       <c r="L24" s="69" t="str">
         <f ca="1">IF(K24&lt;=C24, IF(K24&lt;H22,$A$2,IF(K24&lt;H23,$A$3, IF(K24&lt;H24,$A$4, IF(K24&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7381,7 +7650,7 @@
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>52.95338932764836</v>
+        <v>27.063510536172508</v>
       </c>
       <c r="L25" s="69" t="str">
         <f ca="1">IF(K25&lt;=C25, IF(K25&lt;H22,$A$2,IF(K25&lt;H23,$A$3, IF(K25&lt;H24,$A$4, IF(K25&lt;H25,$A$5, "NONE")))), "NONE")</f>
@@ -7425,7 +7694,7 @@
       <c r="J26" s="69"/>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8311181564264203</v>
+        <v>37.265068912549992</v>
       </c>
       <c r="L26" s="69" t="str">
         <f ca="1">IF(K26&lt;=C26, IF(K26&lt;H26,$A$2,IF(K26&lt;H27,$A$3, IF(K26&lt;H28,$A$4, IF(K26&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -7477,7 +7746,7 @@
       <c r="J27" s="69"/>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>85.531021788454595</v>
+        <v>62.859671619729482</v>
       </c>
       <c r="L27" s="69" t="str">
         <f ca="1">IF(K27&lt;=C27, IF(K27&lt;H26,$A$2,IF(K27&lt;H27,$A$3, IF(K27&lt;H28,$A$4, IF(K27&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -7529,7 +7798,7 @@
       <c r="J28" s="69"/>
       <c r="K28" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>50.564733419369915</v>
+        <v>71.359129734580605</v>
       </c>
       <c r="L28" s="69" t="str">
         <f ca="1">IF(K28&lt;=C28, IF(K28&lt;H26,$A$2,IF(K28&lt;H27,$A$3, IF(K28&lt;H28,$A$4, IF(K28&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -7581,7 +7850,7 @@
       <c r="J29" s="69"/>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>82.36714675292292</v>
+        <v>69.011550874827023</v>
       </c>
       <c r="L29" s="69" t="str">
         <f ca="1">IF(K29&lt;=C29, IF(K29&lt;H26,$A$2,IF(K29&lt;H27,$A$3, IF(K29&lt;H28,$A$4, IF(K29&lt;H29,$A$5, "NONE")))), "NONE")</f>
@@ -7631,7 +7900,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>46.161962142343619</v>
+        <v>46.978318859066903</v>
       </c>
       <c r="L30" s="69" t="str">
         <f ca="1">IF(K30&lt;=C30, IF(K30&lt;H30,$A$2,IF(K30&lt;H31,$A$3, IF(K30&lt;H32,$A$4, IF(K30&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -7673,7 +7942,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>29.900079709557158</v>
+        <v>12.764703574924141</v>
       </c>
       <c r="L31" s="69" t="str">
         <f ca="1">IF(K31&lt;=C31, IF(K31&lt;H30,$A$2,IF(K31&lt;H31,$A$3, IF(K31&lt;H32,$A$4, IF(K31&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -7715,7 +7984,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>50.566592966203629</v>
+        <v>29.453069337022043</v>
       </c>
       <c r="L32" s="69" t="str">
         <f ca="1">IF(K32&lt;=C32, IF(K32&lt;H30,$A$2,IF(K32&lt;H31,$A$3, IF(K32&lt;H32,$A$4, IF(K32&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -7757,7 +8026,7 @@
       </c>
       <c r="K33" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>41.002067701173203</v>
+        <v>56.688120027038813</v>
       </c>
       <c r="L33" s="69" t="str">
         <f ca="1">IF(K33&lt;=C33, IF(K33&lt;H30,$A$2,IF(K33&lt;H31,$A$3, IF(K33&lt;H32,$A$4, IF(K33&lt;H33,$A$5, "NONE")))), "NONE")</f>
@@ -7801,11 +8070,11 @@
       <c r="J34" s="69"/>
       <c r="K34" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>68.351324876599932</v>
+        <v>1.8632959378783065</v>
       </c>
       <c r="L34" s="69" t="str">
         <f ca="1">IF(K34&lt;=C34, IF(K34&lt;H34,$A$2,IF(K34&lt;H35,$A$3, IF(K34&lt;H36,$A$4, IF(K34&lt;H37,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M34" s="69"/>
       <c r="N34" s="69"/>
@@ -7853,7 +8122,7 @@
       <c r="J35" s="69"/>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>35.905400995710082</v>
+        <v>83.627159594358886</v>
       </c>
       <c r="L35" s="69" t="str">
         <f ca="1">IF(K35&lt;=C35, IF(K35&lt;H34,$A$2,IF(K35&lt;H35,$A$3, IF(K35&lt;H36,$A$4, IF(K35&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -7905,7 +8174,7 @@
       <c r="J36" s="69"/>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>53.823004612167978</v>
+        <v>23.158749545165048</v>
       </c>
       <c r="L36" s="69" t="str">
         <f ca="1">IF(K36&lt;=C36, IF(K36&lt;H34,$A$2,IF(K36&lt;H35,$A$3, IF(K36&lt;H36,$A$4, IF(K36&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -7957,7 +8226,7 @@
       <c r="J37" s="69"/>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>74.754957977767845</v>
+        <v>35.958151513897853</v>
       </c>
       <c r="L37" s="69" t="str">
         <f ca="1">IF(K37&lt;=C37, IF(K37&lt;H34,$A$2,IF(K37&lt;H35,$A$3, IF(K37&lt;H36,$A$4, IF(K37&lt;H37,$A$5, "NONE")))), "NONE")</f>
@@ -8007,7 +8276,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>73.674908930889302</v>
+        <v>75.663584641597538</v>
       </c>
       <c r="L38" s="69" t="str">
         <f ca="1">IF(K38&lt;=C38, IF(K38&lt;H38,$A$2,IF(K38&lt;H39,$A$3, IF(K38&lt;H40,$A$4, IF(K38&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -8049,7 +8318,7 @@
       </c>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>47.004268379861138</v>
+        <v>53.45056209011414</v>
       </c>
       <c r="L39" s="69" t="str">
         <f ca="1">IF(K39&lt;=C39, IF(K39&lt;H38,$A$2,IF(K39&lt;H39,$A$3, IF(K39&lt;H40,$A$4, IF(K39&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -8091,7 +8360,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>70.519313562949833</v>
+        <v>96.175073081962751</v>
       </c>
       <c r="L40" s="69" t="str">
         <f ca="1">IF(K40&lt;=C40, IF(K40&lt;H38,$A$2,IF(K40&lt;H39,$A$3, IF(K40&lt;H40,$A$4, IF(K40&lt;H41,$A$5, "NONE")))), "NONE")</f>
@@ -8133,11 +8402,11 @@
       </c>
       <c r="K41" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>41.525955007403006</v>
+        <v>0.62474092602166076</v>
       </c>
       <c r="L41" s="69" t="str">
         <f ca="1">IF(K41&lt;=C41, IF(K41&lt;H38,$A$2,IF(K41&lt;H39,$A$3, IF(K41&lt;H40,$A$4, IF(K41&lt;H41,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -8177,7 +8446,7 @@
       <c r="J42" s="69"/>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>67.852550991078743</v>
+        <v>64.611185509108608</v>
       </c>
       <c r="L42" s="69" t="str">
         <f ca="1">IF(K42&lt;=C42, IF(K42&lt;H42,$A$2,IF(K42&lt;H43,$A$3, IF(K42&lt;H44,$A$4, IF(K42&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -8229,7 +8498,7 @@
       <c r="J43" s="69"/>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4663363433678613</v>
+        <v>5.8113154952290973</v>
       </c>
       <c r="L43" s="69" t="str">
         <f ca="1">IF(K43&lt;=C43, IF(K43&lt;H42,$A$2,IF(K43&lt;H43,$A$3, IF(K43&lt;H44,$A$4, IF(K43&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -8281,7 +8550,7 @@
       <c r="J44" s="69"/>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>14.743335011688874</v>
+        <v>29.933407924199763</v>
       </c>
       <c r="L44" s="69" t="str">
         <f ca="1">IF(K44&lt;=C44, IF(K44&lt;H42,$A$2,IF(K44&lt;H43,$A$3, IF(K44&lt;H44,$A$4, IF(K44&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -8333,7 +8602,7 @@
       <c r="J45" s="69"/>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>91.085659218439787</v>
+        <v>53.920251912112228</v>
       </c>
       <c r="L45" s="69" t="str">
         <f ca="1">IF(K45&lt;=C45, IF(K45&lt;H42,$A$2,IF(K45&lt;H43,$A$3, IF(K45&lt;H44,$A$4, IF(K45&lt;H45,$A$5, "NONE")))), "NONE")</f>
@@ -8383,7 +8652,7 @@
       </c>
       <c r="K46" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>12.711532117033286</v>
+        <v>57.747919994373461</v>
       </c>
       <c r="L46" s="69" t="str">
         <f ca="1">IF(K46&lt;=C46, IF(K46&lt;H46,$A$2,IF(K46&lt;H47,$A$3, IF(K46&lt;H48,$A$4, IF(K46&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -8425,11 +8694,11 @@
       </c>
       <c r="K47" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>27.066897411698665</v>
+        <v>1.8758929303932304</v>
       </c>
       <c r="L47" s="69" t="str">
         <f ca="1">IF(K47&lt;=C47, IF(K47&lt;H46,$A$2,IF(K47&lt;H47,$A$3, IF(K47&lt;H48,$A$4, IF(K47&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -8467,11 +8736,11 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78926334048957658</v>
+        <v>79.370349462041219</v>
       </c>
       <c r="L48" s="69" t="str">
         <f ca="1">IF(K48&lt;=C48, IF(K48&lt;H46,$A$2,IF(K48&lt;H47,$A$3, IF(K48&lt;H48,$A$4, IF(K48&lt;H49,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -8509,7 +8778,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>33.891407546983018</v>
+        <v>66.744270566054112</v>
       </c>
       <c r="L49" s="69" t="str">
         <f ca="1">IF(K49&lt;=C49, IF(K49&lt;H46,$A$2,IF(K49&lt;H47,$A$3, IF(K49&lt;H48,$A$4, IF(K49&lt;H49,$A$5, "NONE")))), "NONE")</f>
@@ -8553,7 +8822,7 @@
       <c r="J50" s="69"/>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>49.837804058764988</v>
+        <v>52.324864848881589</v>
       </c>
       <c r="L50" s="69" t="str">
         <f ca="1">IF(K50&lt;=C50, IF(K50&lt;H50,$A$2,IF(K50&lt;H51,$A$3, IF(K50&lt;H52,$A$4, IF(K50&lt;H53,$A$5, "NONE")))), "NONE")</f>
@@ -8605,7 +8874,7 @@
       <c r="J51" s="69"/>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>20.340802271125924</v>
+        <v>15.105011336278285</v>
       </c>
       <c r="L51" s="69" t="str">
         <f ca="1">IF(K51&lt;=C51, IF(K51&lt;H50,$A$2,IF(K51&lt;H51,$A$3, IF(K51&lt;H52,$A$4, IF(K51&lt;H53,$A$5, "NONE")))), "NONE")</f>
@@ -8657,7 +8926,7 @@
       <c r="J52" s="69"/>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>88.689412174095409</v>
+        <v>99.978232544434945</v>
       </c>
       <c r="L52" s="69" t="str">
         <f ca="1">IF(K52&lt;=C52, IF(K52&lt;H50,$A$2,IF(K52&lt;H51,$A$3, IF(K52&lt;H52,$A$4, IF(K52&lt;H53,$A$5, "NONE")))), "NONE")</f>
@@ -8709,7 +8978,7 @@
       <c r="J53" s="69"/>
       <c r="K53" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>54.44337622091826</v>
+        <v>50.52978183018525</v>
       </c>
       <c r="L53" s="69" t="str">
         <f ca="1">IF(K53&lt;=C53, IF(K53&lt;H50,$A$2,IF(K53&lt;H51,$A$3, IF(K53&lt;H52,$A$4, IF(K53&lt;H53,$A$5, "NONE")))), "NONE")</f>
@@ -8759,7 +9028,7 @@
       </c>
       <c r="K54" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>23.179638834354087</v>
+        <v>8.5591891030888831</v>
       </c>
       <c r="L54" s="69" t="str">
         <f ca="1">IF(K54&lt;=C54, IF(K54&lt;H54,$A$2,IF(K54&lt;H55,$A$3, IF(K54&lt;H56,$A$4, IF(K54&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -8801,7 +9070,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>22.689039994456696</v>
+        <v>24.767603091100231</v>
       </c>
       <c r="L55" s="69" t="str">
         <f ca="1">IF(K55&lt;=C55, IF(K55&lt;H54,$A$2,IF(K55&lt;H55,$A$3, IF(K55&lt;H56,$A$4, IF(K55&lt;H57,$A$5, "NONE")))), "NONE")</f>
@@ -8843,11 +9112,11 @@
       </c>
       <c r="K56" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>89.744165432127687</v>
+        <v>2.3241145740503399</v>
       </c>
       <c r="L56" s="69" t="str">
         <f ca="1">IF(K56&lt;=C56, IF(K56&lt;H54,$A$2,IF(K56&lt;H55,$A$3, IF(K56&lt;H56,$A$4, IF(K56&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -8885,11 +9154,11 @@
       </c>
       <c r="K57" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3139634233342701</v>
+        <v>4.7631023389835825</v>
       </c>
       <c r="L57" s="69" t="str">
         <f ca="1">IF(K57&lt;=C57, IF(K57&lt;H54,$A$2,IF(K57&lt;H55,$A$3, IF(K57&lt;H56,$A$4, IF(K57&lt;H57,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -8929,7 +9198,7 @@
       <c r="J58" s="69"/>
       <c r="K58" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9616019501738027</v>
+        <v>27.38111733969706</v>
       </c>
       <c r="L58" s="69" t="str">
         <f ca="1">IF(K58&lt;=C58, IF(K58&lt;H58,$A$2,IF(K58&lt;H59,$A$3, IF(K58&lt;H60,$A$4, IF(K58&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -8981,7 +9250,7 @@
       <c r="J59" s="69"/>
       <c r="K59" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6412405957916327</v>
+        <v>68.280096719056687</v>
       </c>
       <c r="L59" s="69" t="str">
         <f ca="1">IF(K59&lt;=C59, IF(K59&lt;H58,$A$2,IF(K59&lt;H59,$A$3, IF(K59&lt;H60,$A$4, IF(K59&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -9033,11 +9302,11 @@
       <c r="J60" s="69"/>
       <c r="K60" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0721395292878642</v>
+        <v>50.853164547525807</v>
       </c>
       <c r="L60" s="69" t="str">
         <f ca="1">IF(K60&lt;=C60, IF(K60&lt;H58,$A$2,IF(K60&lt;H59,$A$3, IF(K60&lt;H60,$A$4, IF(K60&lt;H61,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
       <c r="M60" s="69"/>
       <c r="N60" s="69"/>
@@ -9085,7 +9354,7 @@
       <c r="J61" s="69"/>
       <c r="K61" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8060883505642309</v>
+        <v>7.4859728881787486</v>
       </c>
       <c r="L61" s="69" t="str">
         <f ca="1">IF(K61&lt;=C61, IF(K61&lt;H58,$A$2,IF(K61&lt;H59,$A$3, IF(K61&lt;H60,$A$4, IF(K61&lt;H61,$A$5, "NONE")))), "NONE")</f>
@@ -9135,11 +9404,11 @@
       </c>
       <c r="K62" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9561042302823228</v>
+        <v>36.001208242456009</v>
       </c>
       <c r="L62" s="69" t="str">
         <f ca="1">IF(K62&lt;=C62, IF(K62&lt;H62,$A$2,IF(K62&lt;H63,$A$3, IF(K62&lt;H64,$A$4, IF(K62&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -9177,11 +9446,11 @@
       </c>
       <c r="K63" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7486744292327163</v>
+        <v>82.347633710442295</v>
       </c>
       <c r="L63" s="69" t="str">
         <f ca="1">IF(K63&lt;=C63, IF(K63&lt;H62,$A$2,IF(K63&lt;H63,$A$3, IF(K63&lt;H64,$A$4, IF(K63&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -9219,7 +9488,7 @@
       </c>
       <c r="K64" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>88.866972995295484</v>
+        <v>14.271215177555408</v>
       </c>
       <c r="L64" s="69" t="str">
         <f ca="1">IF(K64&lt;=C64, IF(K64&lt;H62,$A$2,IF(K64&lt;H63,$A$3, IF(K64&lt;H64,$A$4, IF(K64&lt;H65,$A$5, "NONE")))), "NONE")</f>
@@ -9261,11 +9530,11 @@
       </c>
       <c r="K65" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6464214851558303</v>
+        <v>26.920333266996654</v>
       </c>
       <c r="L65" s="69" t="str">
         <f ca="1">IF(K65&lt;=C65, IF(K65&lt;H62,$A$2,IF(K65&lt;H63,$A$3, IF(K65&lt;H64,$A$4, IF(K65&lt;H65,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -9305,7 +9574,7 @@
       <c r="J66" s="69"/>
       <c r="K66" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>48.895948652295843</v>
+        <v>99.183468076635535</v>
       </c>
       <c r="L66" s="69" t="str">
         <f ca="1">IF(K66&lt;=C66, IF(K66&lt;H66,$A$2,IF(K66&lt;H67,$A$3, IF(K66&lt;H68,$A$4, IF(K66&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -9357,7 +9626,7 @@
       <c r="J67" s="69"/>
       <c r="K67" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>42.902892071450538</v>
+        <v>32.12973997842812</v>
       </c>
       <c r="L67" s="69" t="str">
         <f ca="1">IF(K67&lt;=C67, IF(K67&lt;H66,$A$2,IF(K67&lt;H67,$A$3, IF(K67&lt;H68,$A$4, IF(K67&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -9409,7 +9678,7 @@
       <c r="J68" s="69"/>
       <c r="K68" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>64.60887752041674</v>
+        <v>77.865364866049489</v>
       </c>
       <c r="L68" s="69" t="str">
         <f ca="1">IF(K68&lt;=C68, IF(K68&lt;H66,$A$2,IF(K68&lt;H67,$A$3, IF(K68&lt;H68,$A$4, IF(K68&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -9461,7 +9730,7 @@
       <c r="J69" s="69"/>
       <c r="K69" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>37.72133163963143</v>
+        <v>86.941349735852043</v>
       </c>
       <c r="L69" s="69" t="str">
         <f ca="1">IF(K69&lt;=C69, IF(K69&lt;H66,$A$2,IF(K69&lt;H67,$A$3, IF(K69&lt;H68,$A$4, IF(K69&lt;H69,$A$5, "NONE")))), "NONE")</f>
@@ -9511,7 +9780,7 @@
       </c>
       <c r="K70" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>50.474188622509317</v>
+        <v>14.710254630193054</v>
       </c>
       <c r="L70" s="69" t="str">
         <f ca="1">IF(K70&lt;=C70, IF(K70&lt;H70,$A$2,IF(K70&lt;H71,$A$3, IF(K70&lt;H72,$A$4, IF(K70&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -9553,7 +9822,7 @@
       </c>
       <c r="K71" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>68.475956041757087</v>
+        <v>63.267207176670141</v>
       </c>
       <c r="L71" s="69" t="str">
         <f ca="1">IF(K71&lt;=C71, IF(K71&lt;H70,$A$2,IF(K71&lt;H71,$A$3, IF(K71&lt;H72,$A$4, IF(K71&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -9595,7 +9864,7 @@
       </c>
       <c r="K72" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>39.677161079817388</v>
+        <v>11.322415487665104</v>
       </c>
       <c r="L72" s="69" t="str">
         <f ca="1">IF(K72&lt;=C72, IF(K72&lt;H70,$A$2,IF(K72&lt;H71,$A$3, IF(K72&lt;H72,$A$4, IF(K72&lt;H73,$A$5, "NONE")))), "NONE")</f>
@@ -9637,11 +9906,11 @@
       </c>
       <c r="K73" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6730051893220459</v>
+        <v>41.715349696404303</v>
       </c>
       <c r="L73" s="69" t="str">
         <f ca="1">IF(K73&lt;=C73, IF(K73&lt;H70,$A$2,IF(K73&lt;H71,$A$3, IF(K73&lt;H72,$A$4, IF(K73&lt;H73,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -9681,7 +9950,7 @@
       <c r="J74" s="69"/>
       <c r="K74" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>38.156952546226599</v>
+        <v>56.831934236573808</v>
       </c>
       <c r="L74" s="69" t="str">
         <f ca="1">IF(K74&lt;=C74, IF(K74&lt;H74,$A$2,IF(K74&lt;H75,$A$3, IF(K74&lt;H76,$A$4, IF(K74&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -9733,7 +10002,7 @@
       <c r="J75" s="69"/>
       <c r="K75" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>29.377597877144701</v>
+        <v>46.556298352208067</v>
       </c>
       <c r="L75" s="69" t="str">
         <f ca="1">IF(K75&lt;=C75, IF(K75&lt;H74,$A$2,IF(K75&lt;H75,$A$3, IF(K75&lt;H76,$A$4, IF(K75&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -9785,7 +10054,7 @@
       <c r="J76" s="69"/>
       <c r="K76" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>46.643831070015551</v>
+        <v>82.692536834696881</v>
       </c>
       <c r="L76" s="69" t="str">
         <f ca="1">IF(K76&lt;=C76, IF(K76&lt;H74,$A$2,IF(K76&lt;H75,$A$3, IF(K76&lt;H76,$A$4, IF(K76&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -9837,7 +10106,7 @@
       <c r="J77" s="69"/>
       <c r="K77" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>18.150841113626704</v>
+        <v>84.428701010115901</v>
       </c>
       <c r="L77" s="69" t="str">
         <f ca="1">IF(K77&lt;=C77, IF(K77&lt;H74,$A$2,IF(K77&lt;H75,$A$3, IF(K77&lt;H76,$A$4, IF(K77&lt;H77,$A$5, "NONE")))), "NONE")</f>
@@ -9887,7 +10156,7 @@
       </c>
       <c r="K78" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>63.839816915964946</v>
+        <v>11.407196706287348</v>
       </c>
       <c r="L78" s="69" t="str">
         <f ca="1">IF(K78&lt;=C78, IF(K78&lt;H78,$A$2,IF(K78&lt;H79,$A$3, IF(K78&lt;H80,$A$4, IF(K78&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -9929,7 +10198,7 @@
       </c>
       <c r="K79" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>55.769659402031166</v>
+        <v>27.928962050825589</v>
       </c>
       <c r="L79" s="69" t="str">
         <f ca="1">IF(K79&lt;=C79, IF(K79&lt;H78,$A$2,IF(K79&lt;H79,$A$3, IF(K79&lt;H80,$A$4, IF(K79&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -9971,7 +10240,7 @@
       </c>
       <c r="K80" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>31.074024460117865</v>
+        <v>95.468266785013569</v>
       </c>
       <c r="L80" s="69" t="str">
         <f ca="1">IF(K80&lt;=C80, IF(K80&lt;H78,$A$2,IF(K80&lt;H79,$A$3, IF(K80&lt;H80,$A$4, IF(K80&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -10013,7 +10282,7 @@
       </c>
       <c r="K81" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>44.115444240277313</v>
+        <v>32.023088176809942</v>
       </c>
       <c r="L81" s="69" t="str">
         <f ca="1">IF(K81&lt;=C81, IF(K81&lt;H78,$A$2,IF(K81&lt;H79,$A$3, IF(K81&lt;H80,$A$4, IF(K81&lt;H81,$A$5, "NONE")))), "NONE")</f>
@@ -10057,7 +10326,7 @@
       <c r="J82" s="69"/>
       <c r="K82" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>45.278241245402597</v>
+        <v>66.761370661701321</v>
       </c>
       <c r="L82" s="69" t="str">
         <f ca="1">IF(K82&lt;=C82, IF(K82&lt;H82,$A$2,IF(K82&lt;H83,$A$3, IF(K82&lt;H84,$A$4, IF(K82&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -10109,11 +10378,11 @@
       <c r="J83" s="69"/>
       <c r="K83" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>16.17093937465912</v>
+        <v>10.929806941862374</v>
       </c>
       <c r="L83" s="69" t="str">
         <f ca="1">IF(K83&lt;=C83, IF(K83&lt;H82,$A$2,IF(K83&lt;H83,$A$3, IF(K83&lt;H84,$A$4, IF(K83&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M83" s="69"/>
       <c r="N83" s="69"/>
@@ -10161,7 +10430,7 @@
       <c r="J84" s="69"/>
       <c r="K84" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>60.019269308637014</v>
+        <v>89.405236490417451</v>
       </c>
       <c r="L84" s="69" t="str">
         <f ca="1">IF(K84&lt;=C84, IF(K84&lt;H82,$A$2,IF(K84&lt;H83,$A$3, IF(K84&lt;H84,$A$4, IF(K84&lt;H85,$A$5, "NONE")))), "NONE")</f>
@@ -10213,11 +10482,11 @@
       <c r="J85" s="69"/>
       <c r="K85" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>16.170041880821774</v>
+        <v>9.0596667423590738</v>
       </c>
       <c r="L85" s="69" t="str">
         <f ca="1">IF(K85&lt;=C85, IF(K85&lt;H82,$A$2,IF(K85&lt;H83,$A$3, IF(K85&lt;H84,$A$4, IF(K85&lt;H85,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
       <c r="M85" s="69"/>
       <c r="N85" s="69"/>
@@ -10263,7 +10532,7 @@
       </c>
       <c r="K86" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>60.17151441415136</v>
+        <v>93.092947084601008</v>
       </c>
       <c r="L86" s="69" t="str">
         <f ca="1">IF(K86&lt;=C86, IF(K86&lt;H86,$A$2,IF(K86&lt;H87,$A$3, IF(K86&lt;H88,$A$4, IF(K86&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -10305,7 +10574,7 @@
       </c>
       <c r="K87" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>47.873230262778357</v>
+        <v>92.767103091308769</v>
       </c>
       <c r="L87" s="69" t="str">
         <f ca="1">IF(K87&lt;=C87, IF(K87&lt;H86,$A$2,IF(K87&lt;H87,$A$3, IF(K87&lt;H88,$A$4, IF(K87&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -10347,7 +10616,7 @@
       </c>
       <c r="K88" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>81.399192718694238</v>
+        <v>25.559181548418188</v>
       </c>
       <c r="L88" s="69" t="str">
         <f ca="1">IF(K88&lt;=C88, IF(K88&lt;H86,$A$2,IF(K88&lt;H87,$A$3, IF(K88&lt;H88,$A$4, IF(K88&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -10389,7 +10658,7 @@
       </c>
       <c r="K89" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>80.115614913533818</v>
+        <v>99.883158033421537</v>
       </c>
       <c r="L89" s="69" t="str">
         <f ca="1">IF(K89&lt;=C89, IF(K89&lt;H86,$A$2,IF(K89&lt;H87,$A$3, IF(K89&lt;H88,$A$4, IF(K89&lt;H89,$A$5, "NONE")))), "NONE")</f>
@@ -10433,7 +10702,7 @@
       <c r="J90" s="69"/>
       <c r="K90" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>36.718827630201375</v>
+        <v>25.887764117652711</v>
       </c>
       <c r="L90" s="69" t="str">
         <f ca="1">IF(K90&lt;=C90, IF(K90&lt;H90,$A$2,IF(K90&lt;H91,$A$3, IF(K90&lt;H92,$A$4, IF(K90&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -10485,7 +10754,7 @@
       <c r="J91" s="69"/>
       <c r="K91" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>18.055783625014911</v>
+        <v>36.044530971791964</v>
       </c>
       <c r="L91" s="69" t="str">
         <f ca="1">IF(K91&lt;=C91, IF(K91&lt;H90,$A$2,IF(K91&lt;H91,$A$3, IF(K91&lt;H92,$A$4, IF(K91&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -10537,7 +10806,7 @@
       <c r="J92" s="69"/>
       <c r="K92" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>30.682266112821555</v>
+        <v>40.186087317194264</v>
       </c>
       <c r="L92" s="69" t="str">
         <f ca="1">IF(K92&lt;=C92, IF(K92&lt;H90,$A$2,IF(K92&lt;H91,$A$3, IF(K92&lt;H92,$A$4, IF(K92&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -10589,7 +10858,7 @@
       <c r="J93" s="69"/>
       <c r="K93" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>67.435938371875764</v>
+        <v>51.935045672968549</v>
       </c>
       <c r="L93" s="69" t="str">
         <f ca="1">IF(K93&lt;=C93, IF(K93&lt;H90,$A$2,IF(K93&lt;H91,$A$3, IF(K93&lt;H92,$A$4, IF(K93&lt;H93,$A$5, "NONE")))), "NONE")</f>
@@ -10639,7 +10908,7 @@
       </c>
       <c r="K94" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>13.294382474119459</v>
+        <v>78.680755454656591</v>
       </c>
       <c r="L94" s="69" t="str">
         <f ca="1">IF(K94&lt;=C94, IF(K94&lt;H94,$A$2,IF(K94&lt;H95,$A$3, IF(K94&lt;H96,$A$4, IF(K94&lt;H97,$A$5, "NONE")))), "NONE")</f>
@@ -10681,11 +10950,11 @@
       </c>
       <c r="K95" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>35.789784342126119</v>
+        <v>1.676973717399588</v>
       </c>
       <c r="L95" s="69" t="str">
         <f ca="1">IF(K95&lt;=C95, IF(K95&lt;H94,$A$2,IF(K95&lt;H95,$A$3, IF(K95&lt;H96,$A$4, IF(K95&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>NONE</v>
+        <v>RP_RARE</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -10723,11 +10992,11 @@
       </c>
       <c r="K96" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3810703944233271</v>
+        <v>32.858685279103625</v>
       </c>
       <c r="L96" s="69" t="str">
         <f ca="1">IF(K96&lt;=C96, IF(K96&lt;H94,$A$2,IF(K96&lt;H95,$A$3, IF(K96&lt;H96,$A$4, IF(K96&lt;H97,$A$5, "NONE")))), "NONE")</f>
-        <v>RP_RARE</v>
+        <v>NONE</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
@@ -10765,7 +11034,7 @@
       </c>
       <c r="K97" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>70.171163297925034</v>
+        <v>99.973235275577181</v>
       </c>
       <c r="L97" s="69" t="str">
         <f ca="1">IF(K97&lt;=C97, IF(K97&lt;H94,$A$2,IF(K97&lt;H95,$A$3, IF(K97&lt;H96,$A$4, IF(K97&lt;H97,$A$5, "NONE")))), "NONE")</f>
@@ -10989,98 +11258,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8AED65-3B54-4C64-A71C-C47C063CF2F2}">
-  <dimension ref="A2:R22"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="80"/>
-    <col min="2" max="2" width="13.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="80" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="80" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+    <row r="1" spans="1:18" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>659</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>660</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>661</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>662</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>663</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>664</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>665</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>666</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q1" s="83" t="s">
+        <v>667</v>
+      </c>
+      <c r="R1" s="83" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>773</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>810</v>
+      </c>
       <c r="D2" s="81" t="s">
-        <v>656</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>657</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>658</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>659</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>660</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>661</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="K2" s="81" t="s">
-        <v>663</v>
-      </c>
-      <c r="L2" s="81" t="s">
-        <v>664</v>
-      </c>
-      <c r="M2" s="81" t="s">
-        <v>665</v>
-      </c>
-      <c r="N2" s="81" t="s">
-        <v>666</v>
-      </c>
-      <c r="O2" s="81" t="s">
-        <v>667</v>
-      </c>
-      <c r="P2" s="81" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q2" s="81" t="s">
-        <v>669</v>
-      </c>
-      <c r="R2" s="80" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+        <v>772</v>
+      </c>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
-        <v>745</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>670</v>
+        <v>813</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>732</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>671</v>
+        <v>784</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>747</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>748</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="81"/>
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
@@ -11088,31 +11381,36 @@
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
+      <c r="M3" s="81" t="s">
+        <v>772</v>
+      </c>
       <c r="N3" s="81"/>
       <c r="O3" s="81"/>
       <c r="P3" s="81"/>
       <c r="Q3" s="81"/>
     </row>
-    <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="81" t="s">
-        <v>674</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>814</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>732</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>675</v>
+        <v>808</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>747</v>
+        <v>811</v>
       </c>
       <c r="E4" s="81"/>
-      <c r="F4" s="81" t="s">
-        <v>749</v>
-      </c>
+      <c r="F4" s="81"/>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="K4" s="81" t="s">
+        <v>786</v>
+      </c>
       <c r="L4" s="81"/>
       <c r="M4" s="81"/>
       <c r="N4" s="81"/>
@@ -11120,20 +11418,21 @@
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
     </row>
-    <row r="5" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="81" t="s">
-        <v>677</v>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>815</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>732</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>678</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81" t="s">
-        <v>673</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>676</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>783</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
@@ -11141,22 +11440,29 @@
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
       <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
+      <c r="N5" s="81" t="s">
+        <v>787</v>
+      </c>
       <c r="O5" s="81"/>
       <c r="P5" s="81"/>
       <c r="Q5" s="81"/>
     </row>
-    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B6" s="81" t="s">
-        <v>679</v>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>816</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>732</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>756</v>
-      </c>
-      <c r="E6" s="81"/>
+        <v>669</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>788</v>
+      </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
       <c r="H6" s="81"/>
@@ -11170,18 +11476,23 @@
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
     </row>
-    <row r="7" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="81" t="s">
-        <v>681</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>817</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>732</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>682</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81" t="s">
-        <v>520</v>
-      </c>
-      <c r="F7" s="81"/>
+        <v>670</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>671</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
+        <v>788</v>
+      </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
       <c r="I7" s="81"/>
@@ -11194,19 +11505,24 @@
       <c r="P7" s="81"/>
       <c r="Q7" s="81"/>
     </row>
-    <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B8" s="81" t="s">
-        <v>683</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>818</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>732</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>684</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>672</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>673</v>
+      </c>
       <c r="E8" s="81"/>
-      <c r="F8" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81" t="s">
+        <v>788</v>
+      </c>
       <c r="H8" s="81"/>
       <c r="I8" s="81"/>
       <c r="J8" s="81"/>
@@ -11218,24 +11534,27 @@
       <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
     </row>
-    <row r="9" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B9" s="81" t="s">
-        <v>685</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>819</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>732</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>672</v>
+        <v>789</v>
       </c>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
       <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="H9" s="81" t="s">
+        <v>791</v>
+      </c>
       <c r="I9" s="81"/>
-      <c r="J9" s="81" t="s">
-        <v>578</v>
-      </c>
+      <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
       <c r="M9" s="81"/>
@@ -11244,229 +11563,646 @@
       <c r="P9" s="81"/>
       <c r="Q9" s="81"/>
     </row>
-    <row r="10" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B10" s="81" t="s">
-        <v>687</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>688</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>672</v>
-      </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-    </row>
-    <row r="11" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="81" t="s">
-        <v>689</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>690</v>
-      </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81" t="s">
-        <v>673</v>
-      </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-    </row>
-    <row r="12" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B12" s="81" t="s">
-        <v>691</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>692</v>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81" t="s">
-        <v>673</v>
-      </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-    </row>
-    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B13" s="81" t="s">
-        <v>693</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>694</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81" t="s">
+    <row r="10" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>820</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>674</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>675</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>774</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86" t="s">
+        <v>792</v>
+      </c>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+    </row>
+    <row r="11" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
+        <v>821</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>732</v>
+      </c>
+      <c r="C11" s="86" t="s">
         <v>676</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-    </row>
-    <row r="14" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B14" s="81" t="s">
-        <v>695</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>696</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81" t="s">
-        <v>676</v>
-      </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="81"/>
-    </row>
-    <row r="15" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="81" t="s">
-        <v>697</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>698</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81" t="s">
-        <v>699</v>
-      </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="86" t="s">
+        <v>677</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>774</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86" t="s">
+        <v>771</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+    </row>
+    <row r="12" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>822</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>732</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>678</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>679</v>
+      </c>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86" t="s">
+        <v>774</v>
+      </c>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86" t="s">
+        <v>771</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+    </row>
+    <row r="13" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>823</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>732</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>680</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>793</v>
+      </c>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86" t="s">
+        <v>774</v>
+      </c>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86" t="s">
+        <v>792</v>
+      </c>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+    </row>
+    <row r="14" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>824</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>681</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>682</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86" t="s">
+        <v>774</v>
+      </c>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86" t="s">
+        <v>794</v>
+      </c>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+    </row>
+    <row r="15" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>825</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>732</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>683</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>684</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86" t="s">
+        <v>774</v>
+      </c>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
+        <v>769</v>
+      </c>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+    </row>
+    <row r="16" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>826</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>732</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>685</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>686</v>
+      </c>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86" t="s">
+        <v>795</v>
+      </c>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86" t="s">
+        <v>771</v>
+      </c>
+      <c r="R16" s="86"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
+        <v>827</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>797</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>796</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
+        <v>828</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>799</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>798</v>
+      </c>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
+        <v>829</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>801</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q19" s="81"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
+        <v>830</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>803</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>802</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81" t="s">
+        <v>804</v>
+      </c>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>831</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>806</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>805</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81" t="s">
+        <v>807</v>
+      </c>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>832</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>734</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="80" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>738</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>737</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
+        <v>834</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>747</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>835</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>742</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
+        <v>836</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>744</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>743</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="80" t="s">
+        <v>837</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" s="80" t="s">
         <v>746</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="D27" s="80" t="s">
+        <v>745</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="80" t="s">
+        <v>838</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C28" s="80" t="s">
         <v>751</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="D28" s="80" t="s">
+        <v>748</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="80" t="s">
+        <v>839</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C29" s="80" t="s">
         <v>750</v>
       </c>
-      <c r="D17" s="82" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="80" t="s">
+      <c r="D29" s="80" t="s">
+        <v>749</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="s">
+        <v>840</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C30" s="80" t="s">
         <v>754</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="D30" s="80" t="s">
         <v>753</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="I30" s="80" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="80" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="80" t="s">
+        <v>841</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>766</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>812</v>
+      </c>
+      <c r="I31" s="80" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
+        <v>842</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>757</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>756</v>
+      </c>
+      <c r="L32" s="80" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="80" t="s">
+        <v>843</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>759</v>
+      </c>
+      <c r="D33" s="80" t="s">
         <v>758</v>
       </c>
-      <c r="C19" s="80" t="s">
-        <v>757</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="80" t="s">
-        <v>760</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>759</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="80" t="s">
-        <v>762</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>761</v>
-      </c>
-      <c r="F21" s="82" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="80" t="s">
+      <c r="L33" s="80" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="80" t="s">
+        <v>844</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>765</v>
+      </c>
+      <c r="D34" s="80" t="s">
         <v>764</v>
       </c>
-      <c r="C22" s="80" t="s">
-        <v>763</v>
-      </c>
-      <c r="F22" s="82" t="s">
-        <v>755</v>
+      <c r="O34" s="80" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
+        <v>845</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>768</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>767</v>
+      </c>
+      <c r="O35" s="80" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="80" t="s">
+        <v>846</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>777</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="P36" s="80" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="80" t="s">
+        <v>847</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>779</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="P37" s="80" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -11477,10 +12213,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B7EA3C-4ADA-4CF3-81F5-CEFF874C559A}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11491,11 +12228,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11512,18 +12249,18 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="10" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="16"/>
       <c r="C5" s="18" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11533,45 +12270,45 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="10" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="10" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="10" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="65" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="65"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11581,18 +12318,18 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="65"/>
       <c r="B15" s="13"/>
       <c r="C15" s="10" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11602,11 +12339,11 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="65" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11618,18 +12355,18 @@
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="15"/>
       <c r="C21" s="10" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11639,11 +12376,11 @@
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11660,34 +12397,34 @@
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="53" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="53" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11697,11 +12434,11 @@
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="53" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11718,11 +12455,11 @@
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="53" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11733,29 +12470,29 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="77" t="s">
-        <v>725</v>
+      <c r="A38" s="76" t="s">
+        <v>712</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="10" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="77"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="16"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="77" t="s">
-        <v>728</v>
+      <c r="A41" s="76" t="s">
+        <v>715</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="10" t="s">
@@ -11763,26 +12500,26 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="77"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="78" t="s">
-        <v>730</v>
+      <c r="A44" s="77" t="s">
+        <v>717</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="17" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="65"/>
       <c r="B45" s="14"/>
       <c r="C45" s="18" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11791,7 +12528,7 @@
       <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="77" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="14"/>
@@ -11814,26 +12551,26 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
-        <v>733</v>
+      <c r="A51" s="76" t="s">
+        <v>720</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="10" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="16"/>
       <c r="C53" s="18" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
@@ -11842,8 +12579,8 @@
       <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="77" t="s">
-        <v>737</v>
+      <c r="A55" s="76" t="s">
+        <v>724</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="10" t="s">
@@ -11854,32 +12591,32 @@
       <c r="A56" s="10"/>
       <c r="B56" s="15"/>
       <c r="C56" s="10" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="79" t="s">
-        <v>739</v>
+      <c r="A58" s="78" t="s">
+        <v>726</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
       <c r="B59" s="61"/>
       <c r="C59" s="58" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
       <c r="B60" s="61"/>
       <c r="C60" s="55" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -11892,8 +12629,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -13775,8 +14512,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -14627,7 +15364,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15094,7 +15831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16981,18 +17718,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="71"/>
